--- a/CISS_rc/apps/rc_self/rc_debt_1910.xlsx
+++ b/CISS_rc/apps/rc_self/rc_debt_1910.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zd_zxjtzq\ciss_web\CISS_rc\apps\rc_self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9FAA07-18E4-4E9B-A9FE-AF49514802AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE658F9-53AF-48D0-AF1A-6361805A70D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rc_debt_191021" sheetId="8" r:id="rId1"/>
     <sheet name="每月记录表" sheetId="7" r:id="rId2"/>
-    <sheet name="分期试算" sheetId="9" r:id="rId3"/>
-    <sheet name="rc_self" sheetId="5" r:id="rId4"/>
-    <sheet name="上课笔记和考核_self" sheetId="4" r:id="rId5"/>
-    <sheet name="rc_debt_191020" sheetId="6" r:id="rId6"/>
+    <sheet name="ICBC分期合计" sheetId="10" r:id="rId3"/>
+    <sheet name="分期试算" sheetId="9" r:id="rId4"/>
+    <sheet name="rc_self" sheetId="5" r:id="rId5"/>
+    <sheet name="上课笔记和考核_self" sheetId="4" r:id="rId6"/>
+    <sheet name="rc_debt_191020" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="493">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1311,11 +1312,543 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要新增1w，期限1月，因为下一个10天会有结余；用NBYH的短期白领通；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect bonus for 5 months</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分期付款手续费</t>
+  </si>
+  <si>
+    <t>10/60期 支付宝-上海皮小猴酒业有限公司</t>
+  </si>
+  <si>
+    <t>2.00/RMB</t>
+  </si>
+  <si>
+    <t>2.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>分期付款到期扣收</t>
+  </si>
+  <si>
+    <t>16/60期 北京实美形象设计中心</t>
+  </si>
+  <si>
+    <t>16.00/RMB</t>
+  </si>
+  <si>
+    <t>16.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>13/60期 支付宝-中国国际航空股份有限公司</t>
+  </si>
+  <si>
+    <t>18.00/RMB</t>
+  </si>
+  <si>
+    <t>18.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>3.00/RMB</t>
+  </si>
+  <si>
+    <t>3.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>13/60期 支付宝-北京神州数码科捷技术服务*</t>
+  </si>
+  <si>
+    <t>64.00/RMB</t>
+  </si>
+  <si>
+    <t>64.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>11.00/RMB</t>
+  </si>
+  <si>
+    <t>11.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>13/60期 支付宝-酷飞在线信息科技南京有限*</t>
+  </si>
+  <si>
+    <t>13/60期 支付宝-铂涛信息技术（广州）有限*</t>
+  </si>
+  <si>
+    <t>透支利息</t>
+  </si>
+  <si>
+    <t>卡清算中心</t>
+  </si>
+  <si>
+    <t>117.47/RMB</t>
+  </si>
+  <si>
+    <t>117.47/RMB(支出</t>
+  </si>
+  <si>
+    <t>10/60期 支付宝-武汉攀升兄弟科技有限公司</t>
+  </si>
+  <si>
+    <t>10.00/RMB</t>
+  </si>
+  <si>
+    <t>10.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>10/60期 支付宝-小米通讯技术有限公司</t>
+  </si>
+  <si>
+    <t>61.00/RMB</t>
+  </si>
+  <si>
+    <t>61.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>10/60期 支付宝-中国国际航空股份有限公司</t>
+  </si>
+  <si>
+    <t>20.00/RMB</t>
+  </si>
+  <si>
+    <t>20.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>10/60期 支付宝-厦门航空有限公司</t>
+  </si>
+  <si>
+    <t>22.00/RMB</t>
+  </si>
+  <si>
+    <t>22.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>12.00/RMB</t>
+  </si>
+  <si>
+    <t>12.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>10/60期 财付通-德川家日本料理（五棵</t>
+  </si>
+  <si>
+    <t>15.00/RMB</t>
+  </si>
+  <si>
+    <t>15.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>26.00/RMB</t>
+  </si>
+  <si>
+    <t>26.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>4.00/RMB</t>
+  </si>
+  <si>
+    <t>4.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>10/60期 支付宝-陆小红</t>
+  </si>
+  <si>
+    <t>36.00/RMB</t>
+  </si>
+  <si>
+    <t>36.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>6.00/RMB</t>
+  </si>
+  <si>
+    <t>6.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>10/60期 支付宝-厦门康城健康家居产品有限*</t>
+  </si>
+  <si>
+    <t>25.00/RMB</t>
+  </si>
+  <si>
+    <t>25.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>17.00/RMB</t>
+  </si>
+  <si>
+    <t>17.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>13.00/RMB</t>
+  </si>
+  <si>
+    <t>13.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>2.00/RMB(支出)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/60期 支付宝-王书孝</t>
+  </si>
+  <si>
+    <t>8.00/RMB</t>
+  </si>
+  <si>
+    <t>8.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>12/60期 支付宝-张存银</t>
+  </si>
+  <si>
+    <t>14.00/RMB</t>
+  </si>
+  <si>
+    <t>14.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>12/60期 支付宝-珠海星辉旅行社有限公司</t>
+  </si>
+  <si>
+    <t>46.00/RMB</t>
+  </si>
+  <si>
+    <t>46.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>6/60期 支付宝-阿斯兰航空服务（上海）有*</t>
+  </si>
+  <si>
+    <t>100.00/RMB</t>
+  </si>
+  <si>
+    <t>100.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>6/60期 财付通-友好商场</t>
+  </si>
+  <si>
+    <t>1.00/RMB</t>
+  </si>
+  <si>
+    <t>1.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>6/60期 财付通-乌鲁木齐锦江国际酒店</t>
+  </si>
+  <si>
+    <t>50.00/RMB</t>
+  </si>
+  <si>
+    <t>50.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>14/60期 支付宝-中国东方航空股份有限公司</t>
+  </si>
+  <si>
+    <t>14/60期 支付宝-海南航空控股股份有限公司</t>
+  </si>
+  <si>
+    <t>8/60期 财付通-时美财经印务北京阜成</t>
+  </si>
+  <si>
+    <t>62.00/RMB</t>
+  </si>
+  <si>
+    <t>62.00/RMB(支出</t>
+  </si>
+  <si>
+    <t>12/60期 支付宝-安徽美地美电器销售有限公*</t>
+  </si>
+  <si>
+    <t>12/60期 支付宝-大连鸿森床具有限公司</t>
+  </si>
+  <si>
+    <t>16/60期 北京市泰盛嘉泽商贸有限公司</t>
+  </si>
+  <si>
+    <t>14/60期 支付宝-程幸坡</t>
+  </si>
+  <si>
+    <t>129.00/RMB</t>
+  </si>
+  <si>
+    <t>129.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>6/60期 （特约）CEA易宝</t>
+  </si>
+  <si>
+    <t>13/60期 厦门浅深酒店管理有限公司</t>
+  </si>
+  <si>
+    <t>16/60期 上海华程西南旅行社有限公司（携程</t>
+  </si>
+  <si>
+    <t>9/60期 财付通-人人江记海鲜火锅（省</t>
+  </si>
+  <si>
+    <t>50.00/RMB(支出</t>
+  </si>
+  <si>
+    <t>卡号后四位</t>
+  </si>
+  <si>
+    <t>交易日</t>
+  </si>
+  <si>
+    <t>记账日</t>
+  </si>
+  <si>
+    <t>交易类</t>
+  </si>
+  <si>
+    <t>商户名称/城市</t>
+  </si>
+  <si>
+    <t>交易金额/币种</t>
+  </si>
+  <si>
+    <t>记账金额/币种</t>
+  </si>
+  <si>
+    <t>11/60期 支付宝-Air</t>
+  </si>
+  <si>
+    <t>37.00/RMB</t>
+  </si>
+  <si>
+    <t>37.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>10/60期 支付宝-王书孝</t>
+  </si>
+  <si>
+    <t>10/60期 支付宝-中国铁路总公司资金清算中*</t>
+  </si>
+  <si>
+    <t>34.00/RMB</t>
+  </si>
+  <si>
+    <t>34.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>5.00/RMB</t>
+  </si>
+  <si>
+    <t>5.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>10/60期 支付宝-广州一起飞国际旅行社有限*</t>
+  </si>
+  <si>
+    <t>21.00/RMB</t>
+  </si>
+  <si>
+    <t>21.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>31.00/RMB</t>
+  </si>
+  <si>
+    <t>31.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>12/60期 支付宝-李进宝</t>
+  </si>
+  <si>
+    <t>63.00/RMB</t>
+  </si>
+  <si>
+    <t>63.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>12/60期 支付宝-上海纽卡斯床垫有限公司</t>
+  </si>
+  <si>
+    <t>12/60期 支付宝-苏宁易购集团股份有限公司*</t>
+  </si>
+  <si>
+    <t>38.00/RMB</t>
+  </si>
+  <si>
+    <t>38.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>6.00/RMB(支出</t>
+  </si>
+  <si>
+    <t>15/60期 中国铁路总公司资金清算中心</t>
+  </si>
+  <si>
+    <t>12/60期 支付宝-江苏苏宁易购电子商务有限*</t>
+  </si>
+  <si>
+    <t>12/60期 支付宝-上海文亮制冷设备工程有限*</t>
+  </si>
+  <si>
+    <t>60.00/RMB</t>
+  </si>
+  <si>
+    <t>60.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>12/60期 支付宝-珠海市翁富网络科技有限公*</t>
+  </si>
+  <si>
+    <t>12/60期 财付通-京东</t>
+  </si>
+  <si>
+    <t>118.00/RMB</t>
+  </si>
+  <si>
+    <t>118.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>14/60期 支付宝-中国铁路总公司资金清算中*</t>
+  </si>
+  <si>
+    <t>10/60期 北京大学人民医院新院</t>
+  </si>
+  <si>
+    <t>10/60期 五棵松</t>
+  </si>
+  <si>
+    <t>17/60期 上海市地方税务局</t>
+  </si>
+  <si>
+    <t>651.00/RMB</t>
+  </si>
+  <si>
+    <t>651.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>113.00/RMB</t>
+  </si>
+  <si>
+    <t>113.00/RMB(支出</t>
+  </si>
+  <si>
+    <t>6/60期 财付通-LadyToday</t>
+  </si>
+  <si>
+    <t>13/60期 支付宝-厦门航空有限公司</t>
+  </si>
+  <si>
+    <t>8/60期 支付宝-广东驰风网络科技有限公司</t>
+  </si>
+  <si>
+    <t>13/60期 支付宝-应武斌</t>
+  </si>
+  <si>
+    <t>11/60期 支付宝-王海军</t>
+  </si>
+  <si>
+    <t>11/60期 支付宝-苏宁易购集团股份有限公司*</t>
+  </si>
+  <si>
+    <t>24.00/RMB</t>
+  </si>
+  <si>
+    <t>24.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>9/60期 支付宝-海天盛宴海鲜自助</t>
+  </si>
+  <si>
+    <t>6/60期 支付宝-北京首都航空有限公司</t>
+  </si>
+  <si>
+    <t>19.00/RMB</t>
+  </si>
+  <si>
+    <t>19.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>6/60期 支付宝-上海华程西南国际旅行社有*</t>
+  </si>
+  <si>
+    <t>226.00/RMB</t>
+  </si>
+  <si>
+    <t>226.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>39.00/RMB</t>
+  </si>
+  <si>
+    <t>39.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>15/60期 上海浦东新区潍坊物业公司</t>
+  </si>
+  <si>
+    <t>1.00/RMB(支出</t>
+  </si>
+  <si>
+    <t>15/60期 支付宝-北京蜜蜂兄弟科技有限公司</t>
+  </si>
+  <si>
+    <t>23.00/RMB</t>
+  </si>
+  <si>
+    <t>23.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>6/60期 支付宝-中国铁路总公司资金清算中*</t>
+  </si>
+  <si>
+    <t>13/60期 支付宝-王书孝</t>
+  </si>
+  <si>
+    <t>366.00/RMB</t>
+  </si>
+  <si>
+    <t>366.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>7/60期 财付通-京东商城平台商户</t>
+  </si>
+  <si>
+    <t>6/60期 西安SKP</t>
+  </si>
+  <si>
+    <t>42.00/RMB</t>
+  </si>
+  <si>
+    <t>42.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>7.00/RMB</t>
+  </si>
+  <si>
+    <t>7.00/RMB(支出)</t>
+  </si>
+  <si>
+    <t>5/60期 支付宝-深圳市爱乐乐器有限公司</t>
+  </si>
+  <si>
+    <t>15/60期 支付宝-上海华程西南国际旅行社有*</t>
+  </si>
+  <si>
+    <t>2.00/RMB(支</t>
+  </si>
+  <si>
+    <t>月分期付款合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据“ICBC分期合计”计算，平均一个月需要还3900，201910期数是13/60；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要新增短期8k，期限1月，因为下一个10天会有结余；用NBYH的短期白领通；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1518,7 +2051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1678,13 +2211,29 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2004,11 +2553,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:T197"/>
+  <dimension ref="A1:T198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2110,7 +2659,7 @@
         <v>13420</v>
       </c>
       <c r="J2" t="b">
-        <f t="shared" ref="J2:J30" si="0">K2&gt;=$A$7</f>
+        <f t="shared" ref="J2:J31" si="0">K2&gt;=$A$7</f>
         <v>0</v>
       </c>
       <c r="K2" s="14">
@@ -2158,21 +2707,21 @@
         <v>150</v>
       </c>
       <c r="I3" s="18">
-        <v>6800</v>
+        <v>3900</v>
       </c>
       <c r="J3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="14">
-        <f t="shared" ref="K3:K26" si="2">_xlfn.NUMBERVALUE(R3)</f>
+        <f t="shared" ref="K3:K27" si="2">_xlfn.NUMBERVALUE(R3)</f>
         <v>1010</v>
       </c>
       <c r="L3" s="6">
         <v>-54000</v>
       </c>
       <c r="M3" t="s">
-        <v>180</v>
+        <v>491</v>
       </c>
       <c r="Q3">
         <v>20230410</v>
@@ -2191,7 +2740,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
-        <f>A34</f>
+        <f>A35</f>
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -2242,13 +2791,13 @@
         <v>15000</v>
       </c>
       <c r="T4" s="11">
-        <f t="shared" ref="T4:T26" si="3">S4*(E4-0.1)</f>
+        <f t="shared" ref="T4:T27" si="3">S4*(E4-0.1)</f>
         <v>-630</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="str">
-        <f>A35</f>
+        <f>A36</f>
         <v>日期=</v>
       </c>
       <c r="B5" t="s">
@@ -2363,7 +2912,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
-        <f>A36</f>
+        <f>A37</f>
         <v>1028</v>
       </c>
       <c r="E7" s="12"/>
@@ -2600,7 +3149,7 @@
         <v>150</v>
       </c>
       <c r="I14">
-        <v>1360</v>
+        <v>1418</v>
       </c>
       <c r="J14" t="b">
         <f t="shared" si="0"/>
@@ -2612,7 +3161,7 @@
       </c>
       <c r="L14">
         <f>I14*12*-1</f>
-        <v>-16320</v>
+        <v>-17016</v>
       </c>
       <c r="M14" t="s">
         <v>222</v>
@@ -2621,7 +3170,7 @@
         <v>228</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" ref="R14:R26" si="9">$A$4&amp;RIGHT(Q14,2)</f>
+        <f t="shared" ref="R14:R27" si="9">$A$4&amp;RIGHT(Q14,2)</f>
         <v>1002</v>
       </c>
       <c r="S14">
@@ -2650,14 +3199,14 @@
         <v>12</v>
       </c>
       <c r="G15" s="11">
-        <f t="shared" ref="G15:G26" si="10">E15*D15*(F15/12)</f>
+        <f t="shared" ref="G15:G27" si="10">E15*D15*(F15/12)</f>
         <v>-1384.3439999999998</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>150</v>
       </c>
       <c r="I15">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="J15" t="b">
         <f t="shared" si="0"/>
@@ -2668,8 +3217,8 @@
         <v>1003</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:L26" si="11">I15*12*-1</f>
-        <v>-13560</v>
+        <f t="shared" ref="L15:L27" si="11">I15*12*-1</f>
+        <v>-13572</v>
       </c>
       <c r="Q15" t="s">
         <v>229</v>
@@ -2679,7 +3228,7 @@
         <v>1003</v>
       </c>
       <c r="S15">
-        <f t="shared" ref="S15:S26" si="12">D15*-1*0.8</f>
+        <f t="shared" ref="S15:S27" si="12">D15*-1*0.8</f>
         <v>15381.6</v>
       </c>
       <c r="T15" s="11">
@@ -2711,7 +3260,7 @@
         <v>150</v>
       </c>
       <c r="I16">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="J16" t="b">
         <f t="shared" si="0"/>
@@ -2723,7 +3272,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="11"/>
-        <v>-13200</v>
+        <v>-13152</v>
       </c>
       <c r="Q16" t="s">
         <v>230</v>
@@ -2741,15 +3290,15 @@
         <v>-417.55840000000018</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17">
-        <v>-8647</v>
+        <v>-19000</v>
       </c>
       <c r="E17" s="10">
         <v>7.1999999999999995E-2</v>
@@ -2758,68 +3307,68 @@
         <v>12</v>
       </c>
       <c r="G17" s="11">
+        <f t="shared" ref="G17" si="13">E17*D17*(F17/12)</f>
+        <v>-1368</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17">
+        <v>1117</v>
+      </c>
+      <c r="J17" t="b">
+        <f t="shared" ref="J17" si="14">K17&gt;=$A$7</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" ref="K17" si="15">_xlfn.NUMBERVALUE(R17)</f>
+        <v>1005</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17" si="16">I17*12*-1</f>
+        <v>-13404</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>230</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" ref="R17" si="17">$A$4&amp;RIGHT(Q17,2)</f>
+        <v>1005</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17" si="18">D17*-1*0.8</f>
+        <v>15200</v>
+      </c>
+      <c r="T17" s="11">
+        <f t="shared" ref="T17" si="19">S17*(E17-0.1)</f>
+        <v>-425.60000000000019</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18">
+        <v>-8647</v>
+      </c>
+      <c r="E18" s="10">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F18" s="11">
+        <v>12</v>
+      </c>
+      <c r="G18" s="11">
         <f t="shared" si="10"/>
         <v>-622.58399999999995</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17">
-        <v>510</v>
-      </c>
-      <c r="J17" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="shared" si="2"/>
-        <v>1009</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="11"/>
-        <v>-6120</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>231</v>
-      </c>
-      <c r="R17" t="str">
-        <f t="shared" si="9"/>
-        <v>1009</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="12"/>
-        <v>6917.6</v>
-      </c>
-      <c r="T17" s="11">
-        <f t="shared" si="3"/>
-        <v>-193.69280000000009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18">
-        <v>-12674</v>
-      </c>
-      <c r="E18" s="10">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="F18" s="11">
-        <v>12</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" si="10"/>
-        <v>-912.52799999999991</v>
-      </c>
       <c r="H18" s="13" t="s">
         <v>150</v>
       </c>
       <c r="I18">
-        <v>750</v>
+        <v>510</v>
       </c>
       <c r="J18" t="b">
         <f t="shared" si="0"/>
@@ -2831,7 +3380,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="11"/>
-        <v>-9000</v>
+        <v>-6120</v>
       </c>
       <c r="Q18" t="s">
         <v>231</v>
@@ -2842,22 +3391,22 @@
       </c>
       <c r="S18">
         <f t="shared" si="12"/>
-        <v>10139.200000000001</v>
+        <v>6917.6</v>
       </c>
       <c r="T18" s="11">
         <f t="shared" si="3"/>
-        <v>-283.89760000000012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-193.69280000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19">
-        <v>-8190</v>
+        <v>-12674</v>
       </c>
       <c r="E19" s="10">
         <v>7.1999999999999995E-2</v>
@@ -2867,13 +3416,13 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="10"/>
-        <v>-589.67999999999995</v>
+        <v>-912.52799999999991</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>150</v>
       </c>
       <c r="I19">
-        <v>510</v>
+        <v>750</v>
       </c>
       <c r="J19" t="b">
         <f t="shared" si="0"/>
@@ -2881,37 +3430,37 @@
       </c>
       <c r="K19" s="14">
         <f t="shared" si="2"/>
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="L19">
         <f t="shared" si="11"/>
-        <v>-6120</v>
+        <v>-9000</v>
       </c>
       <c r="Q19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R19" t="str">
         <f t="shared" si="9"/>
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="S19">
         <f t="shared" si="12"/>
-        <v>6552</v>
+        <v>10139.200000000001</v>
       </c>
       <c r="T19" s="11">
         <f t="shared" si="3"/>
-        <v>-183.45600000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-283.89760000000012</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D20">
-        <v>-12860</v>
+        <v>-8190</v>
       </c>
       <c r="E20" s="10">
         <v>7.1999999999999995E-2</v>
@@ -2921,13 +3470,13 @@
       </c>
       <c r="G20" s="11">
         <f t="shared" si="10"/>
-        <v>-925.92</v>
+        <v>-589.67999999999995</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>150</v>
       </c>
       <c r="I20">
-        <v>790</v>
+        <v>510</v>
       </c>
       <c r="J20" t="b">
         <f t="shared" si="0"/>
@@ -2935,37 +3484,37 @@
       </c>
       <c r="K20" s="14">
         <f t="shared" si="2"/>
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L20">
         <f t="shared" si="11"/>
-        <v>-9480</v>
+        <v>-6120</v>
       </c>
       <c r="Q20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R20" t="str">
         <f t="shared" si="9"/>
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="S20">
         <f t="shared" si="12"/>
-        <v>10288</v>
+        <v>6552</v>
       </c>
       <c r="T20" s="11">
         <f t="shared" si="3"/>
-        <v>-288.06400000000014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-183.45600000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D21">
-        <v>-17660</v>
+        <v>-12860</v>
       </c>
       <c r="E21" s="10">
         <v>7.1999999999999995E-2</v>
@@ -2975,13 +3524,13 @@
       </c>
       <c r="G21" s="11">
         <f t="shared" si="10"/>
-        <v>-1271.52</v>
+        <v>-925.92</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>150</v>
       </c>
       <c r="I21">
-        <v>1090</v>
+        <v>790</v>
       </c>
       <c r="J21" t="b">
         <f t="shared" si="0"/>
@@ -2989,37 +3538,37 @@
       </c>
       <c r="K21" s="14">
         <f t="shared" si="2"/>
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="L21">
         <f t="shared" si="11"/>
-        <v>-13080</v>
+        <v>-9480</v>
       </c>
       <c r="Q21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R21" t="str">
         <f t="shared" si="9"/>
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="S21">
         <f t="shared" si="12"/>
-        <v>14128</v>
+        <v>10288</v>
       </c>
       <c r="T21" s="11">
         <f t="shared" si="3"/>
-        <v>-395.58400000000017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-288.06400000000014</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D22">
-        <v>-19000</v>
+        <v>-17660</v>
       </c>
       <c r="E22" s="10">
         <v>7.1999999999999995E-2</v>
@@ -3029,13 +3578,13 @@
       </c>
       <c r="G22" s="11">
         <f t="shared" si="10"/>
-        <v>-1368</v>
+        <v>-1271.52</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>150</v>
       </c>
       <c r="I22">
-        <v>1071</v>
+        <v>1090</v>
       </c>
       <c r="J22" t="b">
         <f t="shared" si="0"/>
@@ -3047,7 +3596,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="11"/>
-        <v>-12852</v>
+        <v>-13080</v>
       </c>
       <c r="Q22" t="s">
         <v>234</v>
@@ -3058,22 +3607,22 @@
       </c>
       <c r="S22">
         <f t="shared" si="12"/>
-        <v>15200</v>
+        <v>14128</v>
       </c>
       <c r="T22" s="11">
         <f t="shared" si="3"/>
-        <v>-425.60000000000019</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-395.58400000000017</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23">
-        <v>-31880</v>
+        <v>-19000</v>
       </c>
       <c r="E23" s="10">
         <v>7.1999999999999995E-2</v>
@@ -3083,13 +3632,13 @@
       </c>
       <c r="G23" s="11">
         <f t="shared" si="10"/>
-        <v>-2295.3599999999997</v>
+        <v>-1368</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>150</v>
       </c>
       <c r="I23">
-        <v>1875</v>
+        <v>1071</v>
       </c>
       <c r="J23" t="b">
         <f t="shared" si="0"/>
@@ -3097,37 +3646,37 @@
       </c>
       <c r="K23" s="14">
         <f t="shared" si="2"/>
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L23">
         <f t="shared" si="11"/>
-        <v>-22500</v>
+        <v>-12852</v>
       </c>
       <c r="Q23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R23" t="str">
         <f t="shared" si="9"/>
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="S23">
         <f t="shared" si="12"/>
-        <v>25504</v>
+        <v>15200</v>
       </c>
       <c r="T23" s="11">
         <f t="shared" si="3"/>
-        <v>-714.11200000000031</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-425.60000000000019</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D24">
-        <v>-18213</v>
+        <v>-31880</v>
       </c>
       <c r="E24" s="10">
         <v>7.1999999999999995E-2</v>
@@ -3137,13 +3686,13 @@
       </c>
       <c r="G24" s="11">
         <f t="shared" si="10"/>
-        <v>-1311.336</v>
+        <v>-2295.3599999999997</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>150</v>
       </c>
       <c r="I24">
-        <v>1130</v>
+        <v>1875</v>
       </c>
       <c r="J24" t="b">
         <f t="shared" si="0"/>
@@ -3155,7 +3704,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="11"/>
-        <v>-13560</v>
+        <v>-22500</v>
       </c>
       <c r="Q24" t="s">
         <v>235</v>
@@ -3166,22 +3715,22 @@
       </c>
       <c r="S24">
         <f t="shared" si="12"/>
-        <v>14570.400000000001</v>
+        <v>25504</v>
       </c>
       <c r="T24" s="11">
         <f t="shared" si="3"/>
-        <v>-407.97120000000018</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-714.11200000000031</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>133</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25">
-        <v>-10000</v>
+        <v>-18213</v>
       </c>
       <c r="E25" s="10">
         <v>7.1999999999999995E-2</v>
@@ -3191,13 +3740,13 @@
       </c>
       <c r="G25" s="11">
         <f t="shared" si="10"/>
-        <v>-720</v>
+        <v>-1311.336</v>
       </c>
       <c r="H25" s="13" t="s">
         <v>150</v>
       </c>
       <c r="I25">
-        <v>590</v>
+        <v>1130</v>
       </c>
       <c r="J25" t="b">
         <f t="shared" si="0"/>
@@ -3205,37 +3754,37 @@
       </c>
       <c r="K25" s="14">
         <f t="shared" si="2"/>
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="L25">
         <f t="shared" si="11"/>
-        <v>-7080</v>
+        <v>-13560</v>
       </c>
       <c r="Q25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R25" t="str">
         <f t="shared" si="9"/>
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="S25">
         <f t="shared" si="12"/>
-        <v>8000</v>
+        <v>14570.400000000001</v>
       </c>
       <c r="T25" s="11">
         <f t="shared" si="3"/>
-        <v>-224.00000000000009</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-407.97120000000018</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26">
-        <v>-16556</v>
+        <v>-10000</v>
       </c>
       <c r="E26" s="10">
         <v>7.1999999999999995E-2</v>
@@ -3245,271 +3794,288 @@
       </c>
       <c r="G26" s="11">
         <f t="shared" si="10"/>
-        <v>-1192.0319999999999</v>
+        <v>-720</v>
       </c>
       <c r="H26" s="13" t="s">
         <v>150</v>
       </c>
       <c r="I26">
-        <v>975</v>
+        <v>590</v>
       </c>
       <c r="J26" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="14">
         <f t="shared" si="2"/>
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="L26">
         <f t="shared" si="11"/>
-        <v>-11700</v>
+        <v>-7080</v>
       </c>
       <c r="Q26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R26" t="str">
         <f t="shared" si="9"/>
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="S26">
         <f t="shared" si="12"/>
-        <v>13244.800000000001</v>
+        <v>8000</v>
       </c>
       <c r="T26" s="11">
         <f t="shared" si="3"/>
-        <v>-370.85440000000017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>-224.00000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>133</v>
       </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27">
+        <v>-16556</v>
+      </c>
+      <c r="E27" s="10">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F27" s="11">
+        <v>12</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="10"/>
+        <v>-1192.0319999999999</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27">
+        <v>975</v>
+      </c>
       <c r="J27" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="2"/>
+        <v>1028</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="11"/>
+        <v>-11700</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>237</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="9"/>
+        <v>1028</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="12"/>
+        <v>13244.800000000001</v>
+      </c>
+      <c r="T27" s="11">
+        <f t="shared" si="3"/>
+        <v>-370.85440000000017</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>133</v>
-      </c>
-      <c r="C28" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28">
-        <v>-50000</v>
-      </c>
-      <c r="E28" s="50">
-        <v>0.11</v>
-      </c>
-      <c r="F28" s="11">
-        <v>12</v>
-      </c>
-      <c r="G28" s="11">
-        <f t="shared" ref="G28" si="13">E28*D28*(F28/12)</f>
-        <v>-5500</v>
-      </c>
-      <c r="I28">
-        <v>820</v>
       </c>
       <c r="J28" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="14">
-        <f t="shared" ref="K28" si="14">_xlfn.NUMBERVALUE(R28)</f>
-        <v>1009</v>
-      </c>
-      <c r="L28">
-        <f t="shared" ref="L28" si="15">I28*12*-1</f>
-        <v>-9840</v>
-      </c>
-      <c r="Q28">
-        <v>202311109</v>
-      </c>
-      <c r="R28" t="str">
-        <f t="shared" ref="R28" si="16">$A$4&amp;RIGHT(Q28,2)</f>
-        <v>1009</v>
-      </c>
-      <c r="T28" s="11"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="D29">
+        <v>-50000</v>
+      </c>
+      <c r="E29" s="50">
+        <v>0.11</v>
+      </c>
+      <c r="F29" s="11">
+        <v>12</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" ref="G29" si="20">E29*D29*(F29/12)</f>
+        <v>-5500</v>
+      </c>
+      <c r="I29">
+        <v>820</v>
       </c>
       <c r="J29" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K29" s="14">
+        <f t="shared" ref="K29" si="21">_xlfn.NUMBERVALUE(R29)</f>
+        <v>1009</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29" si="22">I29*12*-1</f>
+        <v>-9840</v>
+      </c>
+      <c r="Q29">
+        <v>202311109</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" ref="R29" si="23">$A$4&amp;RIGHT(Q29,2)</f>
+        <v>1009</v>
+      </c>
+      <c r="T29" s="11"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J30" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20" t="s">
+      <c r="I33" s="19"/>
+      <c r="J33" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="49">
-        <f>SUM(D3:D30)</f>
-        <v>-506378</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21">
-        <f>SUM(G3:G30)</f>
-        <v>-44033.68266666666</v>
-      </c>
-      <c r="H33" s="22">
-        <f>SUMIF(H2:H26,"是",I2:I26)</f>
-        <v>26851</v>
-      </c>
-      <c r="I33" s="19">
-        <f>SUM(I2:I30)</f>
-        <v>42141</v>
-      </c>
-      <c r="J33" s="21">
-        <f>SUMIF(J2:J30,"TRUE",I2:I30)</f>
-        <v>975</v>
-      </c>
       <c r="K33" s="19"/>
-      <c r="L33" s="19">
-        <f>SUM(L3:L30)</f>
-        <v>-251212</v>
-      </c>
+      <c r="L33" s="19"/>
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
-      <c r="R33" s="19" t="s">
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="S33" s="19">
-        <f>SUM(S2:S26)</f>
-        <v>271642.40000000002</v>
-      </c>
-      <c r="T33" s="22">
-        <f>SUM(T2:T26)</f>
-        <v>-6405.9872000000023</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="18">
-        <v>10</v>
-      </c>
-      <c r="B34" s="19"/>
       <c r="C34" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="19">
-        <f>SUM(D2:D32)</f>
-        <v>-3056378</v>
+        <v>1</v>
+      </c>
+      <c r="D34" s="49">
+        <f>SUM(D3:D31)</f>
+        <v>-525378</v>
       </c>
       <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="21">
-        <f>SUM(G2:G30)</f>
-        <v>-162736.18266666669</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="K34" s="19">
-        <f>SUMIF(K2:K30,"&lt;=1010",I2:I30)</f>
-        <v>33410</v>
-      </c>
+        <f>SUM(G3:G31)</f>
+        <v>-45401.68266666666</v>
+      </c>
+      <c r="H34" s="22">
+        <f>SUMIF(H2:H27,"是",I2:I27)</f>
+        <v>25123</v>
+      </c>
+      <c r="I34" s="19">
+        <f>SUM(I2:I31)</f>
+        <v>40413</v>
+      </c>
+      <c r="J34" s="21">
+        <f>SUMIF(J2:J31,"TRUE",I2:I31)</f>
+        <v>975</v>
+      </c>
+      <c r="K34" s="19"/>
       <c r="L34" s="19">
-        <f>SUM(L2:L30)</f>
-        <v>-412252</v>
+        <f>SUM(L3:L31)</f>
+        <v>-265276</v>
       </c>
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
+      <c r="R34" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" s="19">
+        <f>SUM(S2:S27)</f>
+        <v>286842.40000000002</v>
+      </c>
+      <c r="T34" s="22">
+        <f>SUM(T2:T27)</f>
+        <v>-6831.5872000000027</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>182</v>
+      <c r="A35" s="18">
+        <v>10</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="D35" s="19">
-        <f>D2</f>
-        <v>-2550000</v>
+        <f>SUM(D2:D33)</f>
+        <v>-3075378</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="21">
-        <f>G2</f>
-        <v>-118702.5</v>
-      </c>
-      <c r="H35" s="19"/>
+        <f>SUM(G2:G31)</f>
+        <v>-164104.18266666669</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>187</v>
+      </c>
       <c r="I35" s="19"/>
       <c r="J35" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K35" s="19">
-        <f>SUMIF(K2:K30,"&lt;=1020",I2:I30)-K34</f>
-        <v>7166</v>
-      </c>
-      <c r="L35" s="19"/>
+        <f>SUMIF(K2:K31,"&lt;=1010",I2:I31)</f>
+        <v>31682</v>
+      </c>
+      <c r="L35" s="19">
+        <f>SUM(L2:L31)</f>
+        <v>-426316</v>
+      </c>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
@@ -3520,28 +4086,31 @@
       <c r="T35" s="19"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
-        <v>1028</v>
+      <c r="A36" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" s="19">
+        <f>D2</f>
+        <v>-2550000</v>
+      </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="I36" s="19">
-        <f>I38-I33</f>
-        <v>-24141</v>
-      </c>
+      <c r="G36" s="21">
+        <f>G2</f>
+        <v>-118702.5</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
       <c r="J36" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K36" s="19">
-        <f>SUMIF(K2:K30,"&lt;=1031",I2:I30)-K35-K34</f>
-        <v>1565</v>
+        <f>SUMIF(K2:K31,"&lt;=1020",I2:I31)-K35</f>
+        <v>7166</v>
       </c>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
@@ -3554,91 +4123,72 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="37"/>
-      <c r="C37" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="I37" s="23">
-        <v>201910</v>
-      </c>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
+      <c r="A37" s="18">
+        <v>1028</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I37" s="19">
+        <f>I39-I34</f>
+        <v>-22413</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" s="19">
+        <f>SUMIF(K2:K31,"&lt;=1031",I2:I31)-K36-K35</f>
+        <v>1565</v>
+      </c>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="D38" s="37">
-        <f>SUM(D39:D42)</f>
-        <v>25170</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D38" s="37"/>
       <c r="E38" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="F38" s="37">
-        <f>SUM(F39:F42)</f>
-        <v>9000</v>
-      </c>
-      <c r="G38" s="37">
-        <f>F38-D38</f>
-        <v>-16170</v>
+        <v>244</v>
+      </c>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37" t="s">
+        <v>251</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="I38" s="23">
-        <v>18000</v>
+        <v>201910</v>
       </c>
       <c r="J38" s="23"/>
       <c r="K38" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L38" s="23">
-        <f>SUM(L39:L42)</f>
-        <v>11320</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="L38" s="23"/>
       <c r="M38" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="N38" s="23">
-        <f>SUM(N39:N42)</f>
-        <v>1720</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N38" s="23"/>
       <c r="O38" s="23"/>
-      <c r="P38" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q38" s="23">
-        <f>G38*8</f>
-        <v>-129360</v>
-      </c>
+      <c r="P38" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q38" s="23"/>
       <c r="R38" s="23"/>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
@@ -3646,42 +4196,52 @@
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="37" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D39" s="37">
-        <v>6000</v>
+        <f>SUM(D40:D43)</f>
+        <v>25170</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="F39" s="37">
-        <v>18500</v>
-      </c>
-      <c r="G39" s="37"/>
+        <f>SUM(F40:F43)</f>
+        <v>9000</v>
+      </c>
+      <c r="G39" s="37">
+        <f>F39-D39</f>
+        <v>-16170</v>
+      </c>
       <c r="H39" s="23" t="s">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="I39" s="23">
         <v>18000</v>
       </c>
       <c r="J39" s="23"/>
       <c r="K39" s="23" t="s">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="L39" s="23">
+        <f>SUM(L40:L43)</f>
+        <v>11320</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="N39" s="23">
+        <f>SUM(N40:N43)</f>
         <v>1720</v>
       </c>
-      <c r="M39" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="N39" s="23">
-        <v>13420</v>
-      </c>
       <c r="O39" s="23"/>
-      <c r="P39" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q39" s="23"/>
+      <c r="P39" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q39" s="23">
+        <f>G39*8</f>
+        <v>-129360</v>
+      </c>
       <c r="R39" s="23"/>
       <c r="S39" s="23"/>
       <c r="T39" s="23"/>
@@ -3689,193 +4249,196 @@
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="C40" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D40" s="37">
-        <v>3720</v>
+        <v>6000</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="F40" s="37">
-        <v>-6000</v>
+        <v>18500</v>
       </c>
       <c r="G40" s="37"/>
       <c r="H40" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I40" s="23">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L40" s="23">
-        <v>100</v>
+        <v>1720</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="N40" s="23">
-        <v>-6000</v>
+        <v>13420</v>
       </c>
       <c r="O40" s="23"/>
-      <c r="P40" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q40" s="23">
-        <v>40000</v>
-      </c>
-      <c r="R40" s="23">
-        <v>23000</v>
-      </c>
-      <c r="S40" s="23" t="s">
-        <v>257</v>
-      </c>
+      <c r="P40" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
       <c r="T40" s="23"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D41" s="37">
-        <v>13700</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="F41" s="42">
-        <v>-3000</v>
+        <v>3720</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="37">
+        <v>-6000</v>
       </c>
       <c r="G41" s="37"/>
       <c r="H41" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I41" s="23">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L41" s="23">
-        <v>3500</v>
+        <v>100</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="N41" s="23">
-        <v>-5700</v>
+        <v>-6000</v>
       </c>
       <c r="O41" s="23"/>
       <c r="P41" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q41" s="23">
-        <v>-69000</v>
+        <v>40000</v>
       </c>
       <c r="R41" s="23">
-        <v>-69000</v>
-      </c>
-      <c r="S41" s="23"/>
+        <v>23000</v>
+      </c>
+      <c r="S41" s="23" t="s">
+        <v>257</v>
+      </c>
       <c r="T41" s="23"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B42" s="37"/>
       <c r="C42" s="37" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="D42" s="37">
-        <v>1750</v>
+        <v>13700</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F42" s="42">
-        <v>-500</v>
+        <v>-3000</v>
       </c>
       <c r="G42" s="37"/>
       <c r="H42" s="23" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I42" s="23">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L42" s="23">
-        <v>6000</v>
-      </c>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
+        <v>3500</v>
+      </c>
+      <c r="M42" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="N42" s="23">
+        <v>-5700</v>
+      </c>
       <c r="O42" s="23"/>
       <c r="P42" s="23" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q42" s="23">
-        <f>G38*6</f>
-        <v>-97020</v>
+        <v>-69000</v>
       </c>
       <c r="R42" s="23">
-        <f>G38*6</f>
-        <v>-97020</v>
+        <v>-69000</v>
       </c>
       <c r="S42" s="23"/>
       <c r="T42" s="23"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="37">
+        <v>1750</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" s="42">
+        <v>-500</v>
+      </c>
       <c r="G43" s="37"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
+      <c r="H43" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I43" s="23">
+        <v>18000</v>
+      </c>
       <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
+      <c r="K43" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L43" s="23">
+        <v>6000</v>
+      </c>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
       <c r="P43" s="23" t="s">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="Q43" s="23">
-        <f>SUM(Q40:Q42)</f>
-        <v>-126020</v>
+        <f>G39*6</f>
+        <v>-97020</v>
       </c>
       <c r="R43" s="23">
-        <f>SUM(R40:R42)</f>
-        <v>-143020</v>
+        <f>G39*6</f>
+        <v>-97020</v>
       </c>
       <c r="S43" s="23"/>
       <c r="T43" s="23"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="37"/>
-      <c r="C44" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="D44" s="37">
-        <f>SUM(D45:D47)+D38</f>
-        <v>7901.2000000000007</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="G44" s="37" t="s">
-        <v>295</v>
-      </c>
+      <c r="B44" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
@@ -3884,35 +4447,39 @@
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
+      <c r="P44" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="23">
+        <f>SUM(Q41:Q43)</f>
+        <v>-126020</v>
+      </c>
+      <c r="R44" s="23">
+        <f>SUM(R41:R43)</f>
+        <v>-143020</v>
+      </c>
       <c r="S44" s="23"/>
       <c r="T44" s="23"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
       <c r="C45" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D45" s="37">
-        <f>F45-E45</f>
-        <v>-5622.4</v>
-      </c>
-      <c r="E45" s="37">
-        <v>7000</v>
-      </c>
-      <c r="F45" s="37">
-        <f>E45*12*G45</f>
-        <v>1377.6000000000001</v>
-      </c>
-      <c r="G45" s="37">
-        <f>820/50000</f>
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>298</v>
-      </c>
+        <f>SUM(D46:D48)+D39</f>
+        <v>7901.2000000000007</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="H45" s="23"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
@@ -3929,25 +4496,25 @@
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B46" s="37"/>
       <c r="C46" s="37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D46" s="37">
         <f>F46-E46</f>
-        <v>-4417.6000000000004</v>
+        <v>-5622.4</v>
       </c>
       <c r="E46" s="37">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="F46" s="37">
         <f>E46*12*G46</f>
-        <v>1082.4000000000001</v>
+        <v>1377.6000000000001</v>
       </c>
       <c r="G46" s="37">
         <f>820/50000</f>
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
@@ -3965,25 +4532,25 @@
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B47" s="37"/>
       <c r="C47" s="37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D47" s="37">
         <f>F47-E47</f>
-        <v>-7228.8</v>
+        <v>-4417.6000000000004</v>
       </c>
       <c r="E47" s="37">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="F47" s="37">
         <f>E47*12*G47</f>
-        <v>1771.2</v>
+        <v>1082.4000000000001</v>
       </c>
       <c r="G47" s="37">
         <f>820/50000</f>
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
@@ -3998,18 +4565,45 @@
       <c r="S47" s="23"/>
       <c r="T47" s="23"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="37"/>
+      <c r="C48" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="37">
+        <f>F48-E48</f>
+        <v>-7228.8</v>
+      </c>
+      <c r="E48" s="37">
+        <v>9000</v>
+      </c>
+      <c r="F48" s="37">
+        <f>E48*12*G48</f>
+        <v>1771.2</v>
+      </c>
+      <c r="G48" s="37">
+        <f>820/50000</f>
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="43" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -4017,127 +4611,127 @@
       <c r="F50" s="16"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C52" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D52" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E52" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F52" s="16" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="16">
-        <v>0</v>
-      </c>
-      <c r="C52" s="16">
-        <v>50000</v>
-      </c>
-      <c r="D52" s="44">
-        <f>C52*0.05</f>
-        <v>2500</v>
-      </c>
-      <c r="E52" s="46"/>
-      <c r="F52" s="45">
-        <f>D52/C52+E52</f>
-        <v>0.05</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="16">
-        <v>43749.999999999971</v>
+        <v>50000</v>
       </c>
       <c r="D53" s="44">
         <f>C53*0.05</f>
-        <v>2187.4999999999986</v>
-      </c>
-      <c r="E53" s="46">
-        <v>7.5999999999999998E-2</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="E53" s="46"/>
       <c r="F53" s="45">
-        <f>D53/C53/B53+E53</f>
-        <v>0.126</v>
+        <f>D53/C53+E53</f>
+        <v>0.05</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="16">
-        <v>37499.999999999942</v>
+        <v>43749.999999999971</v>
       </c>
       <c r="D54" s="44">
-        <f t="shared" ref="D54:D56" si="17">C54*0.05</f>
-        <v>1874.9999999999973</v>
+        <f>C54*0.05</f>
+        <v>2187.4999999999986</v>
       </c>
       <c r="E54" s="46">
-        <v>0.09</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="F54" s="45">
-        <f t="shared" ref="F54:F56" si="18">D54/C54/B54+E54</f>
-        <v>0.11499999999999999</v>
+        <f>D54/C54/B54+E54</f>
+        <v>0.126</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="16">
-        <v>31249.999999999924</v>
+        <v>37499.999999999942</v>
       </c>
       <c r="D55" s="44">
-        <f t="shared" si="17"/>
-        <v>1562.4999999999964</v>
+        <f t="shared" ref="D55:D57" si="24">C55*0.05</f>
+        <v>1874.9999999999973</v>
       </c>
       <c r="E55" s="46">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F55" s="45">
-        <f t="shared" si="18"/>
-        <v>0.12666666666666668</v>
+        <f t="shared" ref="F55:F57" si="25">D55/C55/B55+E55</f>
+        <v>0.11499999999999999</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="16">
+        <v>3</v>
+      </c>
+      <c r="C56" s="16">
+        <v>31249.999999999924</v>
+      </c>
+      <c r="D56" s="44">
+        <f t="shared" si="24"/>
+        <v>1562.4999999999964</v>
+      </c>
+      <c r="E56" s="46">
+        <v>0.11</v>
+      </c>
+      <c r="F56" s="45">
+        <f t="shared" si="25"/>
+        <v>0.12666666666666668</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="16">
         <v>4</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C57" s="16">
         <v>24999.999999999938</v>
       </c>
-      <c r="D56" s="44">
-        <f t="shared" si="17"/>
+      <c r="D57" s="44">
+        <f t="shared" si="24"/>
         <v>1249.999999999997</v>
       </c>
-      <c r="E56" s="46">
+      <c r="E57" s="46">
         <v>0.126</v>
       </c>
-      <c r="F56" s="45">
-        <f t="shared" si="18"/>
+      <c r="F57" s="45">
+        <f t="shared" si="25"/>
         <v>0.13850000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="40" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="40"/>
@@ -4146,7 +4740,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="40" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C59" s="40"/>
       <c r="D59" s="40"/>
@@ -4155,7 +4749,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="40" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C60" s="40"/>
       <c r="D60" s="40"/>
@@ -4164,7 +4758,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="40" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="C61" s="40"/>
       <c r="D61" s="40"/>
@@ -4173,7 +4767,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="40" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="40"/>
@@ -4181,7 +4775,9 @@
       <c r="F62" s="40"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="40"/>
+      <c r="B63" s="40" t="s">
+        <v>312</v>
+      </c>
       <c r="C63" s="40"/>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
@@ -4222,8 +4818,12 @@
       <c r="E68" s="40"/>
       <c r="F68" s="40"/>
     </row>
-    <row r="93" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T93" s="30"/>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
     </row>
     <row r="94" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T94" s="30"/>
@@ -4255,12 +4855,8 @@
     <row r="103" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T103" s="30"/>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C153" s="26"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="25"/>
-      <c r="G153" s="26"/>
+    <row r="104" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T104" s="30"/>
     </row>
     <row r="154" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C154" s="26"/>
@@ -4570,20 +5166,32 @@
       <c r="F197" s="25"/>
       <c r="G197" s="26"/>
     </row>
+    <row r="198" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C198" s="26"/>
+      <c r="D198" s="25"/>
+      <c r="E198" s="24"/>
+      <c r="F198" s="25"/>
+      <c r="G198" s="26"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K29:K30 K2:K4 K6:K27">
+  <conditionalFormatting sqref="K30:K31 K2:K4 K6:K16 K18:K28">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>$A$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>$A$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="K5">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>$A$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="K17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>$A$7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4601,7 +5209,7 @@
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4697,7 +5305,7 @@
         <v>50000</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I2" s="51">
         <f>L2+M2</f>
@@ -4740,28 +5348,54 @@
       <c r="B3" s="16">
         <v>20191110</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
       <c r="D3" s="16">
-        <v>-32100</v>
-      </c>
-      <c r="E3" s="16"/>
+        <v>-28000</v>
+      </c>
+      <c r="E3" s="16">
+        <f>E2+C3+D3</f>
+        <v>-6365</v>
+      </c>
       <c r="F3" s="40">
         <f t="shared" ref="F3:F26" si="0">C3+D3+E3</f>
-        <v>-32100</v>
+        <v>-34365</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
+        <v>492</v>
+      </c>
+      <c r="I3" s="51">
+        <f t="shared" ref="I3:I26" si="1">L3+M3</f>
+        <v>-3861</v>
+      </c>
+      <c r="J3" s="51">
+        <f t="shared" ref="J3:J26" si="2">N3+O3</f>
+        <v>-2300</v>
+      </c>
+      <c r="K3" s="51">
+        <f t="shared" ref="K3:K26" si="3">P3+Q3</f>
+        <v>-652</v>
+      </c>
+      <c r="L3" s="40">
+        <v>2189</v>
+      </c>
+      <c r="M3" s="40">
+        <v>-6050</v>
+      </c>
+      <c r="N3" s="16">
+        <v>14270</v>
+      </c>
+      <c r="O3" s="16">
+        <v>-16570</v>
+      </c>
+      <c r="P3" s="52">
+        <v>3748</v>
+      </c>
+      <c r="Q3" s="52">
+        <v>-4400</v>
+      </c>
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -4777,16 +5411,28 @@
       <c r="D4" s="16">
         <v>-6500</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="16">
+        <f t="shared" ref="E4:E26" si="4">E3+C4+D4</f>
+        <v>5535</v>
+      </c>
       <c r="F4" s="40">
         <f t="shared" si="0"/>
-        <v>11900</v>
+        <v>17435</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
+      <c r="I4" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L4" s="40"/>
       <c r="M4" s="40"/>
       <c r="N4" s="16"/>
@@ -4810,16 +5456,28 @@
       <c r="D5" s="16">
         <v>-2700</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="16">
+        <f t="shared" si="4"/>
+        <v>14835</v>
+      </c>
       <c r="F5" s="40">
         <f t="shared" si="0"/>
-        <v>9300</v>
+        <v>24135</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
+      <c r="I5" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L5" s="40"/>
       <c r="M5" s="40"/>
       <c r="N5" s="16"/>
@@ -4839,18 +5497,30 @@
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="40">
-        <v>-28000</v>
-      </c>
-      <c r="E6" s="40"/>
+        <v>-32000</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="4"/>
+        <v>-17165</v>
+      </c>
       <c r="F6" s="40">
         <f t="shared" si="0"/>
-        <v>-28000</v>
+        <v>-49165</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
+      <c r="I6" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
       <c r="N6" s="16"/>
@@ -4872,16 +5542,28 @@
       <c r="D7" s="40">
         <v>-6500</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="16">
+        <f t="shared" si="4"/>
+        <v>-5265</v>
+      </c>
       <c r="F7" s="40">
         <f t="shared" si="0"/>
-        <v>11900</v>
+        <v>6635</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="19"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
+      <c r="I7" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
       <c r="N7" s="16"/>
@@ -4903,16 +5585,28 @@
       <c r="D8" s="40">
         <v>-2700</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="16">
+        <f t="shared" si="4"/>
+        <v>-7965</v>
+      </c>
       <c r="F8" s="40">
         <f t="shared" si="0"/>
-        <v>-2700</v>
+        <v>-10665</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="I8" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="16"/>
@@ -4930,18 +5624,30 @@
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="40">
-        <v>-28000</v>
-      </c>
-      <c r="E9" s="16"/>
+        <v>-32000</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="4"/>
+        <v>-39965</v>
+      </c>
       <c r="F9" s="40">
         <f t="shared" si="0"/>
-        <v>-28000</v>
+        <v>-71965</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
+      <c r="I9" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
       <c r="N9" s="16"/>
@@ -4963,16 +5669,28 @@
       <c r="D10" s="40">
         <v>-6500</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="16">
+        <f t="shared" si="4"/>
+        <v>-45765</v>
+      </c>
       <c r="F10" s="40">
         <f t="shared" si="0"/>
-        <v>-5800</v>
+        <v>-51565</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
+      <c r="I10" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
       <c r="N10" s="16"/>
@@ -4996,16 +5714,28 @@
       <c r="D11" s="40">
         <v>-2700</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="16">
+        <f t="shared" si="4"/>
+        <v>-19365</v>
+      </c>
       <c r="F11" s="40">
         <f t="shared" si="0"/>
-        <v>26400</v>
+        <v>7035</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="19"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
+      <c r="I11" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
       <c r="N11" s="16"/>
@@ -5025,18 +5755,30 @@
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="40">
-        <v>-28000</v>
-      </c>
-      <c r="E12" s="40"/>
+        <v>-32000</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="4"/>
+        <v>-51365</v>
+      </c>
       <c r="F12" s="40">
         <f t="shared" si="0"/>
-        <v>-28000</v>
+        <v>-83365</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="I12" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
       <c r="N12" s="16"/>
@@ -5058,16 +5800,28 @@
       <c r="D13" s="40">
         <v>-6500</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="16">
+        <f t="shared" si="4"/>
+        <v>-39465</v>
+      </c>
       <c r="F13" s="40">
         <f t="shared" si="0"/>
-        <v>11900</v>
+        <v>-27565</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
+      <c r="I13" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
       <c r="N13" s="16"/>
@@ -5089,16 +5843,28 @@
       <c r="D14" s="40">
         <v>-2700</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="16">
+        <f t="shared" si="4"/>
+        <v>-42165</v>
+      </c>
       <c r="F14" s="40">
         <f t="shared" si="0"/>
-        <v>-2700</v>
+        <v>-44865</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
+      <c r="I14" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
       <c r="N14" s="16"/>
@@ -5116,18 +5882,30 @@
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="40">
-        <v>-28000</v>
-      </c>
-      <c r="E15" s="16"/>
+        <v>-32000</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="4"/>
+        <v>-74165</v>
+      </c>
       <c r="F15" s="40">
         <f t="shared" si="0"/>
-        <v>-28000</v>
+        <v>-106165</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
+      <c r="I15" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="16"/>
@@ -5149,16 +5927,28 @@
       <c r="D16" s="40">
         <v>-6500</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="16">
+        <f t="shared" si="4"/>
+        <v>-62265</v>
+      </c>
       <c r="F16" s="40">
         <f t="shared" si="0"/>
-        <v>11900</v>
+        <v>-50365</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
+      <c r="I16" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
       <c r="N16" s="16"/>
@@ -5182,16 +5972,28 @@
       <c r="D17" s="40">
         <v>-2700</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="16">
+        <f t="shared" si="4"/>
+        <v>-52965</v>
+      </c>
       <c r="F17" s="40">
         <f t="shared" si="0"/>
-        <v>9300</v>
+        <v>-43665</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
+      <c r="I17" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
       <c r="N17" s="16"/>
@@ -5211,18 +6013,30 @@
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40">
-        <v>-28000</v>
-      </c>
-      <c r="E18" s="40"/>
+        <v>-32000</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="4"/>
+        <v>-84965</v>
+      </c>
       <c r="F18" s="40">
         <f t="shared" si="0"/>
-        <v>-28000</v>
+        <v>-116965</v>
       </c>
       <c r="G18" s="40"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
+      <c r="I18" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
       <c r="N18" s="16"/>
@@ -5244,16 +6058,28 @@
       <c r="D19" s="40">
         <v>-6500</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="16">
+        <f t="shared" si="4"/>
+        <v>-73065</v>
+      </c>
       <c r="F19" s="40">
         <f t="shared" si="0"/>
-        <v>11900</v>
+        <v>-61165</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
       <c r="N19" s="16"/>
@@ -5277,16 +6103,28 @@
       <c r="D20" s="40">
         <v>-2700</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="16">
+        <f t="shared" si="4"/>
+        <v>-84765</v>
+      </c>
       <c r="F20" s="40">
         <f t="shared" si="0"/>
-        <v>-11700</v>
+        <v>-96465</v>
       </c>
       <c r="G20" s="40"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="I20" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
       <c r="N20" s="16"/>
@@ -5306,18 +6144,30 @@
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="40">
-        <v>-28000</v>
-      </c>
-      <c r="E21" s="16"/>
+        <v>-32000</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="4"/>
+        <v>-116765</v>
+      </c>
       <c r="F21" s="40">
         <f t="shared" si="0"/>
-        <v>-28000</v>
+        <v>-148765</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
+      <c r="I21" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
       <c r="N21" s="16"/>
@@ -5339,16 +6189,28 @@
       <c r="D22" s="40">
         <v>-6500</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="16">
+        <f t="shared" si="4"/>
+        <v>-104865</v>
+      </c>
       <c r="F22" s="40">
         <f t="shared" si="0"/>
-        <v>11900</v>
+        <v>-92965</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="I22" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
       <c r="N22" s="16"/>
@@ -5372,16 +6234,30 @@
       <c r="D23" s="40">
         <v>-2700</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="16">
+        <f t="shared" si="4"/>
+        <v>-95565</v>
+      </c>
       <c r="F23" s="40">
         <f t="shared" si="0"/>
-        <v>9300</v>
+        <v>-86265</v>
       </c>
       <c r="G23" s="16"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="H23" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="I23" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
       <c r="N23" s="16"/>
@@ -5401,18 +6277,30 @@
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="40">
-        <v>-28000</v>
-      </c>
-      <c r="E24" s="40"/>
+        <v>-32000</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="4"/>
+        <v>-127565</v>
+      </c>
       <c r="F24" s="40">
         <f t="shared" si="0"/>
-        <v>-28000</v>
+        <v>-159565</v>
       </c>
       <c r="G24" s="40"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="I24" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L24" s="40"/>
       <c r="M24" s="40"/>
       <c r="N24" s="16"/>
@@ -5434,16 +6322,28 @@
       <c r="D25" s="40">
         <v>-6500</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="16">
+        <f t="shared" si="4"/>
+        <v>-115665</v>
+      </c>
       <c r="F25" s="40">
         <f t="shared" si="0"/>
-        <v>11900</v>
+        <v>-103765</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
+      <c r="I25" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
       <c r="N25" s="16"/>
@@ -5467,16 +6367,28 @@
       <c r="D26" s="40">
         <v>-2700</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="16">
+        <f t="shared" si="4"/>
+        <v>-95365</v>
+      </c>
       <c r="F26" s="40">
         <f t="shared" si="0"/>
-        <v>20300</v>
+        <v>-75065</v>
       </c>
       <c r="G26" s="40"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
+      <c r="I26" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L26" s="40"/>
       <c r="M26" s="40"/>
       <c r="N26" s="16"/>
@@ -5559,6 +6471,4141 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62277A40-9AE4-4D47-AAD9-E5FA7DB52180}">
+  <dimension ref="A1:J153"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="J1" s="1">
+        <f>SUM(H:H)</f>
+        <v>3888.4700000000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5357</v>
+      </c>
+      <c r="B2" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C2" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H2" s="24">
+        <f t="shared" ref="H2:H65" si="0">-LOOKUP(,-MIDB(G2,SEARCHB("?",G2),ROW($1:$15)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5357</v>
+      </c>
+      <c r="B3" s="47">
+        <v>43754</v>
+      </c>
+      <c r="C3" s="47">
+        <v>43754</v>
+      </c>
+      <c r="D3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H3" s="24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5357</v>
+      </c>
+      <c r="B4" s="47">
+        <v>43754</v>
+      </c>
+      <c r="C4" s="47">
+        <v>43754</v>
+      </c>
+      <c r="D4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5357</v>
+      </c>
+      <c r="B5" s="47">
+        <v>43754</v>
+      </c>
+      <c r="C5" s="47">
+        <v>43754</v>
+      </c>
+      <c r="D5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H5" s="24">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5357</v>
+      </c>
+      <c r="B6" s="47">
+        <v>43754</v>
+      </c>
+      <c r="C6" s="47">
+        <v>43754</v>
+      </c>
+      <c r="D6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" t="s">
+        <v>329</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5357</v>
+      </c>
+      <c r="B7" s="47">
+        <v>43754</v>
+      </c>
+      <c r="C7" s="47">
+        <v>43754</v>
+      </c>
+      <c r="D7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5357</v>
+      </c>
+      <c r="B8" s="47">
+        <v>43754</v>
+      </c>
+      <c r="C8" s="47">
+        <v>43754</v>
+      </c>
+      <c r="D8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5357</v>
+      </c>
+      <c r="B9" s="47">
+        <v>43754</v>
+      </c>
+      <c r="C9" s="47">
+        <v>43754</v>
+      </c>
+      <c r="D9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F9" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5357</v>
+      </c>
+      <c r="B10" s="47">
+        <v>43754</v>
+      </c>
+      <c r="C10" s="47">
+        <v>43754</v>
+      </c>
+      <c r="D10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5357</v>
+      </c>
+      <c r="B11" s="47">
+        <v>43754</v>
+      </c>
+      <c r="C11" s="47">
+        <v>43754</v>
+      </c>
+      <c r="D11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5357</v>
+      </c>
+      <c r="B12" s="47">
+        <v>43754</v>
+      </c>
+      <c r="C12" s="47">
+        <v>43754</v>
+      </c>
+      <c r="D12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H12" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5357</v>
+      </c>
+      <c r="B13" s="47">
+        <v>43755</v>
+      </c>
+      <c r="C13" s="47">
+        <v>43755</v>
+      </c>
+      <c r="D13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H13" s="24">
+        <f t="shared" si="0"/>
+        <v>117.47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5357</v>
+      </c>
+      <c r="B14" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C14" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" t="s">
+        <v>342</v>
+      </c>
+      <c r="G14" t="s">
+        <v>343</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5357</v>
+      </c>
+      <c r="B15" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C15" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" t="s">
+        <v>344</v>
+      </c>
+      <c r="F15" t="s">
+        <v>345</v>
+      </c>
+      <c r="G15" t="s">
+        <v>346</v>
+      </c>
+      <c r="H15" s="24">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5357</v>
+      </c>
+      <c r="B16" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C16" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D16" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" t="s">
+        <v>343</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5357</v>
+      </c>
+      <c r="B17" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C17" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D17" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" t="s">
+        <v>347</v>
+      </c>
+      <c r="F17" t="s">
+        <v>348</v>
+      </c>
+      <c r="G17" t="s">
+        <v>349</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5357</v>
+      </c>
+      <c r="B18" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C18" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D18" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F18" t="s">
+        <v>328</v>
+      </c>
+      <c r="G18" t="s">
+        <v>329</v>
+      </c>
+      <c r="H18" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5357</v>
+      </c>
+      <c r="B19" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C19" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D19" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" t="s">
+        <v>350</v>
+      </c>
+      <c r="F19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G19" t="s">
+        <v>352</v>
+      </c>
+      <c r="H19" s="24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5357</v>
+      </c>
+      <c r="B20" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C20" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D20" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" t="s">
+        <v>328</v>
+      </c>
+      <c r="G20" t="s">
+        <v>329</v>
+      </c>
+      <c r="H20" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5357</v>
+      </c>
+      <c r="B21" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C21" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D21" t="s">
+        <v>321</v>
+      </c>
+      <c r="E21" t="s">
+        <v>318</v>
+      </c>
+      <c r="F21" t="s">
+        <v>353</v>
+      </c>
+      <c r="G21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5357</v>
+      </c>
+      <c r="B22" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C22" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D22" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" t="s">
+        <v>319</v>
+      </c>
+      <c r="G22" t="s">
+        <v>320</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5357</v>
+      </c>
+      <c r="B23" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C23" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D23" t="s">
+        <v>321</v>
+      </c>
+      <c r="E23" t="s">
+        <v>355</v>
+      </c>
+      <c r="F23" t="s">
+        <v>356</v>
+      </c>
+      <c r="G23" t="s">
+        <v>357</v>
+      </c>
+      <c r="H23" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5357</v>
+      </c>
+      <c r="B24" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C24" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D24" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F24" t="s">
+        <v>319</v>
+      </c>
+      <c r="G24" t="s">
+        <v>320</v>
+      </c>
+      <c r="H24" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5357</v>
+      </c>
+      <c r="B25" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C25" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D25" t="s">
+        <v>321</v>
+      </c>
+      <c r="E25" t="s">
+        <v>344</v>
+      </c>
+      <c r="F25" t="s">
+        <v>358</v>
+      </c>
+      <c r="G25" t="s">
+        <v>359</v>
+      </c>
+      <c r="H25" s="24">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5357</v>
+      </c>
+      <c r="B26" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C26" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" t="s">
+        <v>360</v>
+      </c>
+      <c r="G26" t="s">
+        <v>361</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5357</v>
+      </c>
+      <c r="B27" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C27" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D27" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" t="s">
+        <v>362</v>
+      </c>
+      <c r="F27" t="s">
+        <v>363</v>
+      </c>
+      <c r="G27" t="s">
+        <v>364</v>
+      </c>
+      <c r="H27" s="24">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5357</v>
+      </c>
+      <c r="B28" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C28" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D28" t="s">
+        <v>317</v>
+      </c>
+      <c r="E28" t="s">
+        <v>362</v>
+      </c>
+      <c r="F28" t="s">
+        <v>365</v>
+      </c>
+      <c r="G28" t="s">
+        <v>366</v>
+      </c>
+      <c r="H28" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5357</v>
+      </c>
+      <c r="B29" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C29" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E29" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" t="s">
+        <v>369</v>
+      </c>
+      <c r="H29" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5357</v>
+      </c>
+      <c r="B30" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C30" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D30" t="s">
+        <v>317</v>
+      </c>
+      <c r="E30" t="s">
+        <v>367</v>
+      </c>
+      <c r="F30" t="s">
+        <v>360</v>
+      </c>
+      <c r="G30" t="s">
+        <v>361</v>
+      </c>
+      <c r="H30" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5357</v>
+      </c>
+      <c r="B31" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C31" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D31" t="s">
+        <v>321</v>
+      </c>
+      <c r="E31" t="s">
+        <v>347</v>
+      </c>
+      <c r="F31" t="s">
+        <v>370</v>
+      </c>
+      <c r="G31" t="s">
+        <v>371</v>
+      </c>
+      <c r="H31" s="24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5357</v>
+      </c>
+      <c r="B32" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C32" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D32" t="s">
+        <v>317</v>
+      </c>
+      <c r="E32" t="s">
+        <v>347</v>
+      </c>
+      <c r="F32" t="s">
+        <v>319</v>
+      </c>
+      <c r="G32" t="s">
+        <v>320</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5357</v>
+      </c>
+      <c r="B33" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C33" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D33" t="s">
+        <v>321</v>
+      </c>
+      <c r="E33" t="s">
+        <v>318</v>
+      </c>
+      <c r="F33" t="s">
+        <v>372</v>
+      </c>
+      <c r="G33" t="s">
+        <v>373</v>
+      </c>
+      <c r="H33" s="24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5357</v>
+      </c>
+      <c r="B34" s="47">
+        <v>43750</v>
+      </c>
+      <c r="C34" s="47">
+        <v>43750</v>
+      </c>
+      <c r="D34" t="s">
+        <v>317</v>
+      </c>
+      <c r="E34" t="s">
+        <v>375</v>
+      </c>
+      <c r="F34" t="s">
+        <v>376</v>
+      </c>
+      <c r="G34" t="s">
+        <v>377</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5357</v>
+      </c>
+      <c r="B35" s="47">
+        <v>43751</v>
+      </c>
+      <c r="C35" s="47">
+        <v>43751</v>
+      </c>
+      <c r="D35" t="s">
+        <v>321</v>
+      </c>
+      <c r="E35" t="s">
+        <v>378</v>
+      </c>
+      <c r="F35" t="s">
+        <v>379</v>
+      </c>
+      <c r="G35" t="s">
+        <v>380</v>
+      </c>
+      <c r="H35" s="24">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5357</v>
+      </c>
+      <c r="B36" s="47">
+        <v>43751</v>
+      </c>
+      <c r="C36" s="47">
+        <v>43751</v>
+      </c>
+      <c r="D36" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" t="s">
+        <v>378</v>
+      </c>
+      <c r="F36" t="s">
+        <v>319</v>
+      </c>
+      <c r="G36" t="s">
+        <v>320</v>
+      </c>
+      <c r="H36" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5357</v>
+      </c>
+      <c r="B37" s="47">
+        <v>43751</v>
+      </c>
+      <c r="C37" s="47">
+        <v>43751</v>
+      </c>
+      <c r="D37" t="s">
+        <v>321</v>
+      </c>
+      <c r="E37" t="s">
+        <v>378</v>
+      </c>
+      <c r="F37" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" t="s">
+        <v>324</v>
+      </c>
+      <c r="H37" s="24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5357</v>
+      </c>
+      <c r="B38" s="47">
+        <v>43751</v>
+      </c>
+      <c r="C38" s="47">
+        <v>43751</v>
+      </c>
+      <c r="D38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E38" t="s">
+        <v>378</v>
+      </c>
+      <c r="F38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>320</v>
+      </c>
+      <c r="H38" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5357</v>
+      </c>
+      <c r="B39" s="47">
+        <v>43751</v>
+      </c>
+      <c r="C39" s="47">
+        <v>43751</v>
+      </c>
+      <c r="D39" t="s">
+        <v>321</v>
+      </c>
+      <c r="E39" t="s">
+        <v>381</v>
+      </c>
+      <c r="F39" t="s">
+        <v>382</v>
+      </c>
+      <c r="G39" t="s">
+        <v>383</v>
+      </c>
+      <c r="H39" s="24">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5357</v>
+      </c>
+      <c r="B40" s="47">
+        <v>43751</v>
+      </c>
+      <c r="C40" s="47">
+        <v>43751</v>
+      </c>
+      <c r="D40" t="s">
+        <v>317</v>
+      </c>
+      <c r="E40" t="s">
+        <v>381</v>
+      </c>
+      <c r="F40" t="s">
+        <v>376</v>
+      </c>
+      <c r="G40" t="s">
+        <v>377</v>
+      </c>
+      <c r="H40" s="24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5357</v>
+      </c>
+      <c r="B41" s="47">
+        <v>43752</v>
+      </c>
+      <c r="C41" s="47">
+        <v>43752</v>
+      </c>
+      <c r="D41" t="s">
+        <v>321</v>
+      </c>
+      <c r="E41" t="s">
+        <v>384</v>
+      </c>
+      <c r="F41" t="s">
+        <v>385</v>
+      </c>
+      <c r="G41" t="s">
+        <v>386</v>
+      </c>
+      <c r="H41" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5357</v>
+      </c>
+      <c r="B42" s="47">
+        <v>43752</v>
+      </c>
+      <c r="C42" s="47">
+        <v>43752</v>
+      </c>
+      <c r="D42" t="s">
+        <v>317</v>
+      </c>
+      <c r="E42" t="s">
+        <v>384</v>
+      </c>
+      <c r="F42" t="s">
+        <v>370</v>
+      </c>
+      <c r="G42" t="s">
+        <v>371</v>
+      </c>
+      <c r="H42" s="24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5357</v>
+      </c>
+      <c r="B43" s="47">
+        <v>43752</v>
+      </c>
+      <c r="C43" s="47">
+        <v>43752</v>
+      </c>
+      <c r="D43" t="s">
+        <v>321</v>
+      </c>
+      <c r="E43" t="s">
+        <v>387</v>
+      </c>
+      <c r="F43" t="s">
+        <v>342</v>
+      </c>
+      <c r="G43" t="s">
+        <v>343</v>
+      </c>
+      <c r="H43" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5357</v>
+      </c>
+      <c r="B44" s="47">
+        <v>43752</v>
+      </c>
+      <c r="C44" s="47">
+        <v>43752</v>
+      </c>
+      <c r="D44" t="s">
+        <v>317</v>
+      </c>
+      <c r="E44" t="s">
+        <v>387</v>
+      </c>
+      <c r="F44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G44" t="s">
+        <v>389</v>
+      </c>
+      <c r="H44" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5357</v>
+      </c>
+      <c r="B45" s="47">
+        <v>43752</v>
+      </c>
+      <c r="C45" s="47">
+        <v>43752</v>
+      </c>
+      <c r="D45" t="s">
+        <v>321</v>
+      </c>
+      <c r="E45" t="s">
+        <v>390</v>
+      </c>
+      <c r="F45" t="s">
+        <v>391</v>
+      </c>
+      <c r="G45" t="s">
+        <v>392</v>
+      </c>
+      <c r="H45" s="24">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5357</v>
+      </c>
+      <c r="B46" s="47">
+        <v>43752</v>
+      </c>
+      <c r="C46" s="47">
+        <v>43752</v>
+      </c>
+      <c r="D46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E46" t="s">
+        <v>390</v>
+      </c>
+      <c r="F46" t="s">
+        <v>376</v>
+      </c>
+      <c r="G46" t="s">
+        <v>377</v>
+      </c>
+      <c r="H46" s="24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5357</v>
+      </c>
+      <c r="B47" s="47">
+        <v>43752</v>
+      </c>
+      <c r="C47" s="47">
+        <v>43752</v>
+      </c>
+      <c r="D47" t="s">
+        <v>321</v>
+      </c>
+      <c r="E47" t="s">
+        <v>393</v>
+      </c>
+      <c r="F47" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" t="s">
+        <v>343</v>
+      </c>
+      <c r="H47" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5357</v>
+      </c>
+      <c r="B48" s="47">
+        <v>43752</v>
+      </c>
+      <c r="C48" s="47">
+        <v>43752</v>
+      </c>
+      <c r="D48" t="s">
+        <v>317</v>
+      </c>
+      <c r="E48" t="s">
+        <v>393</v>
+      </c>
+      <c r="F48" t="s">
+        <v>388</v>
+      </c>
+      <c r="G48" t="s">
+        <v>389</v>
+      </c>
+      <c r="H48" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5357</v>
+      </c>
+      <c r="B49" s="47">
+        <v>43752</v>
+      </c>
+      <c r="C49" s="47">
+        <v>43752</v>
+      </c>
+      <c r="D49" t="s">
+        <v>321</v>
+      </c>
+      <c r="E49" t="s">
+        <v>394</v>
+      </c>
+      <c r="F49" t="s">
+        <v>323</v>
+      </c>
+      <c r="G49" t="s">
+        <v>324</v>
+      </c>
+      <c r="H49" s="24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5357</v>
+      </c>
+      <c r="B50" s="47">
+        <v>43752</v>
+      </c>
+      <c r="C50" s="47">
+        <v>43752</v>
+      </c>
+      <c r="D50" t="s">
+        <v>317</v>
+      </c>
+      <c r="E50" t="s">
+        <v>394</v>
+      </c>
+      <c r="F50" t="s">
+        <v>319</v>
+      </c>
+      <c r="G50" t="s">
+        <v>320</v>
+      </c>
+      <c r="H50" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5357</v>
+      </c>
+      <c r="B51" s="47">
+        <v>43752</v>
+      </c>
+      <c r="C51" s="47">
+        <v>43752</v>
+      </c>
+      <c r="D51" t="s">
+        <v>321</v>
+      </c>
+      <c r="E51" t="s">
+        <v>395</v>
+      </c>
+      <c r="F51" t="s">
+        <v>379</v>
+      </c>
+      <c r="G51" t="s">
+        <v>380</v>
+      </c>
+      <c r="H51" s="24">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5357</v>
+      </c>
+      <c r="B52" s="47">
+        <v>43752</v>
+      </c>
+      <c r="C52" s="47">
+        <v>43752</v>
+      </c>
+      <c r="D52" t="s">
+        <v>317</v>
+      </c>
+      <c r="E52" t="s">
+        <v>395</v>
+      </c>
+      <c r="F52" t="s">
+        <v>319</v>
+      </c>
+      <c r="G52" t="s">
+        <v>320</v>
+      </c>
+      <c r="H52" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5357</v>
+      </c>
+      <c r="B53" s="47">
+        <v>43753</v>
+      </c>
+      <c r="C53" s="47">
+        <v>43753</v>
+      </c>
+      <c r="D53" t="s">
+        <v>321</v>
+      </c>
+      <c r="E53" t="s">
+        <v>341</v>
+      </c>
+      <c r="F53" t="s">
+        <v>396</v>
+      </c>
+      <c r="G53" t="s">
+        <v>397</v>
+      </c>
+      <c r="H53" s="24">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5357</v>
+      </c>
+      <c r="B54" s="47">
+        <v>43743</v>
+      </c>
+      <c r="C54" s="47">
+        <v>43743</v>
+      </c>
+      <c r="D54" t="s">
+        <v>321</v>
+      </c>
+      <c r="E54" t="s">
+        <v>398</v>
+      </c>
+      <c r="F54" t="s">
+        <v>370</v>
+      </c>
+      <c r="G54" t="s">
+        <v>371</v>
+      </c>
+      <c r="H54" s="24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5357</v>
+      </c>
+      <c r="B55" s="47">
+        <v>43743</v>
+      </c>
+      <c r="C55" s="47">
+        <v>43743</v>
+      </c>
+      <c r="D55" t="s">
+        <v>317</v>
+      </c>
+      <c r="E55" t="s">
+        <v>398</v>
+      </c>
+      <c r="F55" t="s">
+        <v>328</v>
+      </c>
+      <c r="G55" t="s">
+        <v>329</v>
+      </c>
+      <c r="H55" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5357</v>
+      </c>
+      <c r="B56" s="47">
+        <v>43743</v>
+      </c>
+      <c r="C56" s="47">
+        <v>43743</v>
+      </c>
+      <c r="D56" t="s">
+        <v>321</v>
+      </c>
+      <c r="E56" t="s">
+        <v>399</v>
+      </c>
+      <c r="F56" t="s">
+        <v>342</v>
+      </c>
+      <c r="G56" t="s">
+        <v>343</v>
+      </c>
+      <c r="H56" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5357</v>
+      </c>
+      <c r="B57" s="47">
+        <v>43743</v>
+      </c>
+      <c r="C57" s="47">
+        <v>43743</v>
+      </c>
+      <c r="D57" t="s">
+        <v>317</v>
+      </c>
+      <c r="E57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F57" t="s">
+        <v>388</v>
+      </c>
+      <c r="G57" t="s">
+        <v>389</v>
+      </c>
+      <c r="H57" s="24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5357</v>
+      </c>
+      <c r="B58" s="47">
+        <v>43744</v>
+      </c>
+      <c r="C58" s="47">
+        <v>43744</v>
+      </c>
+      <c r="D58" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58" t="s">
+        <v>400</v>
+      </c>
+      <c r="F58" t="s">
+        <v>370</v>
+      </c>
+      <c r="G58" t="s">
+        <v>371</v>
+      </c>
+      <c r="H58" s="24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5357</v>
+      </c>
+      <c r="B59" s="47">
+        <v>43744</v>
+      </c>
+      <c r="C59" s="47">
+        <v>43744</v>
+      </c>
+      <c r="D59" t="s">
+        <v>317</v>
+      </c>
+      <c r="E59" t="s">
+        <v>400</v>
+      </c>
+      <c r="F59" t="s">
+        <v>319</v>
+      </c>
+      <c r="G59" t="s">
+        <v>320</v>
+      </c>
+      <c r="H59" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5357</v>
+      </c>
+      <c r="B60" s="47">
+        <v>43744</v>
+      </c>
+      <c r="C60" s="47">
+        <v>43744</v>
+      </c>
+      <c r="D60" t="s">
+        <v>321</v>
+      </c>
+      <c r="E60" t="s">
+        <v>401</v>
+      </c>
+      <c r="F60" t="s">
+        <v>402</v>
+      </c>
+      <c r="G60" t="s">
+        <v>403</v>
+      </c>
+      <c r="H60" s="24">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5357</v>
+      </c>
+      <c r="B61" s="47">
+        <v>43744</v>
+      </c>
+      <c r="C61" s="47">
+        <v>43744</v>
+      </c>
+      <c r="D61" t="s">
+        <v>317</v>
+      </c>
+      <c r="E61" t="s">
+        <v>401</v>
+      </c>
+      <c r="F61" t="s">
+        <v>351</v>
+      </c>
+      <c r="G61" t="s">
+        <v>352</v>
+      </c>
+      <c r="H61" s="24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5357</v>
+      </c>
+      <c r="B62" s="47">
+        <v>43745</v>
+      </c>
+      <c r="C62" s="47">
+        <v>43745</v>
+      </c>
+      <c r="D62" t="s">
+        <v>321</v>
+      </c>
+      <c r="E62" t="s">
+        <v>404</v>
+      </c>
+      <c r="F62" t="s">
+        <v>326</v>
+      </c>
+      <c r="G62" t="s">
+        <v>327</v>
+      </c>
+      <c r="H62" s="24">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5357</v>
+      </c>
+      <c r="B63" s="47">
+        <v>43745</v>
+      </c>
+      <c r="C63" s="47">
+        <v>43745</v>
+      </c>
+      <c r="D63" t="s">
+        <v>317</v>
+      </c>
+      <c r="E63" t="s">
+        <v>404</v>
+      </c>
+      <c r="F63" t="s">
+        <v>328</v>
+      </c>
+      <c r="G63" t="s">
+        <v>329</v>
+      </c>
+      <c r="H63" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5357</v>
+      </c>
+      <c r="B64" s="47">
+        <v>43746</v>
+      </c>
+      <c r="C64" s="47">
+        <v>43746</v>
+      </c>
+      <c r="D64" t="s">
+        <v>321</v>
+      </c>
+      <c r="E64" t="s">
+        <v>405</v>
+      </c>
+      <c r="F64" t="s">
+        <v>370</v>
+      </c>
+      <c r="G64" t="s">
+        <v>371</v>
+      </c>
+      <c r="H64" s="24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5357</v>
+      </c>
+      <c r="B65" s="47">
+        <v>43746</v>
+      </c>
+      <c r="C65" s="47">
+        <v>43746</v>
+      </c>
+      <c r="D65" t="s">
+        <v>317</v>
+      </c>
+      <c r="E65" t="s">
+        <v>405</v>
+      </c>
+      <c r="F65" t="s">
+        <v>328</v>
+      </c>
+      <c r="G65" t="s">
+        <v>329</v>
+      </c>
+      <c r="H65" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5357</v>
+      </c>
+      <c r="B66" s="47">
+        <v>43746</v>
+      </c>
+      <c r="C66" s="47">
+        <v>43746</v>
+      </c>
+      <c r="D66" t="s">
+        <v>321</v>
+      </c>
+      <c r="E66" t="s">
+        <v>325</v>
+      </c>
+      <c r="F66" t="s">
+        <v>372</v>
+      </c>
+      <c r="G66" t="s">
+        <v>373</v>
+      </c>
+      <c r="H66" s="24">
+        <f t="shared" ref="H66:H129" si="1">-LOOKUP(,-MIDB(G66,SEARCHB("?",G66),ROW($1:$15)))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5357</v>
+      </c>
+      <c r="B67" s="47">
+        <v>43746</v>
+      </c>
+      <c r="C67" s="47">
+        <v>43746</v>
+      </c>
+      <c r="D67" t="s">
+        <v>317</v>
+      </c>
+      <c r="E67" t="s">
+        <v>325</v>
+      </c>
+      <c r="F67" t="s">
+        <v>319</v>
+      </c>
+      <c r="G67" t="s">
+        <v>320</v>
+      </c>
+      <c r="H67" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5357</v>
+      </c>
+      <c r="B68" s="47">
+        <v>43748</v>
+      </c>
+      <c r="C68" s="47">
+        <v>43748</v>
+      </c>
+      <c r="D68" t="s">
+        <v>321</v>
+      </c>
+      <c r="E68" t="s">
+        <v>406</v>
+      </c>
+      <c r="F68" t="s">
+        <v>348</v>
+      </c>
+      <c r="G68" t="s">
+        <v>349</v>
+      </c>
+      <c r="H68" s="24">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5357</v>
+      </c>
+      <c r="B69" s="47">
+        <v>43748</v>
+      </c>
+      <c r="C69" s="47">
+        <v>43748</v>
+      </c>
+      <c r="D69" t="s">
+        <v>317</v>
+      </c>
+      <c r="E69" t="s">
+        <v>406</v>
+      </c>
+      <c r="F69" t="s">
+        <v>328</v>
+      </c>
+      <c r="G69" t="s">
+        <v>329</v>
+      </c>
+      <c r="H69" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="H70" s="24"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5357</v>
+      </c>
+      <c r="B71" s="47">
+        <v>43749</v>
+      </c>
+      <c r="C71" s="47">
+        <v>43749</v>
+      </c>
+      <c r="D71" t="s">
+        <v>321</v>
+      </c>
+      <c r="E71" t="s">
+        <v>407</v>
+      </c>
+      <c r="F71" t="s">
+        <v>353</v>
+      </c>
+      <c r="G71" t="s">
+        <v>354</v>
+      </c>
+      <c r="H71" s="24">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5357</v>
+      </c>
+      <c r="B72" s="47">
+        <v>43749</v>
+      </c>
+      <c r="C72" s="47">
+        <v>43749</v>
+      </c>
+      <c r="D72" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" t="s">
+        <v>407</v>
+      </c>
+      <c r="F72" t="s">
+        <v>319</v>
+      </c>
+      <c r="G72" t="s">
+        <v>320</v>
+      </c>
+      <c r="H72" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5357</v>
+      </c>
+      <c r="B73" s="47">
+        <v>43750</v>
+      </c>
+      <c r="C73" s="47">
+        <v>43750</v>
+      </c>
+      <c r="D73" t="s">
+        <v>321</v>
+      </c>
+      <c r="E73" t="s">
+        <v>375</v>
+      </c>
+      <c r="F73" t="s">
+        <v>391</v>
+      </c>
+      <c r="G73" t="s">
+        <v>408</v>
+      </c>
+      <c r="H73" s="24">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5357</v>
+      </c>
+      <c r="B74" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C74" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D74" t="s">
+        <v>321</v>
+      </c>
+      <c r="E74" t="s">
+        <v>416</v>
+      </c>
+      <c r="F74" t="s">
+        <v>417</v>
+      </c>
+      <c r="G74" t="s">
+        <v>418</v>
+      </c>
+      <c r="H74" s="24">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5357</v>
+      </c>
+      <c r="B75" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C75" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D75" t="s">
+        <v>317</v>
+      </c>
+      <c r="E75" t="s">
+        <v>416</v>
+      </c>
+      <c r="F75" t="s">
+        <v>365</v>
+      </c>
+      <c r="G75" t="s">
+        <v>366</v>
+      </c>
+      <c r="H75" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5357</v>
+      </c>
+      <c r="B76" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C76" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D76" t="s">
+        <v>321</v>
+      </c>
+      <c r="E76" t="s">
+        <v>419</v>
+      </c>
+      <c r="F76" t="s">
+        <v>323</v>
+      </c>
+      <c r="G76" t="s">
+        <v>324</v>
+      </c>
+      <c r="H76" s="24">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5357</v>
+      </c>
+      <c r="B77" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C77" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D77" t="s">
+        <v>317</v>
+      </c>
+      <c r="E77" t="s">
+        <v>419</v>
+      </c>
+      <c r="F77" t="s">
+        <v>319</v>
+      </c>
+      <c r="G77" t="s">
+        <v>320</v>
+      </c>
+      <c r="H77" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5357</v>
+      </c>
+      <c r="B78" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C78" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D78" t="s">
+        <v>321</v>
+      </c>
+      <c r="E78" t="s">
+        <v>420</v>
+      </c>
+      <c r="F78" t="s">
+        <v>326</v>
+      </c>
+      <c r="G78" t="s">
+        <v>327</v>
+      </c>
+      <c r="H78" s="24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5357</v>
+      </c>
+      <c r="B79" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C79" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D79" t="s">
+        <v>317</v>
+      </c>
+      <c r="E79" t="s">
+        <v>420</v>
+      </c>
+      <c r="F79" t="s">
+        <v>328</v>
+      </c>
+      <c r="G79" t="s">
+        <v>329</v>
+      </c>
+      <c r="H79" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>5357</v>
+      </c>
+      <c r="B80" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C80" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D80" t="s">
+        <v>321</v>
+      </c>
+      <c r="E80" t="s">
+        <v>350</v>
+      </c>
+      <c r="F80" t="s">
+        <v>421</v>
+      </c>
+      <c r="G80" t="s">
+        <v>422</v>
+      </c>
+      <c r="H80" s="24">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5357</v>
+      </c>
+      <c r="B81" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C81" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D81" t="s">
+        <v>317</v>
+      </c>
+      <c r="E81" t="s">
+        <v>350</v>
+      </c>
+      <c r="F81" t="s">
+        <v>423</v>
+      </c>
+      <c r="G81" t="s">
+        <v>424</v>
+      </c>
+      <c r="H81" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5357</v>
+      </c>
+      <c r="B82" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C82" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D82" t="s">
+        <v>321</v>
+      </c>
+      <c r="E82" t="s">
+        <v>425</v>
+      </c>
+      <c r="F82" t="s">
+        <v>426</v>
+      </c>
+      <c r="G82" t="s">
+        <v>427</v>
+      </c>
+      <c r="H82" s="24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>5357</v>
+      </c>
+      <c r="B83" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C83" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D83" t="s">
+        <v>317</v>
+      </c>
+      <c r="E83" t="s">
+        <v>425</v>
+      </c>
+      <c r="F83" t="s">
+        <v>328</v>
+      </c>
+      <c r="G83" t="s">
+        <v>329</v>
+      </c>
+      <c r="H83" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>5357</v>
+      </c>
+      <c r="B84" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C84" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D84" t="s">
+        <v>321</v>
+      </c>
+      <c r="E84" t="s">
+        <v>347</v>
+      </c>
+      <c r="F84" t="s">
+        <v>348</v>
+      </c>
+      <c r="G84" t="s">
+        <v>349</v>
+      </c>
+      <c r="H84" s="24">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>5357</v>
+      </c>
+      <c r="B85" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C85" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D85" t="s">
+        <v>317</v>
+      </c>
+      <c r="E85" t="s">
+        <v>347</v>
+      </c>
+      <c r="F85" t="s">
+        <v>328</v>
+      </c>
+      <c r="G85" t="s">
+        <v>329</v>
+      </c>
+      <c r="H85" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5357</v>
+      </c>
+      <c r="B86" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C86" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D86" t="s">
+        <v>321</v>
+      </c>
+      <c r="E86" t="s">
+        <v>350</v>
+      </c>
+      <c r="F86" t="s">
+        <v>428</v>
+      </c>
+      <c r="G86" t="s">
+        <v>429</v>
+      </c>
+      <c r="H86" s="24">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5357</v>
+      </c>
+      <c r="B87" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C87" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D87" t="s">
+        <v>317</v>
+      </c>
+      <c r="E87" t="s">
+        <v>350</v>
+      </c>
+      <c r="F87" t="s">
+        <v>423</v>
+      </c>
+      <c r="G87" t="s">
+        <v>424</v>
+      </c>
+      <c r="H87" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>5357</v>
+      </c>
+      <c r="B88" s="47">
+        <v>43743</v>
+      </c>
+      <c r="C88" s="47">
+        <v>43743</v>
+      </c>
+      <c r="D88" t="s">
+        <v>321</v>
+      </c>
+      <c r="E88" t="s">
+        <v>430</v>
+      </c>
+      <c r="F88" t="s">
+        <v>431</v>
+      </c>
+      <c r="G88" t="s">
+        <v>432</v>
+      </c>
+      <c r="H88" s="24">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5357</v>
+      </c>
+      <c r="B89" s="47">
+        <v>43743</v>
+      </c>
+      <c r="C89" s="47">
+        <v>43743</v>
+      </c>
+      <c r="D89" t="s">
+        <v>317</v>
+      </c>
+      <c r="E89" t="s">
+        <v>430</v>
+      </c>
+      <c r="F89" t="s">
+        <v>333</v>
+      </c>
+      <c r="G89" t="s">
+        <v>334</v>
+      </c>
+      <c r="H89" s="24">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5357</v>
+      </c>
+      <c r="B90" s="47">
+        <v>43743</v>
+      </c>
+      <c r="C90" s="47">
+        <v>43743</v>
+      </c>
+      <c r="D90" t="s">
+        <v>321</v>
+      </c>
+      <c r="E90" t="s">
+        <v>433</v>
+      </c>
+      <c r="F90" t="s">
+        <v>426</v>
+      </c>
+      <c r="G90" t="s">
+        <v>427</v>
+      </c>
+      <c r="H90" s="24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5357</v>
+      </c>
+      <c r="B91" s="47">
+        <v>43743</v>
+      </c>
+      <c r="C91" s="47">
+        <v>43743</v>
+      </c>
+      <c r="D91" t="s">
+        <v>317</v>
+      </c>
+      <c r="E91" t="s">
+        <v>433</v>
+      </c>
+      <c r="F91" t="s">
+        <v>328</v>
+      </c>
+      <c r="G91" t="s">
+        <v>329</v>
+      </c>
+      <c r="H91" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>5357</v>
+      </c>
+      <c r="B92" s="47">
+        <v>43743</v>
+      </c>
+      <c r="C92" s="47">
+        <v>43743</v>
+      </c>
+      <c r="D92" t="s">
+        <v>321</v>
+      </c>
+      <c r="E92" t="s">
+        <v>434</v>
+      </c>
+      <c r="F92" t="s">
+        <v>435</v>
+      </c>
+      <c r="G92" t="s">
+        <v>436</v>
+      </c>
+      <c r="H92" s="24">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>5357</v>
+      </c>
+      <c r="B93" s="47">
+        <v>43743</v>
+      </c>
+      <c r="C93" s="47">
+        <v>43743</v>
+      </c>
+      <c r="D93" t="s">
+        <v>317</v>
+      </c>
+      <c r="E93" t="s">
+        <v>434</v>
+      </c>
+      <c r="F93" t="s">
+        <v>365</v>
+      </c>
+      <c r="G93" t="s">
+        <v>437</v>
+      </c>
+      <c r="H93" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5357</v>
+      </c>
+      <c r="B94" s="47">
+        <v>43738</v>
+      </c>
+      <c r="C94" s="47">
+        <v>43738</v>
+      </c>
+      <c r="D94" t="s">
+        <v>321</v>
+      </c>
+      <c r="E94" t="s">
+        <v>438</v>
+      </c>
+      <c r="F94" t="s">
+        <v>356</v>
+      </c>
+      <c r="G94" t="s">
+        <v>357</v>
+      </c>
+      <c r="H94" s="24">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>5357</v>
+      </c>
+      <c r="B95" s="47">
+        <v>43738</v>
+      </c>
+      <c r="C95" s="47">
+        <v>43738</v>
+      </c>
+      <c r="D95" t="s">
+        <v>317</v>
+      </c>
+      <c r="E95" t="s">
+        <v>438</v>
+      </c>
+      <c r="F95" t="s">
+        <v>319</v>
+      </c>
+      <c r="G95" t="s">
+        <v>320</v>
+      </c>
+      <c r="H95" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>5357</v>
+      </c>
+      <c r="B96" s="47">
+        <v>43738</v>
+      </c>
+      <c r="C96" s="47">
+        <v>43738</v>
+      </c>
+      <c r="D96" t="s">
+        <v>321</v>
+      </c>
+      <c r="E96" t="s">
+        <v>439</v>
+      </c>
+      <c r="F96" t="s">
+        <v>370</v>
+      </c>
+      <c r="G96" t="s">
+        <v>371</v>
+      </c>
+      <c r="H96" s="24">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>5357</v>
+      </c>
+      <c r="B97" s="47">
+        <v>43738</v>
+      </c>
+      <c r="C97" s="47">
+        <v>43738</v>
+      </c>
+      <c r="D97" t="s">
+        <v>317</v>
+      </c>
+      <c r="E97" t="s">
+        <v>439</v>
+      </c>
+      <c r="F97" t="s">
+        <v>328</v>
+      </c>
+      <c r="G97" t="s">
+        <v>329</v>
+      </c>
+      <c r="H97" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5357</v>
+      </c>
+      <c r="B98" s="47">
+        <v>43738</v>
+      </c>
+      <c r="C98" s="47">
+        <v>43738</v>
+      </c>
+      <c r="D98" t="s">
+        <v>321</v>
+      </c>
+      <c r="E98" t="s">
+        <v>440</v>
+      </c>
+      <c r="F98" t="s">
+        <v>441</v>
+      </c>
+      <c r="G98" t="s">
+        <v>442</v>
+      </c>
+      <c r="H98" s="24">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>5357</v>
+      </c>
+      <c r="B99" s="47">
+        <v>43738</v>
+      </c>
+      <c r="C99" s="47">
+        <v>43738</v>
+      </c>
+      <c r="D99" t="s">
+        <v>317</v>
+      </c>
+      <c r="E99" t="s">
+        <v>440</v>
+      </c>
+      <c r="F99" t="s">
+        <v>342</v>
+      </c>
+      <c r="G99" t="s">
+        <v>343</v>
+      </c>
+      <c r="H99" s="24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>5357</v>
+      </c>
+      <c r="B100" s="47">
+        <v>43738</v>
+      </c>
+      <c r="C100" s="47">
+        <v>43738</v>
+      </c>
+      <c r="D100" t="s">
+        <v>321</v>
+      </c>
+      <c r="E100" t="s">
+        <v>443</v>
+      </c>
+      <c r="F100" t="s">
+        <v>348</v>
+      </c>
+      <c r="G100" t="s">
+        <v>349</v>
+      </c>
+      <c r="H100" s="24">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>5357</v>
+      </c>
+      <c r="B101" s="47">
+        <v>43738</v>
+      </c>
+      <c r="C101" s="47">
+        <v>43738</v>
+      </c>
+      <c r="D101" t="s">
+        <v>317</v>
+      </c>
+      <c r="E101" t="s">
+        <v>443</v>
+      </c>
+      <c r="F101" t="s">
+        <v>328</v>
+      </c>
+      <c r="G101" t="s">
+        <v>329</v>
+      </c>
+      <c r="H101" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5357</v>
+      </c>
+      <c r="B102" s="47">
+        <v>43738</v>
+      </c>
+      <c r="C102" s="47">
+        <v>43738</v>
+      </c>
+      <c r="D102" t="s">
+        <v>321</v>
+      </c>
+      <c r="E102" t="s">
+        <v>444</v>
+      </c>
+      <c r="F102" t="s">
+        <v>445</v>
+      </c>
+      <c r="G102" t="s">
+        <v>446</v>
+      </c>
+      <c r="H102" s="24">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>5357</v>
+      </c>
+      <c r="B103" s="47">
+        <v>43738</v>
+      </c>
+      <c r="C103" s="47">
+        <v>43738</v>
+      </c>
+      <c r="D103" t="s">
+        <v>317</v>
+      </c>
+      <c r="E103" t="s">
+        <v>444</v>
+      </c>
+      <c r="F103" t="s">
+        <v>348</v>
+      </c>
+      <c r="G103" t="s">
+        <v>349</v>
+      </c>
+      <c r="H103" s="24">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>5357</v>
+      </c>
+      <c r="B104" s="47">
+        <v>43741</v>
+      </c>
+      <c r="C104" s="47">
+        <v>43741</v>
+      </c>
+      <c r="D104" t="s">
+        <v>321</v>
+      </c>
+      <c r="E104" t="s">
+        <v>393</v>
+      </c>
+      <c r="F104" t="s">
+        <v>372</v>
+      </c>
+      <c r="G104" t="s">
+        <v>373</v>
+      </c>
+      <c r="H104" s="24">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>5357</v>
+      </c>
+      <c r="B105" s="47">
+        <v>43741</v>
+      </c>
+      <c r="C105" s="47">
+        <v>43741</v>
+      </c>
+      <c r="D105" t="s">
+        <v>317</v>
+      </c>
+      <c r="E105" t="s">
+        <v>393</v>
+      </c>
+      <c r="F105" t="s">
+        <v>319</v>
+      </c>
+      <c r="G105" t="s">
+        <v>320</v>
+      </c>
+      <c r="H105" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5357</v>
+      </c>
+      <c r="B106" s="47">
+        <v>43741</v>
+      </c>
+      <c r="C106" s="47">
+        <v>43741</v>
+      </c>
+      <c r="D106" t="s">
+        <v>321</v>
+      </c>
+      <c r="E106" t="s">
+        <v>447</v>
+      </c>
+      <c r="F106" t="s">
+        <v>356</v>
+      </c>
+      <c r="G106" t="s">
+        <v>357</v>
+      </c>
+      <c r="H106" s="24">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>5357</v>
+      </c>
+      <c r="B107" s="47">
+        <v>43741</v>
+      </c>
+      <c r="C107" s="47">
+        <v>43741</v>
+      </c>
+      <c r="D107" t="s">
+        <v>317</v>
+      </c>
+      <c r="E107" t="s">
+        <v>447</v>
+      </c>
+      <c r="F107" t="s">
+        <v>319</v>
+      </c>
+      <c r="G107" t="s">
+        <v>320</v>
+      </c>
+      <c r="H107" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>5357</v>
+      </c>
+      <c r="B108" s="47">
+        <v>43741</v>
+      </c>
+      <c r="C108" s="47">
+        <v>43741</v>
+      </c>
+      <c r="D108" t="s">
+        <v>321</v>
+      </c>
+      <c r="E108" t="s">
+        <v>448</v>
+      </c>
+      <c r="F108" t="s">
+        <v>379</v>
+      </c>
+      <c r="G108" t="s">
+        <v>380</v>
+      </c>
+      <c r="H108" s="24">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>5357</v>
+      </c>
+      <c r="B109" s="47">
+        <v>43741</v>
+      </c>
+      <c r="C109" s="47">
+        <v>43741</v>
+      </c>
+      <c r="D109" t="s">
+        <v>317</v>
+      </c>
+      <c r="E109" t="s">
+        <v>448</v>
+      </c>
+      <c r="F109" t="s">
+        <v>319</v>
+      </c>
+      <c r="G109" t="s">
+        <v>320</v>
+      </c>
+      <c r="H109" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>5357</v>
+      </c>
+      <c r="B110" s="47">
+        <v>43741</v>
+      </c>
+      <c r="C110" s="47">
+        <v>43741</v>
+      </c>
+      <c r="D110" t="s">
+        <v>321</v>
+      </c>
+      <c r="E110" t="s">
+        <v>449</v>
+      </c>
+      <c r="F110" t="s">
+        <v>372</v>
+      </c>
+      <c r="G110" t="s">
+        <v>373</v>
+      </c>
+      <c r="H110" s="24">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>5357</v>
+      </c>
+      <c r="B111" s="47">
+        <v>43741</v>
+      </c>
+      <c r="C111" s="47">
+        <v>43741</v>
+      </c>
+      <c r="D111" t="s">
+        <v>317</v>
+      </c>
+      <c r="E111" t="s">
+        <v>449</v>
+      </c>
+      <c r="F111" t="s">
+        <v>319</v>
+      </c>
+      <c r="G111" t="s">
+        <v>320</v>
+      </c>
+      <c r="H111" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>5357</v>
+      </c>
+      <c r="B112" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C112" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D112" t="s">
+        <v>321</v>
+      </c>
+      <c r="E112" t="s">
+        <v>450</v>
+      </c>
+      <c r="F112" t="s">
+        <v>451</v>
+      </c>
+      <c r="G112" t="s">
+        <v>452</v>
+      </c>
+      <c r="H112" s="24">
+        <f t="shared" si="1"/>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>5357</v>
+      </c>
+      <c r="B113" s="47">
+        <v>43742</v>
+      </c>
+      <c r="C113" s="47">
+        <v>43742</v>
+      </c>
+      <c r="D113" t="s">
+        <v>317</v>
+      </c>
+      <c r="E113" t="s">
+        <v>450</v>
+      </c>
+      <c r="F113" t="s">
+        <v>453</v>
+      </c>
+      <c r="G113" t="s">
+        <v>454</v>
+      </c>
+      <c r="H113" s="24">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>5357</v>
+      </c>
+      <c r="B114" s="47">
+        <v>43733</v>
+      </c>
+      <c r="C114" s="47">
+        <v>43733</v>
+      </c>
+      <c r="D114" t="s">
+        <v>321</v>
+      </c>
+      <c r="E114" t="s">
+        <v>455</v>
+      </c>
+      <c r="F114" t="s">
+        <v>435</v>
+      </c>
+      <c r="G114" t="s">
+        <v>436</v>
+      </c>
+      <c r="H114" s="24">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>5357</v>
+      </c>
+      <c r="B115" s="47">
+        <v>43733</v>
+      </c>
+      <c r="C115" s="47">
+        <v>43733</v>
+      </c>
+      <c r="D115" t="s">
+        <v>317</v>
+      </c>
+      <c r="E115" t="s">
+        <v>455</v>
+      </c>
+      <c r="F115" t="s">
+        <v>365</v>
+      </c>
+      <c r="G115" t="s">
+        <v>366</v>
+      </c>
+      <c r="H115" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>5357</v>
+      </c>
+      <c r="B116" s="47">
+        <v>43734</v>
+      </c>
+      <c r="C116" s="47">
+        <v>43734</v>
+      </c>
+      <c r="D116" t="s">
+        <v>321</v>
+      </c>
+      <c r="E116" t="s">
+        <v>456</v>
+      </c>
+      <c r="F116" t="s">
+        <v>426</v>
+      </c>
+      <c r="G116" t="s">
+        <v>427</v>
+      </c>
+      <c r="H116" s="24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>5357</v>
+      </c>
+      <c r="B117" s="47">
+        <v>43734</v>
+      </c>
+      <c r="C117" s="47">
+        <v>43734</v>
+      </c>
+      <c r="D117" t="s">
+        <v>317</v>
+      </c>
+      <c r="E117" t="s">
+        <v>456</v>
+      </c>
+      <c r="F117" t="s">
+        <v>328</v>
+      </c>
+      <c r="G117" t="s">
+        <v>329</v>
+      </c>
+      <c r="H117" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>5357</v>
+      </c>
+      <c r="B118" s="47">
+        <v>43734</v>
+      </c>
+      <c r="C118" s="47">
+        <v>43734</v>
+      </c>
+      <c r="D118" t="s">
+        <v>321</v>
+      </c>
+      <c r="E118" t="s">
+        <v>457</v>
+      </c>
+      <c r="F118" t="s">
+        <v>363</v>
+      </c>
+      <c r="G118" t="s">
+        <v>364</v>
+      </c>
+      <c r="H118" s="24">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>5357</v>
+      </c>
+      <c r="B119" s="47">
+        <v>43734</v>
+      </c>
+      <c r="C119" s="47">
+        <v>43734</v>
+      </c>
+      <c r="D119" t="s">
+        <v>317</v>
+      </c>
+      <c r="E119" t="s">
+        <v>457</v>
+      </c>
+      <c r="F119" t="s">
+        <v>365</v>
+      </c>
+      <c r="G119" t="s">
+        <v>366</v>
+      </c>
+      <c r="H119" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>5357</v>
+      </c>
+      <c r="B120" s="47">
+        <v>43735</v>
+      </c>
+      <c r="C120" s="47">
+        <v>43735</v>
+      </c>
+      <c r="D120" t="s">
+        <v>321</v>
+      </c>
+      <c r="E120" t="s">
+        <v>458</v>
+      </c>
+      <c r="F120" t="s">
+        <v>342</v>
+      </c>
+      <c r="G120" t="s">
+        <v>343</v>
+      </c>
+      <c r="H120" s="24">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>5357</v>
+      </c>
+      <c r="B121" s="47">
+        <v>43735</v>
+      </c>
+      <c r="C121" s="47">
+        <v>43735</v>
+      </c>
+      <c r="D121" t="s">
+        <v>317</v>
+      </c>
+      <c r="E121" t="s">
+        <v>458</v>
+      </c>
+      <c r="F121" t="s">
+        <v>388</v>
+      </c>
+      <c r="G121" t="s">
+        <v>389</v>
+      </c>
+      <c r="H121" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5357</v>
+      </c>
+      <c r="B122" s="47">
+        <v>43735</v>
+      </c>
+      <c r="C122" s="47">
+        <v>43735</v>
+      </c>
+      <c r="D122" t="s">
+        <v>321</v>
+      </c>
+      <c r="E122" t="s">
+        <v>459</v>
+      </c>
+      <c r="F122" t="s">
+        <v>353</v>
+      </c>
+      <c r="G122" t="s">
+        <v>354</v>
+      </c>
+      <c r="H122" s="24">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5357</v>
+      </c>
+      <c r="B123" s="47">
+        <v>43735</v>
+      </c>
+      <c r="C123" s="47">
+        <v>43735</v>
+      </c>
+      <c r="D123" t="s">
+        <v>317</v>
+      </c>
+      <c r="E123" t="s">
+        <v>459</v>
+      </c>
+      <c r="F123" t="s">
+        <v>319</v>
+      </c>
+      <c r="G123" t="s">
+        <v>320</v>
+      </c>
+      <c r="H123" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>5357</v>
+      </c>
+      <c r="B124" s="47">
+        <v>43735</v>
+      </c>
+      <c r="C124" s="47">
+        <v>43735</v>
+      </c>
+      <c r="D124" t="s">
+        <v>321</v>
+      </c>
+      <c r="E124" t="s">
+        <v>460</v>
+      </c>
+      <c r="F124" t="s">
+        <v>461</v>
+      </c>
+      <c r="G124" t="s">
+        <v>462</v>
+      </c>
+      <c r="H124" s="24">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5357</v>
+      </c>
+      <c r="B125" s="47">
+        <v>43735</v>
+      </c>
+      <c r="C125" s="47">
+        <v>43735</v>
+      </c>
+      <c r="D125" t="s">
+        <v>317</v>
+      </c>
+      <c r="E125" t="s">
+        <v>460</v>
+      </c>
+      <c r="F125" t="s">
+        <v>360</v>
+      </c>
+      <c r="G125" t="s">
+        <v>361</v>
+      </c>
+      <c r="H125" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5357</v>
+      </c>
+      <c r="B126" s="47">
+        <v>43736</v>
+      </c>
+      <c r="C126" s="47">
+        <v>43736</v>
+      </c>
+      <c r="D126" t="s">
+        <v>321</v>
+      </c>
+      <c r="E126" t="s">
+        <v>463</v>
+      </c>
+      <c r="F126" t="s">
+        <v>353</v>
+      </c>
+      <c r="G126" t="s">
+        <v>354</v>
+      </c>
+      <c r="H126" s="24">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>5357</v>
+      </c>
+      <c r="B127" s="47">
+        <v>43736</v>
+      </c>
+      <c r="C127" s="47">
+        <v>43736</v>
+      </c>
+      <c r="D127" t="s">
+        <v>317</v>
+      </c>
+      <c r="E127" t="s">
+        <v>463</v>
+      </c>
+      <c r="F127" t="s">
+        <v>319</v>
+      </c>
+      <c r="G127" t="s">
+        <v>320</v>
+      </c>
+      <c r="H127" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>5357</v>
+      </c>
+      <c r="B128" s="47">
+        <v>43737</v>
+      </c>
+      <c r="C128" s="47">
+        <v>43737</v>
+      </c>
+      <c r="D128" t="s">
+        <v>321</v>
+      </c>
+      <c r="E128" t="s">
+        <v>464</v>
+      </c>
+      <c r="F128" t="s">
+        <v>465</v>
+      </c>
+      <c r="G128" t="s">
+        <v>466</v>
+      </c>
+      <c r="H128" s="24">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>5357</v>
+      </c>
+      <c r="B129" s="47">
+        <v>43737</v>
+      </c>
+      <c r="C129" s="47">
+        <v>43737</v>
+      </c>
+      <c r="D129" t="s">
+        <v>317</v>
+      </c>
+      <c r="E129" t="s">
+        <v>464</v>
+      </c>
+      <c r="F129" t="s">
+        <v>328</v>
+      </c>
+      <c r="G129" t="s">
+        <v>329</v>
+      </c>
+      <c r="H129" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5357</v>
+      </c>
+      <c r="B130" s="47">
+        <v>43737</v>
+      </c>
+      <c r="C130" s="47">
+        <v>43737</v>
+      </c>
+      <c r="D130" t="s">
+        <v>321</v>
+      </c>
+      <c r="E130" t="s">
+        <v>467</v>
+      </c>
+      <c r="F130" t="s">
+        <v>468</v>
+      </c>
+      <c r="G130" t="s">
+        <v>469</v>
+      </c>
+      <c r="H130" s="24">
+        <f t="shared" ref="H130:H153" si="2">-LOOKUP(,-MIDB(G130,SEARCHB("?",G130),ROW($1:$15)))</f>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>5357</v>
+      </c>
+      <c r="B131" s="47">
+        <v>43737</v>
+      </c>
+      <c r="C131" s="47">
+        <v>43737</v>
+      </c>
+      <c r="D131" t="s">
+        <v>317</v>
+      </c>
+      <c r="E131" t="s">
+        <v>467</v>
+      </c>
+      <c r="F131" t="s">
+        <v>470</v>
+      </c>
+      <c r="G131" t="s">
+        <v>471</v>
+      </c>
+      <c r="H131" s="24">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5357</v>
+      </c>
+      <c r="B132" s="47">
+        <v>43738</v>
+      </c>
+      <c r="C132" s="47">
+        <v>43738</v>
+      </c>
+      <c r="D132" t="s">
+        <v>321</v>
+      </c>
+      <c r="E132" t="s">
+        <v>472</v>
+      </c>
+      <c r="F132" t="s">
+        <v>342</v>
+      </c>
+      <c r="G132" t="s">
+        <v>343</v>
+      </c>
+      <c r="H132" s="24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>5357</v>
+      </c>
+      <c r="B133" s="47">
+        <v>43738</v>
+      </c>
+      <c r="C133" s="47">
+        <v>43738</v>
+      </c>
+      <c r="D133" t="s">
+        <v>317</v>
+      </c>
+      <c r="E133" t="s">
+        <v>472</v>
+      </c>
+      <c r="F133" t="s">
+        <v>388</v>
+      </c>
+      <c r="G133" t="s">
+        <v>473</v>
+      </c>
+      <c r="H133" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>5357</v>
+      </c>
+      <c r="B134" s="47">
+        <v>43725</v>
+      </c>
+      <c r="C134" s="47">
+        <v>43725</v>
+      </c>
+      <c r="D134" t="s">
+        <v>321</v>
+      </c>
+      <c r="E134" t="s">
+        <v>474</v>
+      </c>
+      <c r="F134" t="s">
+        <v>475</v>
+      </c>
+      <c r="G134" t="s">
+        <v>476</v>
+      </c>
+      <c r="H134" s="24">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5357</v>
+      </c>
+      <c r="B135" s="47">
+        <v>43725</v>
+      </c>
+      <c r="C135" s="47">
+        <v>43725</v>
+      </c>
+      <c r="D135" t="s">
+        <v>317</v>
+      </c>
+      <c r="E135" t="s">
+        <v>474</v>
+      </c>
+      <c r="F135" t="s">
+        <v>360</v>
+      </c>
+      <c r="G135" t="s">
+        <v>361</v>
+      </c>
+      <c r="H135" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>5357</v>
+      </c>
+      <c r="B136" s="47">
+        <v>43726</v>
+      </c>
+      <c r="C136" s="47">
+        <v>43726</v>
+      </c>
+      <c r="D136" t="s">
+        <v>321</v>
+      </c>
+      <c r="E136" t="s">
+        <v>477</v>
+      </c>
+      <c r="F136" t="s">
+        <v>372</v>
+      </c>
+      <c r="G136" t="s">
+        <v>373</v>
+      </c>
+      <c r="H136" s="24">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>5357</v>
+      </c>
+      <c r="B137" s="47">
+        <v>43726</v>
+      </c>
+      <c r="C137" s="47">
+        <v>43726</v>
+      </c>
+      <c r="D137" t="s">
+        <v>317</v>
+      </c>
+      <c r="E137" t="s">
+        <v>477</v>
+      </c>
+      <c r="F137" t="s">
+        <v>319</v>
+      </c>
+      <c r="G137" t="s">
+        <v>320</v>
+      </c>
+      <c r="H137" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>5357</v>
+      </c>
+      <c r="B138" s="47">
+        <v>43727</v>
+      </c>
+      <c r="C138" s="47">
+        <v>43727</v>
+      </c>
+      <c r="D138" t="s">
+        <v>321</v>
+      </c>
+      <c r="E138" t="s">
+        <v>478</v>
+      </c>
+      <c r="F138" t="s">
+        <v>479</v>
+      </c>
+      <c r="G138" t="s">
+        <v>480</v>
+      </c>
+      <c r="H138" s="24">
+        <f t="shared" si="2"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>5357</v>
+      </c>
+      <c r="B139" s="47">
+        <v>43727</v>
+      </c>
+      <c r="C139" s="47">
+        <v>43727</v>
+      </c>
+      <c r="D139" t="s">
+        <v>317</v>
+      </c>
+      <c r="E139" t="s">
+        <v>478</v>
+      </c>
+      <c r="F139" t="s">
+        <v>431</v>
+      </c>
+      <c r="G139" t="s">
+        <v>432</v>
+      </c>
+      <c r="H139" s="24">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>5357</v>
+      </c>
+      <c r="B140" s="47">
+        <v>43728</v>
+      </c>
+      <c r="C140" s="47">
+        <v>43728</v>
+      </c>
+      <c r="D140" t="s">
+        <v>321</v>
+      </c>
+      <c r="E140" t="s">
+        <v>481</v>
+      </c>
+      <c r="F140" t="s">
+        <v>372</v>
+      </c>
+      <c r="G140" t="s">
+        <v>373</v>
+      </c>
+      <c r="H140" s="24">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>5357</v>
+      </c>
+      <c r="B141" s="47">
+        <v>43728</v>
+      </c>
+      <c r="C141" s="47">
+        <v>43728</v>
+      </c>
+      <c r="D141" t="s">
+        <v>317</v>
+      </c>
+      <c r="E141" t="s">
+        <v>481</v>
+      </c>
+      <c r="F141" t="s">
+        <v>319</v>
+      </c>
+      <c r="G141" t="s">
+        <v>320</v>
+      </c>
+      <c r="H141" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>5357</v>
+      </c>
+      <c r="B142" s="47">
+        <v>43730</v>
+      </c>
+      <c r="C142" s="47">
+        <v>43730</v>
+      </c>
+      <c r="D142" t="s">
+        <v>321</v>
+      </c>
+      <c r="E142" t="s">
+        <v>482</v>
+      </c>
+      <c r="F142" t="s">
+        <v>483</v>
+      </c>
+      <c r="G142" t="s">
+        <v>484</v>
+      </c>
+      <c r="H142" s="24">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>5357</v>
+      </c>
+      <c r="B143" s="47">
+        <v>43730</v>
+      </c>
+      <c r="C143" s="47">
+        <v>43730</v>
+      </c>
+      <c r="D143" t="s">
+        <v>317</v>
+      </c>
+      <c r="E143" t="s">
+        <v>482</v>
+      </c>
+      <c r="F143" t="s">
+        <v>485</v>
+      </c>
+      <c r="G143" t="s">
+        <v>486</v>
+      </c>
+      <c r="H143" s="24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>5357</v>
+      </c>
+      <c r="B144" s="47">
+        <v>43731</v>
+      </c>
+      <c r="C144" s="47">
+        <v>43731</v>
+      </c>
+      <c r="D144" t="s">
+        <v>321</v>
+      </c>
+      <c r="E144" t="s">
+        <v>487</v>
+      </c>
+      <c r="F144" t="s">
+        <v>441</v>
+      </c>
+      <c r="G144" t="s">
+        <v>442</v>
+      </c>
+      <c r="H144" s="24">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>5357</v>
+      </c>
+      <c r="B145" s="47">
+        <v>43731</v>
+      </c>
+      <c r="C145" s="47">
+        <v>43731</v>
+      </c>
+      <c r="D145" t="s">
+        <v>317</v>
+      </c>
+      <c r="E145" t="s">
+        <v>487</v>
+      </c>
+      <c r="F145" t="s">
+        <v>342</v>
+      </c>
+      <c r="G145" t="s">
+        <v>343</v>
+      </c>
+      <c r="H145" s="24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>5357</v>
+      </c>
+      <c r="B146" s="47">
+        <v>43732</v>
+      </c>
+      <c r="C146" s="47">
+        <v>43732</v>
+      </c>
+      <c r="D146" t="s">
+        <v>321</v>
+      </c>
+      <c r="E146" t="s">
+        <v>488</v>
+      </c>
+      <c r="F146" t="s">
+        <v>342</v>
+      </c>
+      <c r="G146" t="s">
+        <v>343</v>
+      </c>
+      <c r="H146" s="24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>5357</v>
+      </c>
+      <c r="B147" s="47">
+        <v>43732</v>
+      </c>
+      <c r="C147" s="47">
+        <v>43732</v>
+      </c>
+      <c r="D147" t="s">
+        <v>317</v>
+      </c>
+      <c r="E147" t="s">
+        <v>488</v>
+      </c>
+      <c r="F147" t="s">
+        <v>388</v>
+      </c>
+      <c r="G147" t="s">
+        <v>389</v>
+      </c>
+      <c r="H147" s="24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>5357</v>
+      </c>
+      <c r="B148" s="47">
+        <v>43733</v>
+      </c>
+      <c r="C148" s="47">
+        <v>43733</v>
+      </c>
+      <c r="D148" t="s">
+        <v>321</v>
+      </c>
+      <c r="E148" t="s">
+        <v>458</v>
+      </c>
+      <c r="F148" t="s">
+        <v>461</v>
+      </c>
+      <c r="G148" t="s">
+        <v>462</v>
+      </c>
+      <c r="H148" s="24">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>5357</v>
+      </c>
+      <c r="B149" s="47">
+        <v>43733</v>
+      </c>
+      <c r="C149" s="47">
+        <v>43733</v>
+      </c>
+      <c r="D149" t="s">
+        <v>317</v>
+      </c>
+      <c r="E149" t="s">
+        <v>458</v>
+      </c>
+      <c r="F149" t="s">
+        <v>360</v>
+      </c>
+      <c r="G149" t="s">
+        <v>361</v>
+      </c>
+      <c r="H149" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>5357</v>
+      </c>
+      <c r="B150" s="47">
+        <v>43733</v>
+      </c>
+      <c r="C150" s="47">
+        <v>43733</v>
+      </c>
+      <c r="D150" t="s">
+        <v>321</v>
+      </c>
+      <c r="E150" t="s">
+        <v>458</v>
+      </c>
+      <c r="F150" t="s">
+        <v>323</v>
+      </c>
+      <c r="G150" t="s">
+        <v>324</v>
+      </c>
+      <c r="H150" s="24">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>5357</v>
+      </c>
+      <c r="B151" s="47">
+        <v>43733</v>
+      </c>
+      <c r="C151" s="47">
+        <v>43733</v>
+      </c>
+      <c r="D151" t="s">
+        <v>317</v>
+      </c>
+      <c r="E151" t="s">
+        <v>458</v>
+      </c>
+      <c r="F151" t="s">
+        <v>319</v>
+      </c>
+      <c r="G151" t="s">
+        <v>320</v>
+      </c>
+      <c r="H151" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>5357</v>
+      </c>
+      <c r="B152" s="47">
+        <v>43733</v>
+      </c>
+      <c r="C152" s="47">
+        <v>43733</v>
+      </c>
+      <c r="D152" t="s">
+        <v>321</v>
+      </c>
+      <c r="E152" t="s">
+        <v>477</v>
+      </c>
+      <c r="F152" t="s">
+        <v>372</v>
+      </c>
+      <c r="G152" t="s">
+        <v>373</v>
+      </c>
+      <c r="H152" s="24">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>5357</v>
+      </c>
+      <c r="B153" s="47">
+        <v>43733</v>
+      </c>
+      <c r="C153" s="47">
+        <v>43733</v>
+      </c>
+      <c r="D153" t="s">
+        <v>317</v>
+      </c>
+      <c r="E153" t="s">
+        <v>477</v>
+      </c>
+      <c r="F153" t="s">
+        <v>319</v>
+      </c>
+      <c r="G153" t="s">
+        <v>489</v>
+      </c>
+      <c r="H153" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F82104F-91D2-4E18-9867-A3224FD39105}">
   <dimension ref="A4:P107"/>
   <sheetViews>
@@ -9576,7 +14623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC1CE30-C0C5-4CFB-948B-59B299C0C5E2}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -9768,7 +14815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C3F421-27D3-44A7-ADF5-C1C7630C2A70}">
   <dimension ref="A2:I120"/>
   <sheetViews>
@@ -10411,7 +15458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2851CF25-79D9-4163-8618-0649E7A531C4}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -16963,7 +22010,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K2:K31">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>$A$6</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CISS_rc/apps/rc_self/rc_debt_1910.xlsx
+++ b/CISS_rc/apps/rc_self/rc_debt_1910.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zd_zxjtzq\ciss_web\CISS_rc\apps\rc_self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE658F9-53AF-48D0-AF1A-6361805A70D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E54ED49-E261-4077-96AF-0BE5C6770CE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="495">
   <si>
     <t>收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1288,18 +1288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1001-1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1011-1020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1021-1031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1101:GET 14000=18000-32000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1848,7 +1836,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要新增短期8k，期限1月，因为下一个10天会有结余；用NBYH的短期白领通；</t>
+    <t>因为下一个10天会有结余；用NBYH的短期白领通-min=1万，月20付息，1年到期还本；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费贷-1w-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费贷-1w-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期还本1w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按月付息，到期还本1w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes：10-15发工资这几天只有NBYH有6100的付款，账面现金3.3k-留1k，差3.8k；财务报销1.4k+医保0.57k，还差1.9k；notes：融e借可以借5.5k；考虑到融e借实际上可以循环，对应的2w不怕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2051,7 +2059,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2217,13 +2225,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2553,11 +2584,11 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:T198"/>
+  <dimension ref="A1:T200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2659,12 +2690,12 @@
         <v>13420</v>
       </c>
       <c r="J2" t="b">
-        <f t="shared" ref="J2:J31" si="0">K2&gt;=$A$7</f>
+        <f t="shared" ref="J2:J33" si="0">K2&gt;=$A$7</f>
         <v>0</v>
       </c>
       <c r="K2" s="14">
         <f>_xlfn.NUMBERVALUE(R2)</f>
-        <v>1002</v>
+        <v>1102</v>
       </c>
       <c r="L2">
         <v>-161040</v>
@@ -2677,7 +2708,7 @@
       </c>
       <c r="R2" t="str">
         <f>$A$4&amp;RIGHT(Q2,2)</f>
-        <v>1002</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2711,24 +2742,24 @@
       </c>
       <c r="J3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="14">
         <f t="shared" ref="K3:K27" si="2">_xlfn.NUMBERVALUE(R3)</f>
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="L3" s="6">
         <v>-54000</v>
       </c>
       <c r="M3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q3">
         <v>20230410</v>
       </c>
       <c r="R3" t="str">
         <f>$A$4&amp;RIGHT(Q3,2)</f>
-        <v>1010</v>
+        <v>1110</v>
       </c>
       <c r="S3">
         <v>54000</v>
@@ -2740,8 +2771,8 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
-        <f>A35</f>
-        <v>10</v>
+        <f>A37</f>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>123</v>
@@ -2768,11 +2799,11 @@
       </c>
       <c r="J4" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="14">
         <f t="shared" si="2"/>
-        <v>1020</v>
+        <v>1120</v>
       </c>
       <c r="L4">
         <v>-15000</v>
@@ -2785,7 +2816,7 @@
       </c>
       <c r="R4" t="str">
         <f>$A$4&amp;RIGHT(Q4,2)</f>
-        <v>1020</v>
+        <v>1120</v>
       </c>
       <c r="S4">
         <v>15000</v>
@@ -2797,7 +2828,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="str">
-        <f>A36</f>
+        <f>A38</f>
         <v>日期=</v>
       </c>
       <c r="B5" t="s">
@@ -2829,7 +2860,7 @@
       </c>
       <c r="K5" s="14">
         <f t="shared" ref="K5" si="6">_xlfn.NUMBERVALUE(R5)</f>
-        <v>1002</v>
+        <v>1102</v>
       </c>
       <c r="L5">
         <v>-15000</v>
@@ -2842,7 +2873,7 @@
       </c>
       <c r="R5" t="str">
         <f>$A$4&amp;RIGHT(Q5,2)</f>
-        <v>1002</v>
+        <v>1102</v>
       </c>
       <c r="S5">
         <v>15000</v>
@@ -2872,14 +2903,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" si="1"/>
-        <v>-504</v>
+        <v>0</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="I6">
-        <v>2800</v>
       </c>
       <c r="J6" t="b">
         <f t="shared" si="0"/>
@@ -2887,10 +2914,10 @@
       </c>
       <c r="K6" s="14">
         <f t="shared" si="2"/>
-        <v>1003</v>
+        <v>1103</v>
       </c>
       <c r="L6">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="M6" t="s">
         <v>142</v>
@@ -2900,7 +2927,7 @@
       </c>
       <c r="R6" t="str">
         <f>$A$4&amp;RIGHT(Q6,2)</f>
-        <v>1003</v>
+        <v>1103</v>
       </c>
       <c r="S6">
         <v>2800</v>
@@ -2912,8 +2939,8 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
-        <f>A37</f>
-        <v>1028</v>
+        <f>A39</f>
+        <v>1104</v>
       </c>
       <c r="E7" s="12"/>
       <c r="G7" s="11"/>
@@ -2952,11 +2979,11 @@
       </c>
       <c r="J8" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="14">
         <f t="shared" si="2"/>
-        <v>1004</v>
+        <v>1104</v>
       </c>
       <c r="M8" t="s">
         <v>179</v>
@@ -2966,7 +2993,7 @@
       </c>
       <c r="R8" t="str">
         <f t="shared" ref="R8:R11" si="8">$A$4&amp;RIGHT(Q8,2)</f>
-        <v>1004</v>
+        <v>1104</v>
       </c>
       <c r="S8">
         <v>10700</v>
@@ -3004,11 +3031,11 @@
       </c>
       <c r="J9" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="2"/>
-        <v>1004</v>
+        <v>1104</v>
       </c>
       <c r="M9" t="s">
         <v>221</v>
@@ -3018,7 +3045,7 @@
       </c>
       <c r="R9" t="str">
         <f t="shared" si="8"/>
-        <v>1004</v>
+        <v>1104</v>
       </c>
       <c r="T9" s="11"/>
     </row>
@@ -3050,11 +3077,11 @@
       </c>
       <c r="J10" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="14">
         <f t="shared" si="2"/>
-        <v>1004</v>
+        <v>1104</v>
       </c>
       <c r="M10" t="s">
         <v>145</v>
@@ -3064,7 +3091,7 @@
       </c>
       <c r="R10" t="str">
         <f t="shared" si="8"/>
-        <v>1004</v>
+        <v>1104</v>
       </c>
       <c r="T10" s="11"/>
     </row>
@@ -3096,11 +3123,11 @@
       </c>
       <c r="J11" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" si="2"/>
-        <v>1004</v>
+        <v>1104</v>
       </c>
       <c r="M11" t="s">
         <v>148</v>
@@ -3110,7 +3137,7 @@
       </c>
       <c r="R11" t="str">
         <f t="shared" si="8"/>
-        <v>1004</v>
+        <v>1104</v>
       </c>
       <c r="T11" s="11"/>
     </row>
@@ -3157,7 +3184,7 @@
       </c>
       <c r="K14" s="14">
         <f t="shared" si="2"/>
-        <v>1002</v>
+        <v>1102</v>
       </c>
       <c r="L14">
         <f>I14*12*-1</f>
@@ -3171,7 +3198,7 @@
       </c>
       <c r="R14" t="str">
         <f t="shared" ref="R14:R27" si="9">$A$4&amp;RIGHT(Q14,2)</f>
-        <v>1002</v>
+        <v>1102</v>
       </c>
       <c r="S14">
         <f>D14*-1*0.8</f>
@@ -3214,7 +3241,7 @@
       </c>
       <c r="K15" s="14">
         <f t="shared" si="2"/>
-        <v>1003</v>
+        <v>1103</v>
       </c>
       <c r="L15">
         <f t="shared" ref="L15:L27" si="11">I15*12*-1</f>
@@ -3225,7 +3252,7 @@
       </c>
       <c r="R15" t="str">
         <f t="shared" si="9"/>
-        <v>1003</v>
+        <v>1103</v>
       </c>
       <c r="S15">
         <f t="shared" ref="S15:S27" si="12">D15*-1*0.8</f>
@@ -3264,11 +3291,11 @@
       </c>
       <c r="J16" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="14">
         <f t="shared" si="2"/>
-        <v>1005</v>
+        <v>1105</v>
       </c>
       <c r="L16">
         <f t="shared" si="11"/>
@@ -3279,7 +3306,7 @@
       </c>
       <c r="R16" t="str">
         <f t="shared" si="9"/>
-        <v>1005</v>
+        <v>1105</v>
       </c>
       <c r="S16">
         <f t="shared" si="12"/>
@@ -3318,11 +3345,11 @@
       </c>
       <c r="J17" t="b">
         <f t="shared" ref="J17" si="14">K17&gt;=$A$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="14">
         <f t="shared" ref="K17" si="15">_xlfn.NUMBERVALUE(R17)</f>
-        <v>1005</v>
+        <v>1105</v>
       </c>
       <c r="L17">
         <f t="shared" ref="L17" si="16">I17*12*-1</f>
@@ -3333,7 +3360,7 @@
       </c>
       <c r="R17" t="str">
         <f t="shared" ref="R17" si="17">$A$4&amp;RIGHT(Q17,2)</f>
-        <v>1005</v>
+        <v>1105</v>
       </c>
       <c r="S17">
         <f t="shared" ref="S17" si="18">D17*-1*0.8</f>
@@ -3372,11 +3399,11 @@
       </c>
       <c r="J18" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="14">
         <f t="shared" si="2"/>
-        <v>1009</v>
+        <v>1109</v>
       </c>
       <c r="L18">
         <f t="shared" si="11"/>
@@ -3387,7 +3414,7 @@
       </c>
       <c r="R18" t="str">
         <f t="shared" si="9"/>
-        <v>1009</v>
+        <v>1109</v>
       </c>
       <c r="S18">
         <f t="shared" si="12"/>
@@ -3426,11 +3453,11 @@
       </c>
       <c r="J19" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="14">
         <f t="shared" si="2"/>
-        <v>1009</v>
+        <v>1109</v>
       </c>
       <c r="L19">
         <f t="shared" si="11"/>
@@ -3441,7 +3468,7 @@
       </c>
       <c r="R19" t="str">
         <f t="shared" si="9"/>
-        <v>1009</v>
+        <v>1109</v>
       </c>
       <c r="S19">
         <f t="shared" si="12"/>
@@ -3480,11 +3507,11 @@
       </c>
       <c r="J20" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="14">
         <f t="shared" si="2"/>
-        <v>1015</v>
+        <v>1115</v>
       </c>
       <c r="L20">
         <f t="shared" si="11"/>
@@ -3495,7 +3522,7 @@
       </c>
       <c r="R20" t="str">
         <f t="shared" si="9"/>
-        <v>1015</v>
+        <v>1115</v>
       </c>
       <c r="S20">
         <f t="shared" si="12"/>
@@ -3534,11 +3561,11 @@
       </c>
       <c r="J21" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="14">
         <f t="shared" si="2"/>
-        <v>1016</v>
+        <v>1116</v>
       </c>
       <c r="L21">
         <f t="shared" si="11"/>
@@ -3549,7 +3576,7 @@
       </c>
       <c r="R21" t="str">
         <f t="shared" si="9"/>
-        <v>1016</v>
+        <v>1116</v>
       </c>
       <c r="S21">
         <f t="shared" si="12"/>
@@ -3588,11 +3615,11 @@
       </c>
       <c r="J22" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="14">
         <f t="shared" si="2"/>
-        <v>1018</v>
+        <v>1118</v>
       </c>
       <c r="L22">
         <f t="shared" si="11"/>
@@ -3603,7 +3630,7 @@
       </c>
       <c r="R22" t="str">
         <f t="shared" si="9"/>
-        <v>1018</v>
+        <v>1118</v>
       </c>
       <c r="S22">
         <f t="shared" si="12"/>
@@ -3642,11 +3669,11 @@
       </c>
       <c r="J23" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="14">
         <f t="shared" si="2"/>
-        <v>1018</v>
+        <v>1118</v>
       </c>
       <c r="L23">
         <f t="shared" si="11"/>
@@ -3657,7 +3684,7 @@
       </c>
       <c r="R23" t="str">
         <f t="shared" si="9"/>
-        <v>1018</v>
+        <v>1118</v>
       </c>
       <c r="S23">
         <f t="shared" si="12"/>
@@ -3696,11 +3723,11 @@
       </c>
       <c r="J24" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="14">
         <f t="shared" si="2"/>
-        <v>1019</v>
+        <v>1119</v>
       </c>
       <c r="L24">
         <f t="shared" si="11"/>
@@ -3711,7 +3738,7 @@
       </c>
       <c r="R24" t="str">
         <f t="shared" si="9"/>
-        <v>1019</v>
+        <v>1119</v>
       </c>
       <c r="S24">
         <f t="shared" si="12"/>
@@ -3750,11 +3777,11 @@
       </c>
       <c r="J25" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="14">
         <f t="shared" si="2"/>
-        <v>1019</v>
+        <v>1119</v>
       </c>
       <c r="L25">
         <f t="shared" si="11"/>
@@ -3765,7 +3792,7 @@
       </c>
       <c r="R25" t="str">
         <f t="shared" si="9"/>
-        <v>1019</v>
+        <v>1119</v>
       </c>
       <c r="S25">
         <f t="shared" si="12"/>
@@ -3804,11 +3831,11 @@
       </c>
       <c r="J26" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="14">
         <f t="shared" si="2"/>
-        <v>1023</v>
+        <v>1123</v>
       </c>
       <c r="L26">
         <f t="shared" si="11"/>
@@ -3819,7 +3846,7 @@
       </c>
       <c r="R26" t="str">
         <f t="shared" si="9"/>
-        <v>1023</v>
+        <v>1123</v>
       </c>
       <c r="S26">
         <f t="shared" si="12"/>
@@ -3862,7 +3889,7 @@
       </c>
       <c r="K27" s="14">
         <f t="shared" si="2"/>
-        <v>1028</v>
+        <v>1128</v>
       </c>
       <c r="L27">
         <f t="shared" si="11"/>
@@ -3873,7 +3900,7 @@
       </c>
       <c r="R27" t="str">
         <f t="shared" si="9"/>
-        <v>1028</v>
+        <v>1128</v>
       </c>
       <c r="S27">
         <f t="shared" si="12"/>
@@ -3888,9 +3915,57 @@
       <c r="B28" t="s">
         <v>133</v>
       </c>
+      <c r="C28" t="s">
+        <v>490</v>
+      </c>
+      <c r="D28">
+        <v>-10000</v>
+      </c>
+      <c r="E28" s="10">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F28" s="11">
+        <v>12</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" ref="G28" si="20">E28*D28*(F28/12)</f>
+        <v>-720</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28">
+        <v>60</v>
+      </c>
       <c r="J28" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="J28" si="21">K28&gt;=$A$7</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" ref="K28" si="22">_xlfn.NUMBERVALUE(R28)</f>
+        <v>1120</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28" si="23">I28*12*-1</f>
+        <v>-720</v>
+      </c>
+      <c r="M28" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q28">
+        <v>20201120</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" ref="R28" si="24">$A$4&amp;RIGHT(Q28,2)</f>
+        <v>1120</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ref="S28" si="25">D28*-1*0.8</f>
+        <v>8000</v>
+      </c>
+      <c r="T28" s="11">
+        <f t="shared" ref="T28" si="26">S28*(E28-0.1)</f>
+        <v>-224.00000000000009</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
@@ -3898,52 +3973,55 @@
         <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>491</v>
       </c>
       <c r="D29">
-        <v>-50000</v>
-      </c>
-      <c r="E29" s="50">
-        <v>0.11</v>
+        <v>-10000</v>
+      </c>
+      <c r="E29" s="10">
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F29" s="11">
         <v>12</v>
       </c>
-      <c r="G29" s="11">
-        <f t="shared" ref="G29" si="20">E29*D29*(F29/12)</f>
-        <v>-5500</v>
-      </c>
-      <c r="I29">
-        <v>820</v>
+      <c r="G29" s="11"/>
+      <c r="H29" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="J29" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J29" si="27">K29&gt;=$A$7</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="14">
+        <v>20201020</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29" si="28">I29*12*-1</f>
         <v>0</v>
       </c>
-      <c r="K29" s="14">
-        <f t="shared" ref="K29" si="21">_xlfn.NUMBERVALUE(R29)</f>
-        <v>1009</v>
-      </c>
-      <c r="L29">
-        <f t="shared" ref="L29" si="22">I29*12*-1</f>
-        <v>-9840</v>
+      <c r="M29" t="s">
+        <v>492</v>
       </c>
       <c r="Q29">
-        <v>202311109</v>
+        <v>20201120</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" ref="R29" si="23">$A$4&amp;RIGHT(Q29,2)</f>
-        <v>1009</v>
-      </c>
-      <c r="T29" s="11"/>
+        <f t="shared" ref="R29" si="29">$A$4&amp;RIGHT(Q29,2)</f>
+        <v>1120</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ref="S29" si="30">D29*-1*0.8</f>
+        <v>8000</v>
+      </c>
+      <c r="T29" s="11">
+        <f t="shared" ref="T29" si="31">S29*(E29-0.1)</f>
+        <v>-224.00000000000009</v>
+      </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>133</v>
       </c>
-      <c r="C30" t="s">
-        <v>173</v>
-      </c>
       <c r="J30" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3954,128 +4032,88 @@
         <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>172</v>
+      </c>
+      <c r="D31">
+        <v>-50000</v>
+      </c>
+      <c r="E31" s="50">
+        <v>0.11</v>
+      </c>
+      <c r="F31" s="11">
+        <v>12</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" ref="G31" si="32">E31*D31*(F31/12)</f>
+        <v>-5500</v>
+      </c>
+      <c r="I31">
+        <v>820</v>
       </c>
       <c r="J31" t="b">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" ref="K31" si="33">_xlfn.NUMBERVALUE(R31)</f>
+        <v>1109</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31" si="34">I31*12*-1</f>
+        <v>-9840</v>
+      </c>
+      <c r="Q31">
+        <v>202311109</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" ref="R31" si="35">$A$4&amp;RIGHT(Q31,2)</f>
+        <v>1109</v>
+      </c>
+      <c r="T31" s="11"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+      <c r="J32" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" t="s">
+        <v>174</v>
+      </c>
+      <c r="J33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="49">
-        <f>SUM(D3:D31)</f>
-        <v>-525378</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21">
-        <f>SUM(G3:G31)</f>
-        <v>-45401.68266666666</v>
-      </c>
-      <c r="H34" s="22">
-        <f>SUMIF(H2:H27,"是",I2:I27)</f>
-        <v>25123</v>
-      </c>
-      <c r="I34" s="19">
-        <f>SUM(I2:I31)</f>
-        <v>40413</v>
-      </c>
-      <c r="J34" s="21">
-        <f>SUMIF(J2:J31,"TRUE",I2:I31)</f>
-        <v>975</v>
-      </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19">
-        <f>SUM(L3:L31)</f>
-        <v>-265276</v>
-      </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="S34" s="19">
-        <f>SUM(S2:S27)</f>
-        <v>286842.40000000002</v>
-      </c>
-      <c r="T34" s="22">
-        <f>SUM(T2:T27)</f>
-        <v>-6831.5872000000027</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
-        <v>10</v>
-      </c>
       <c r="B35" s="19"/>
-      <c r="C35" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D35" s="19">
-        <f>SUM(D2:D33)</f>
-        <v>-3075378</v>
-      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="21">
-        <f>SUM(G2:G31)</f>
-        <v>-164104.18266666669</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>187</v>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="I35" s="19"/>
-      <c r="J35" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="K35" s="19">
-        <f>SUMIF(K2:K31,"&lt;=1010",I2:I31)</f>
-        <v>31682</v>
-      </c>
-      <c r="L35" s="19">
-        <f>SUM(L2:L31)</f>
-        <v>-426316</v>
-      </c>
+      <c r="J35" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
@@ -4087,66 +4125,92 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B36" s="19"/>
+        <v>154</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="C36" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="D36" s="19">
-        <f>D2</f>
-        <v>-2550000</v>
+        <v>1</v>
+      </c>
+      <c r="D36" s="49">
+        <f>SUM(D3:D33)</f>
+        <v>-545378</v>
       </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="21">
-        <f>G2</f>
-        <v>-118702.5</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="K36" s="19">
-        <f>SUMIF(K2:K31,"&lt;=1020",I2:I31)-K35</f>
-        <v>7166</v>
-      </c>
-      <c r="L36" s="19"/>
+        <f>SUM(G3:G33)</f>
+        <v>-45617.68266666666</v>
+      </c>
+      <c r="H36" s="22">
+        <f>SUMIF(H2:H27,"是",I2:I27)</f>
+        <v>22323</v>
+      </c>
+      <c r="I36" s="19">
+        <f>SUM(I2:I33)</f>
+        <v>37673</v>
+      </c>
+      <c r="J36" s="21">
+        <f>SUMIF(J2:J33,"TRUE",I2:I33)</f>
+        <v>21354</v>
+      </c>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19">
+        <f>SUM(L3:L33)</f>
+        <v>-263196</v>
+      </c>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
+      <c r="R36" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" s="19">
+        <f>SUM(S2:S27)</f>
+        <v>286842.40000000002</v>
+      </c>
+      <c r="T36" s="22">
+        <f>SUM(T2:T27)</f>
+        <v>-6831.5872000000027</v>
+      </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
-        <v>1028</v>
+        <v>11</v>
       </c>
       <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="19">
+        <f>SUM(D2:D35)</f>
+        <v>-3095378</v>
+      </c>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="G37" s="21">
+        <f>SUM(G2:G33)</f>
+        <v>-164320.18266666669</v>
+      </c>
       <c r="H37" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="I37" s="19">
-        <f>I39-I34</f>
-        <v>-22413</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>311</v>
+        <v>187</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19" t="str">
+        <f>A37&amp;"09"</f>
+        <v>1109</v>
       </c>
       <c r="K37" s="19">
-        <f>SUMIF(K2:K31,"&lt;=1031",I2:I31)-K36-K35</f>
-        <v>1565</v>
-      </c>
-      <c r="L37" s="19"/>
+        <f>SUMIF($K$2:$K$33,"&lt;="&amp;J37,$I$2:$I$33)</f>
+        <v>24982</v>
+      </c>
+      <c r="L37" s="19">
+        <f>SUM(L2:L33)</f>
+        <v>-424236</v>
+      </c>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
@@ -4157,132 +4221,109 @@
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="37"/>
-      <c r="C38" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="I38" s="23">
-        <v>201910</v>
-      </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
+      <c r="A38" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38" s="19">
+        <f>D2</f>
+        <v>-2550000</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="21">
+        <f>G2</f>
+        <v>-118702.5</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19" t="str">
+        <f>A37&amp;"19"</f>
+        <v>1119</v>
+      </c>
+      <c r="K38" s="19">
+        <f>SUMIF($K$2:$K$33,"&lt;="&amp;J38,$I$2:$I$33)-K37</f>
+        <v>10366</v>
+      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="37"/>
-      <c r="C39" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="D39" s="37">
-        <f>SUM(D40:D43)</f>
-        <v>25170</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="F39" s="37">
-        <f>SUM(F40:F43)</f>
-        <v>9000</v>
-      </c>
-      <c r="G39" s="37">
-        <f>F39-D39</f>
-        <v>-16170</v>
-      </c>
-      <c r="H39" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="23">
-        <v>18000</v>
-      </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L39" s="23">
-        <f>SUM(L40:L43)</f>
-        <v>11320</v>
-      </c>
-      <c r="M39" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="N39" s="23">
-        <f>SUM(N40:N43)</f>
-        <v>1720</v>
-      </c>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q39" s="23">
-        <f>G39*8</f>
-        <v>-129360</v>
-      </c>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
+      <c r="A39" s="18">
+        <v>1104</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I39" s="19">
+        <f>I41-I36</f>
+        <v>-19673</v>
+      </c>
+      <c r="J39" s="19" t="str">
+        <f>A37&amp;"31"</f>
+        <v>1131</v>
+      </c>
+      <c r="K39" s="19">
+        <f>SUMIF($K$2:$K$33,"&lt;="&amp;J39,$I$2:$I$33)-K37-K38</f>
+        <v>2325</v>
+      </c>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="C40" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D40" s="37">
-        <v>6000</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D40" s="37"/>
       <c r="E40" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="37">
-        <v>18500</v>
-      </c>
-      <c r="G40" s="37"/>
+        <v>244</v>
+      </c>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37" t="s">
+        <v>251</v>
+      </c>
       <c r="H40" s="23" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I40" s="23">
-        <v>18000</v>
+        <v>201910</v>
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="L40" s="23">
-        <v>1720</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="L40" s="23"/>
       <c r="M40" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="N40" s="23">
-        <v>13420</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N40" s="23"/>
       <c r="O40" s="23"/>
       <c r="P40" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
@@ -4292,171 +4333,191 @@
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="37" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D41" s="37">
-        <v>3720</v>
+        <f>SUM(D42:D45)</f>
+        <v>25170</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F41" s="37">
-        <v>-6000</v>
-      </c>
-      <c r="G41" s="37"/>
+        <f>SUM(F42:F45)</f>
+        <v>9000</v>
+      </c>
+      <c r="G41" s="37">
+        <f>F41-D41</f>
+        <v>-16170</v>
+      </c>
       <c r="H41" s="23" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="I41" s="23">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="23" t="s">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="L41" s="23">
-        <v>100</v>
+        <f>SUM(L42:L45)</f>
+        <v>11320</v>
       </c>
       <c r="M41" s="23" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="N41" s="23">
-        <v>-6000</v>
+        <f>SUM(N42:N45)</f>
+        <v>1720</v>
       </c>
       <c r="O41" s="23"/>
       <c r="P41" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="Q41" s="23">
-        <v>40000</v>
-      </c>
-      <c r="R41" s="23">
-        <v>23000</v>
-      </c>
-      <c r="S41" s="23" t="s">
-        <v>257</v>
-      </c>
+        <f>G41*8</f>
+        <v>-129360</v>
+      </c>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
       <c r="T41" s="23"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B42" s="37"/>
       <c r="C42" s="37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D42" s="37">
-        <v>13700</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="F42" s="42">
-        <v>-3000</v>
+        <v>6000</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="F42" s="37">
+        <v>18500</v>
       </c>
       <c r="G42" s="37"/>
       <c r="H42" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I42" s="23">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L42" s="23">
-        <v>3500</v>
+        <v>1720</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="N42" s="23">
-        <v>-5700</v>
+        <v>13420</v>
       </c>
       <c r="O42" s="23"/>
-      <c r="P42" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q42" s="23">
-        <v>-69000</v>
-      </c>
-      <c r="R42" s="23">
-        <v>-69000</v>
-      </c>
+      <c r="P42" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
       <c r="S42" s="23"/>
       <c r="T42" s="23"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="37" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="D43" s="37">
-        <v>1750</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="F43" s="42">
-        <v>-500</v>
+        <v>3720</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43" s="37">
+        <v>-6000</v>
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="23" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I43" s="23">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L43" s="23">
-        <v>6000</v>
-      </c>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="M43" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="N43" s="23">
+        <v>-6000</v>
+      </c>
       <c r="O43" s="23"/>
       <c r="P43" s="23" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q43" s="23">
-        <f>G39*6</f>
-        <v>-97020</v>
+        <v>40000</v>
       </c>
       <c r="R43" s="23">
-        <f>G39*6</f>
-        <v>-97020</v>
-      </c>
-      <c r="S43" s="23"/>
+        <v>23000</v>
+      </c>
+      <c r="S43" s="23" t="s">
+        <v>257</v>
+      </c>
       <c r="T43" s="23"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="37">
+        <v>13700</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44" s="42">
+        <v>-3000</v>
+      </c>
       <c r="G44" s="37"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
+      <c r="H44" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="I44" s="23">
+        <v>0</v>
+      </c>
       <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
+      <c r="K44" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L44" s="23">
+        <v>3500</v>
+      </c>
+      <c r="M44" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="N44" s="23">
+        <v>-5700</v>
+      </c>
       <c r="O44" s="23"/>
       <c r="P44" s="23" t="s">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="Q44" s="23">
-        <f>SUM(Q41:Q43)</f>
-        <v>-126020</v>
+        <v>-69000</v>
       </c>
       <c r="R44" s="23">
-        <f>SUM(R41:R43)</f>
-        <v>-143020</v>
+        <v>-69000</v>
       </c>
       <c r="S44" s="23"/>
       <c r="T44" s="23"/>
@@ -4464,58 +4525,58 @@
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
       <c r="C45" s="37" t="s">
-        <v>291</v>
+        <v>202</v>
       </c>
       <c r="D45" s="37">
-        <f>SUM(D46:D48)+D39</f>
-        <v>7901.2000000000007</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
+        <v>1750</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="F45" s="42">
+        <v>-500</v>
+      </c>
+      <c r="G45" s="37"/>
+      <c r="H45" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45" s="23">
+        <v>18000</v>
+      </c>
       <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
+      <c r="K45" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L45" s="23">
+        <v>6000</v>
+      </c>
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
       <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
+      <c r="P45" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q45" s="23">
+        <f>G41*6</f>
+        <v>-97020</v>
+      </c>
+      <c r="R45" s="23">
+        <f>G41*6</f>
+        <v>-97020</v>
+      </c>
       <c r="S45" s="23"/>
       <c r="T45" s="23"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="37"/>
-      <c r="C46" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="D46" s="37">
-        <f>F46-E46</f>
-        <v>-5622.4</v>
-      </c>
-      <c r="E46" s="37">
-        <v>7000</v>
-      </c>
-      <c r="F46" s="37">
-        <f>E46*12*G46</f>
-        <v>1377.6000000000001</v>
-      </c>
-      <c r="G46" s="37">
-        <f>820/50000</f>
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="B46" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="23"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
@@ -4523,35 +4584,39 @@
       <c r="M46" s="23"/>
       <c r="N46" s="23"/>
       <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
+      <c r="P46" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="23">
+        <f>SUM(Q43:Q45)</f>
+        <v>-126020</v>
+      </c>
+      <c r="R46" s="23">
+        <f>SUM(R43:R45)</f>
+        <v>-143020</v>
+      </c>
       <c r="S46" s="23"/>
       <c r="T46" s="23"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B47" s="37"/>
       <c r="C47" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D47" s="37">
-        <f>F47-E47</f>
-        <v>-4417.6000000000004</v>
-      </c>
-      <c r="E47" s="37">
-        <v>5500</v>
-      </c>
-      <c r="F47" s="37">
-        <f>E47*12*G47</f>
-        <v>1082.4000000000001</v>
-      </c>
-      <c r="G47" s="37">
-        <f>820/50000</f>
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>299</v>
-      </c>
+        <f>SUM(D48:D50)+D41</f>
+        <v>7901.2000000000007</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
@@ -4568,25 +4633,25 @@
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B48" s="37"/>
       <c r="C48" s="37" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D48" s="37">
         <f>F48-E48</f>
-        <v>-7228.8</v>
+        <v>-5622.4</v>
       </c>
       <c r="E48" s="37">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="F48" s="37">
         <f>E48*12*G48</f>
-        <v>1771.2</v>
+        <v>1377.6000000000001</v>
       </c>
       <c r="G48" s="37">
         <f>820/50000</f>
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
@@ -4601,197 +4666,255 @@
       <c r="S48" s="23"/>
       <c r="T48" s="23"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="43" t="s">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="37"/>
+      <c r="C49" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D49" s="37">
+        <f>F49-E49</f>
+        <v>-4417.6000000000004</v>
+      </c>
+      <c r="E49" s="37">
+        <v>5500</v>
+      </c>
+      <c r="F49" s="37">
+        <f>E49*12*G49</f>
+        <v>1082.4000000000001</v>
+      </c>
+      <c r="G49" s="37">
+        <f>820/50000</f>
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="37"/>
+      <c r="C50" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="D50" s="37">
+        <f>F50-E50</f>
+        <v>-7228.8</v>
+      </c>
+      <c r="E50" s="37">
+        <v>9000</v>
+      </c>
+      <c r="F50" s="37">
+        <f>E50*12*G50</f>
+        <v>1771.2</v>
+      </c>
+      <c r="G50" s="37">
+        <f>820/50000</f>
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="43" t="s">
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D54" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E54" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F54" s="16" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="16">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="16">
         <v>0</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C55" s="16">
         <v>50000</v>
       </c>
-      <c r="D53" s="44">
-        <f>C53*0.05</f>
+      <c r="D55" s="44">
+        <f>C55*0.05</f>
         <v>2500</v>
       </c>
-      <c r="E53" s="46"/>
-      <c r="F53" s="45">
-        <f>D53/C53+E53</f>
+      <c r="E55" s="46"/>
+      <c r="F55" s="45">
+        <f>D55/C55+E55</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="16">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="16">
         <v>1</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C56" s="16">
         <v>43749.999999999971</v>
       </c>
-      <c r="D54" s="44">
-        <f>C54*0.05</f>
+      <c r="D56" s="44">
+        <f>C56*0.05</f>
         <v>2187.4999999999986</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E56" s="46">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="F54" s="45">
-        <f>D54/C54/B54+E54</f>
+      <c r="F56" s="45">
+        <f>D56/C56/B56+E56</f>
         <v>0.126</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="16">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="16">
         <v>2</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C57" s="16">
         <v>37499.999999999942</v>
       </c>
-      <c r="D55" s="44">
-        <f t="shared" ref="D55:D57" si="24">C55*0.05</f>
+      <c r="D57" s="44">
+        <f t="shared" ref="D57:D59" si="36">C57*0.05</f>
         <v>1874.9999999999973</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E57" s="46">
         <v>0.09</v>
       </c>
-      <c r="F55" s="45">
-        <f t="shared" ref="F55:F57" si="25">D55/C55/B55+E55</f>
+      <c r="F57" s="45">
+        <f t="shared" ref="F57:F59" si="37">D57/C57/B57+E57</f>
         <v>0.11499999999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="16">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="16">
         <v>3</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C58" s="16">
         <v>31249.999999999924</v>
       </c>
-      <c r="D56" s="44">
-        <f t="shared" si="24"/>
+      <c r="D58" s="44">
+        <f t="shared" si="36"/>
         <v>1562.4999999999964</v>
       </c>
-      <c r="E56" s="46">
+      <c r="E58" s="46">
         <v>0.11</v>
       </c>
-      <c r="F56" s="45">
-        <f t="shared" si="25"/>
+      <c r="F58" s="45">
+        <f t="shared" si="37"/>
         <v>0.12666666666666668</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="16">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="16">
         <v>4</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C59" s="16">
         <v>24999.999999999938</v>
       </c>
-      <c r="D57" s="44">
-        <f t="shared" si="24"/>
+      <c r="D59" s="44">
+        <f t="shared" si="36"/>
         <v>1249.999999999997</v>
       </c>
-      <c r="E57" s="46">
+      <c r="E59" s="46">
         <v>0.126</v>
       </c>
-      <c r="F57" s="45">
-        <f t="shared" si="25"/>
+      <c r="F59" s="45">
+        <f t="shared" si="37"/>
         <v>0.13850000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="40" t="s">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="40" t="s">
         <v>282</v>
-      </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="40" t="s">
-        <v>286</v>
       </c>
       <c r="C60" s="40"/>
       <c r="D60" s="40"/>
       <c r="E60" s="40"/>
       <c r="F60" s="40"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B61" s="40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C61" s="40"/>
       <c r="D61" s="40"/>
       <c r="E61" s="40"/>
       <c r="F61" s="40"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B62" s="40" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
       <c r="F62" s="40"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="40" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="C63" s="40"/>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
       <c r="F63" s="40"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="40"/>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="40" t="s">
+        <v>308</v>
+      </c>
       <c r="C64" s="40"/>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="40"/>
+      <c r="B65" s="40" t="s">
+        <v>309</v>
+      </c>
       <c r="C65" s="40"/>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
@@ -4825,11 +4948,19 @@
       <c r="E69" s="40"/>
       <c r="F69" s="40"/>
     </row>
-    <row r="94" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T94" s="30"/>
-    </row>
-    <row r="95" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T95" s="30"/>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
     </row>
     <row r="96" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T96" s="30"/>
@@ -4858,19 +4989,11 @@
     <row r="104" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T104" s="30"/>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C154" s="26"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="25"/>
-      <c r="G154" s="26"/>
-    </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C155" s="26"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="26"/>
+    <row r="105" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T105" s="30"/>
+    </row>
+    <row r="106" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T106" s="30"/>
     </row>
     <row r="156" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C156" s="26"/>
@@ -5173,25 +5296,49 @@
       <c r="F198" s="25"/>
       <c r="G198" s="26"/>
     </row>
+    <row r="199" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C199" s="26"/>
+      <c r="D199" s="25"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="25"/>
+      <c r="G199" s="26"/>
+    </row>
+    <row r="200" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C200" s="26"/>
+      <c r="D200" s="25"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="25"/>
+      <c r="G200" s="26"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K30:K31 K2:K4 K6:K16 K18:K28">
+  <conditionalFormatting sqref="K32:K33 K2:K4 K6:K16 K18:K27 K30">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>$A$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+      <formula>$A$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>$A$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+  <conditionalFormatting sqref="K17">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>$A$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
+  <conditionalFormatting sqref="K28">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>$A$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="K29">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>$A$7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5209,7 +5356,7 @@
   <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5217,7 +5364,7 @@
     <col min="1" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="42.88671875" customWidth="1"/>
     <col min="18" max="18" width="47" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5244,7 +5391,7 @@
         <v>272</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I1" s="51" t="s">
         <v>304</v>
@@ -5305,7 +5452,7 @@
         <v>50000</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I2" s="51">
         <f>L2+M2</f>
@@ -5338,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="43.2" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>20191101</v>
       </c>
@@ -5362,43 +5509,45 @@
         <f t="shared" ref="F3:F26" si="0">C3+D3+E3</f>
         <v>-34365</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="16">
+        <v>10000</v>
+      </c>
       <c r="H3" s="20" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I3" s="51">
         <f t="shared" ref="I3:I26" si="1">L3+M3</f>
-        <v>-3861</v>
+        <v>1139</v>
       </c>
       <c r="J3" s="51">
         <f t="shared" ref="J3:J26" si="2">N3+O3</f>
-        <v>-2300</v>
+        <v>2220</v>
       </c>
       <c r="K3" s="51">
         <f t="shared" ref="K3:K26" si="3">P3+Q3</f>
-        <v>-652</v>
+        <v>348</v>
       </c>
       <c r="L3" s="40">
-        <v>2189</v>
+        <v>7189</v>
       </c>
       <c r="M3" s="40">
         <v>-6050</v>
       </c>
       <c r="N3" s="16">
-        <v>14270</v>
+        <v>15590</v>
       </c>
       <c r="O3" s="16">
-        <v>-16570</v>
+        <v>-13370</v>
       </c>
       <c r="P3" s="52">
-        <v>3748</v>
+        <v>4748</v>
       </c>
       <c r="Q3" s="52">
         <v>-4400</v>
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="72" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>20191111</v>
       </c>
@@ -5420,7 +5569,9 @@
         <v>17435</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="19"/>
+      <c r="H4" s="20" t="s">
+        <v>494</v>
+      </c>
       <c r="I4" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6244,7 +6395,7 @@
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I23" s="51">
         <f t="shared" si="1"/>
@@ -6474,8 +6625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62277A40-9AE4-4D47-AAD9-E5FA7DB52180}">
   <dimension ref="A1:J153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112:G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6489,28 +6640,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="E1" s="53" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="F1" s="53" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="G1" s="53" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="53" t="s">
-        <v>413</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>414</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>415</v>
-      </c>
       <c r="I1" s="54" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J1" s="1">
         <f>SUM(H:H)</f>
@@ -6528,16 +6679,16 @@
         <v>43753</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H2" s="24">
         <f t="shared" ref="H2:H65" si="0">-LOOKUP(,-MIDB(G2,SEARCHB("?",G2),ROW($1:$15)))</f>
@@ -6555,16 +6706,16 @@
         <v>43754</v>
       </c>
       <c r="D3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" t="s">
         <v>321</v>
-      </c>
-      <c r="E3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G3" t="s">
-        <v>324</v>
       </c>
       <c r="H3" s="24">
         <f t="shared" si="0"/>
@@ -6582,16 +6733,16 @@
         <v>43754</v>
       </c>
       <c r="D4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" t="s">
         <v>317</v>
-      </c>
-      <c r="E4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G4" t="s">
-        <v>320</v>
       </c>
       <c r="H4" s="24">
         <f t="shared" si="0"/>
@@ -6609,16 +6760,16 @@
         <v>43754</v>
       </c>
       <c r="D5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H5" s="24">
         <f t="shared" si="0"/>
@@ -6636,16 +6787,16 @@
         <v>43754</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" t="s">
         <v>325</v>
       </c>
-      <c r="F6" t="s">
-        <v>328</v>
-      </c>
       <c r="G6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H6" s="24">
         <f t="shared" si="0"/>
@@ -6663,16 +6814,16 @@
         <v>43754</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H7" s="24">
         <f t="shared" si="0"/>
@@ -6690,16 +6841,16 @@
         <v>43754</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F8" t="s">
         <v>330</v>
       </c>
-      <c r="F8" t="s">
-        <v>333</v>
-      </c>
       <c r="G8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H8" s="24">
         <f t="shared" si="0"/>
@@ -6717,16 +6868,16 @@
         <v>43754</v>
       </c>
       <c r="D9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" t="s">
         <v>321</v>
-      </c>
-      <c r="E9" t="s">
-        <v>335</v>
-      </c>
-      <c r="F9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G9" t="s">
-        <v>324</v>
       </c>
       <c r="H9" s="24">
         <f t="shared" si="0"/>
@@ -6744,16 +6895,16 @@
         <v>43754</v>
       </c>
       <c r="D10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" t="s">
         <v>317</v>
-      </c>
-      <c r="E10" t="s">
-        <v>335</v>
-      </c>
-      <c r="F10" t="s">
-        <v>319</v>
-      </c>
-      <c r="G10" t="s">
-        <v>320</v>
       </c>
       <c r="H10" s="24">
         <f t="shared" si="0"/>
@@ -6771,16 +6922,16 @@
         <v>43754</v>
       </c>
       <c r="D11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" t="s">
         <v>321</v>
-      </c>
-      <c r="E11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F11" t="s">
-        <v>323</v>
-      </c>
-      <c r="G11" t="s">
-        <v>324</v>
       </c>
       <c r="H11" s="24">
         <f t="shared" si="0"/>
@@ -6798,16 +6949,16 @@
         <v>43754</v>
       </c>
       <c r="D12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" t="s">
+        <v>333</v>
+      </c>
+      <c r="F12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" t="s">
         <v>317</v>
-      </c>
-      <c r="E12" t="s">
-        <v>336</v>
-      </c>
-      <c r="F12" t="s">
-        <v>319</v>
-      </c>
-      <c r="G12" t="s">
-        <v>320</v>
       </c>
       <c r="H12" s="24">
         <f t="shared" si="0"/>
@@ -6825,16 +6976,16 @@
         <v>43755</v>
       </c>
       <c r="D13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F13" t="s">
+        <v>336</v>
+      </c>
+      <c r="G13" t="s">
         <v>337</v>
-      </c>
-      <c r="E13" t="s">
-        <v>338</v>
-      </c>
-      <c r="F13" t="s">
-        <v>339</v>
-      </c>
-      <c r="G13" t="s">
-        <v>340</v>
       </c>
       <c r="H13" s="24">
         <f t="shared" si="0"/>
@@ -6852,16 +7003,16 @@
         <v>43753</v>
       </c>
       <c r="D14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H14" s="24">
         <f t="shared" si="0"/>
@@ -6879,16 +7030,16 @@
         <v>43753</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H15" s="24">
         <f t="shared" si="0"/>
@@ -6906,16 +7057,16 @@
         <v>43753</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E16" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H16" s="24">
         <f t="shared" si="0"/>
@@ -6933,16 +7084,16 @@
         <v>43753</v>
       </c>
       <c r="D17" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E17" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H17" s="24">
         <f t="shared" si="0"/>
@@ -6960,16 +7111,16 @@
         <v>43753</v>
       </c>
       <c r="D18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G18" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H18" s="24">
         <f t="shared" si="0"/>
@@ -6987,16 +7138,16 @@
         <v>43753</v>
       </c>
       <c r="D19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G19" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H19" s="24">
         <f t="shared" si="0"/>
@@ -7014,16 +7165,16 @@
         <v>43753</v>
       </c>
       <c r="D20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G20" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H20" s="24">
         <f t="shared" si="0"/>
@@ -7041,16 +7192,16 @@
         <v>43753</v>
       </c>
       <c r="D21" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H21" s="24">
         <f t="shared" si="0"/>
@@ -7068,16 +7219,16 @@
         <v>43753</v>
       </c>
       <c r="D22" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22" t="s">
+        <v>315</v>
+      </c>
+      <c r="F22" t="s">
+        <v>316</v>
+      </c>
+      <c r="G22" t="s">
         <v>317</v>
-      </c>
-      <c r="E22" t="s">
-        <v>318</v>
-      </c>
-      <c r="F22" t="s">
-        <v>319</v>
-      </c>
-      <c r="G22" t="s">
-        <v>320</v>
       </c>
       <c r="H22" s="24">
         <f t="shared" si="0"/>
@@ -7095,16 +7246,16 @@
         <v>43753</v>
       </c>
       <c r="D23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E23" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F23" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G23" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H23" s="24">
         <f t="shared" si="0"/>
@@ -7122,16 +7273,16 @@
         <v>43753</v>
       </c>
       <c r="D24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" t="s">
+        <v>316</v>
+      </c>
+      <c r="G24" t="s">
         <v>317</v>
-      </c>
-      <c r="E24" t="s">
-        <v>355</v>
-      </c>
-      <c r="F24" t="s">
-        <v>319</v>
-      </c>
-      <c r="G24" t="s">
-        <v>320</v>
       </c>
       <c r="H24" s="24">
         <f t="shared" si="0"/>
@@ -7149,16 +7300,16 @@
         <v>43753</v>
       </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E25" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H25" s="24">
         <f t="shared" si="0"/>
@@ -7176,16 +7327,16 @@
         <v>43753</v>
       </c>
       <c r="D26" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E26" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F26" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G26" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H26" s="24">
         <f t="shared" si="0"/>
@@ -7203,16 +7354,16 @@
         <v>43753</v>
       </c>
       <c r="D27" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E27" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F27" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G27" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H27" s="24">
         <f t="shared" si="0"/>
@@ -7230,16 +7381,16 @@
         <v>43753</v>
       </c>
       <c r="D28" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E28" t="s">
+        <v>359</v>
+      </c>
+      <c r="F28" t="s">
         <v>362</v>
       </c>
-      <c r="F28" t="s">
-        <v>365</v>
-      </c>
       <c r="G28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H28" s="24">
         <f t="shared" si="0"/>
@@ -7257,16 +7408,16 @@
         <v>43753</v>
       </c>
       <c r="D29" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H29" s="24">
         <f t="shared" si="0"/>
@@ -7284,16 +7435,16 @@
         <v>43753</v>
       </c>
       <c r="D30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E30" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F30" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H30" s="24">
         <f t="shared" si="0"/>
@@ -7311,16 +7462,16 @@
         <v>43753</v>
       </c>
       <c r="D31" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E31" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F31" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G31" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H31" s="24">
         <f t="shared" si="0"/>
@@ -7338,16 +7489,16 @@
         <v>43753</v>
       </c>
       <c r="D32" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" t="s">
+        <v>344</v>
+      </c>
+      <c r="F32" t="s">
+        <v>316</v>
+      </c>
+      <c r="G32" t="s">
         <v>317</v>
-      </c>
-      <c r="E32" t="s">
-        <v>347</v>
-      </c>
-      <c r="F32" t="s">
-        <v>319</v>
-      </c>
-      <c r="G32" t="s">
-        <v>320</v>
       </c>
       <c r="H32" s="24">
         <f t="shared" si="0"/>
@@ -7365,16 +7516,16 @@
         <v>43753</v>
       </c>
       <c r="D33" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F33" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G33" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H33" s="24">
         <f t="shared" si="0"/>
@@ -7392,16 +7543,16 @@
         <v>43750</v>
       </c>
       <c r="D34" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E34" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F34" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G34" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H34" s="24">
         <f t="shared" si="0"/>
@@ -7419,16 +7570,16 @@
         <v>43751</v>
       </c>
       <c r="D35" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E35" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F35" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G35" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H35" s="24">
         <f t="shared" si="0"/>
@@ -7446,16 +7597,16 @@
         <v>43751</v>
       </c>
       <c r="D36" t="s">
+        <v>314</v>
+      </c>
+      <c r="E36" t="s">
+        <v>375</v>
+      </c>
+      <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" t="s">
         <v>317</v>
-      </c>
-      <c r="E36" t="s">
-        <v>378</v>
-      </c>
-      <c r="F36" t="s">
-        <v>319</v>
-      </c>
-      <c r="G36" t="s">
-        <v>320</v>
       </c>
       <c r="H36" s="24">
         <f t="shared" si="0"/>
@@ -7473,16 +7624,16 @@
         <v>43751</v>
       </c>
       <c r="D37" t="s">
+        <v>318</v>
+      </c>
+      <c r="E37" t="s">
+        <v>375</v>
+      </c>
+      <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" t="s">
         <v>321</v>
-      </c>
-      <c r="E37" t="s">
-        <v>378</v>
-      </c>
-      <c r="F37" t="s">
-        <v>323</v>
-      </c>
-      <c r="G37" t="s">
-        <v>324</v>
       </c>
       <c r="H37" s="24">
         <f t="shared" si="0"/>
@@ -7500,16 +7651,16 @@
         <v>43751</v>
       </c>
       <c r="D38" t="s">
+        <v>314</v>
+      </c>
+      <c r="E38" t="s">
+        <v>375</v>
+      </c>
+      <c r="F38" t="s">
+        <v>316</v>
+      </c>
+      <c r="G38" t="s">
         <v>317</v>
-      </c>
-      <c r="E38" t="s">
-        <v>378</v>
-      </c>
-      <c r="F38" t="s">
-        <v>319</v>
-      </c>
-      <c r="G38" t="s">
-        <v>320</v>
       </c>
       <c r="H38" s="24">
         <f t="shared" si="0"/>
@@ -7527,16 +7678,16 @@
         <v>43751</v>
       </c>
       <c r="D39" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E39" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F39" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G39" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H39" s="24">
         <f t="shared" si="0"/>
@@ -7554,16 +7705,16 @@
         <v>43751</v>
       </c>
       <c r="D40" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E40" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F40" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G40" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H40" s="24">
         <f t="shared" si="0"/>
@@ -7581,16 +7732,16 @@
         <v>43752</v>
       </c>
       <c r="D41" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E41" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F41" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G41" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H41" s="24">
         <f t="shared" si="0"/>
@@ -7608,16 +7759,16 @@
         <v>43752</v>
       </c>
       <c r="D42" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E42" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F42" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G42" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H42" s="24">
         <f t="shared" si="0"/>
@@ -7635,16 +7786,16 @@
         <v>43752</v>
       </c>
       <c r="D43" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E43" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F43" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G43" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H43" s="24">
         <f t="shared" si="0"/>
@@ -7662,16 +7813,16 @@
         <v>43752</v>
       </c>
       <c r="D44" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E44" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F44" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G44" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H44" s="24">
         <f t="shared" si="0"/>
@@ -7689,16 +7840,16 @@
         <v>43752</v>
       </c>
       <c r="D45" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E45" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F45" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G45" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H45" s="24">
         <f t="shared" si="0"/>
@@ -7716,16 +7867,16 @@
         <v>43752</v>
       </c>
       <c r="D46" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E46" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F46" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G46" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H46" s="24">
         <f t="shared" si="0"/>
@@ -7743,16 +7894,16 @@
         <v>43752</v>
       </c>
       <c r="D47" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E47" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F47" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G47" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H47" s="24">
         <f t="shared" si="0"/>
@@ -7770,16 +7921,16 @@
         <v>43752</v>
       </c>
       <c r="D48" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E48" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G48" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H48" s="24">
         <f t="shared" si="0"/>
@@ -7797,16 +7948,16 @@
         <v>43752</v>
       </c>
       <c r="D49" t="s">
+        <v>318</v>
+      </c>
+      <c r="E49" t="s">
+        <v>391</v>
+      </c>
+      <c r="F49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" t="s">
         <v>321</v>
-      </c>
-      <c r="E49" t="s">
-        <v>394</v>
-      </c>
-      <c r="F49" t="s">
-        <v>323</v>
-      </c>
-      <c r="G49" t="s">
-        <v>324</v>
       </c>
       <c r="H49" s="24">
         <f t="shared" si="0"/>
@@ -7824,16 +7975,16 @@
         <v>43752</v>
       </c>
       <c r="D50" t="s">
+        <v>314</v>
+      </c>
+      <c r="E50" t="s">
+        <v>391</v>
+      </c>
+      <c r="F50" t="s">
+        <v>316</v>
+      </c>
+      <c r="G50" t="s">
         <v>317</v>
-      </c>
-      <c r="E50" t="s">
-        <v>394</v>
-      </c>
-      <c r="F50" t="s">
-        <v>319</v>
-      </c>
-      <c r="G50" t="s">
-        <v>320</v>
       </c>
       <c r="H50" s="24">
         <f t="shared" si="0"/>
@@ -7851,16 +8002,16 @@
         <v>43752</v>
       </c>
       <c r="D51" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E51" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F51" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G51" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H51" s="24">
         <f t="shared" si="0"/>
@@ -7878,16 +8029,16 @@
         <v>43752</v>
       </c>
       <c r="D52" t="s">
+        <v>314</v>
+      </c>
+      <c r="E52" t="s">
+        <v>392</v>
+      </c>
+      <c r="F52" t="s">
+        <v>316</v>
+      </c>
+      <c r="G52" t="s">
         <v>317</v>
-      </c>
-      <c r="E52" t="s">
-        <v>395</v>
-      </c>
-      <c r="F52" t="s">
-        <v>319</v>
-      </c>
-      <c r="G52" t="s">
-        <v>320</v>
       </c>
       <c r="H52" s="24">
         <f t="shared" si="0"/>
@@ -7905,16 +8056,16 @@
         <v>43753</v>
       </c>
       <c r="D53" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E53" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F53" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G53" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H53" s="24">
         <f t="shared" si="0"/>
@@ -7932,16 +8083,16 @@
         <v>43743</v>
       </c>
       <c r="D54" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E54" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F54" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G54" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H54" s="24">
         <f t="shared" si="0"/>
@@ -7959,16 +8110,16 @@
         <v>43743</v>
       </c>
       <c r="D55" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E55" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F55" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G55" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H55" s="24">
         <f t="shared" si="0"/>
@@ -7986,16 +8137,16 @@
         <v>43743</v>
       </c>
       <c r="D56" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E56" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F56" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G56" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H56" s="24">
         <f t="shared" si="0"/>
@@ -8013,16 +8164,16 @@
         <v>43743</v>
       </c>
       <c r="D57" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E57" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F57" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G57" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H57" s="24">
         <f t="shared" si="0"/>
@@ -8040,16 +8191,16 @@
         <v>43744</v>
       </c>
       <c r="D58" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E58" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F58" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G58" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H58" s="24">
         <f t="shared" si="0"/>
@@ -8067,16 +8218,16 @@
         <v>43744</v>
       </c>
       <c r="D59" t="s">
+        <v>314</v>
+      </c>
+      <c r="E59" t="s">
+        <v>397</v>
+      </c>
+      <c r="F59" t="s">
+        <v>316</v>
+      </c>
+      <c r="G59" t="s">
         <v>317</v>
-      </c>
-      <c r="E59" t="s">
-        <v>400</v>
-      </c>
-      <c r="F59" t="s">
-        <v>319</v>
-      </c>
-      <c r="G59" t="s">
-        <v>320</v>
       </c>
       <c r="H59" s="24">
         <f t="shared" si="0"/>
@@ -8094,16 +8245,16 @@
         <v>43744</v>
       </c>
       <c r="D60" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E60" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F60" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G60" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H60" s="24">
         <f t="shared" si="0"/>
@@ -8121,16 +8272,16 @@
         <v>43744</v>
       </c>
       <c r="D61" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E61" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G61" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H61" s="24">
         <f t="shared" si="0"/>
@@ -8148,16 +8299,16 @@
         <v>43745</v>
       </c>
       <c r="D62" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E62" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F62" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G62" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H62" s="24">
         <f t="shared" si="0"/>
@@ -8175,16 +8326,16 @@
         <v>43745</v>
       </c>
       <c r="D63" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E63" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F63" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G63" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H63" s="24">
         <f t="shared" si="0"/>
@@ -8202,16 +8353,16 @@
         <v>43746</v>
       </c>
       <c r="D64" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E64" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F64" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G64" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H64" s="24">
         <f t="shared" si="0"/>
@@ -8229,16 +8380,16 @@
         <v>43746</v>
       </c>
       <c r="D65" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E65" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F65" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G65" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H65" s="24">
         <f t="shared" si="0"/>
@@ -8256,16 +8407,16 @@
         <v>43746</v>
       </c>
       <c r="D66" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E66" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F66" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G66" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H66" s="24">
         <f t="shared" ref="H66:H129" si="1">-LOOKUP(,-MIDB(G66,SEARCHB("?",G66),ROW($1:$15)))</f>
@@ -8283,16 +8434,16 @@
         <v>43746</v>
       </c>
       <c r="D67" t="s">
+        <v>314</v>
+      </c>
+      <c r="E67" t="s">
+        <v>322</v>
+      </c>
+      <c r="F67" t="s">
+        <v>316</v>
+      </c>
+      <c r="G67" t="s">
         <v>317</v>
-      </c>
-      <c r="E67" t="s">
-        <v>325</v>
-      </c>
-      <c r="F67" t="s">
-        <v>319</v>
-      </c>
-      <c r="G67" t="s">
-        <v>320</v>
       </c>
       <c r="H67" s="24">
         <f t="shared" si="1"/>
@@ -8310,16 +8461,16 @@
         <v>43748</v>
       </c>
       <c r="D68" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E68" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F68" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G68" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H68" s="24">
         <f t="shared" si="1"/>
@@ -8337,16 +8488,16 @@
         <v>43748</v>
       </c>
       <c r="D69" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E69" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F69" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G69" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H69" s="24">
         <f t="shared" si="1"/>
@@ -8369,16 +8520,16 @@
         <v>43749</v>
       </c>
       <c r="D71" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E71" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F71" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G71" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H71" s="24">
         <f t="shared" si="1"/>
@@ -8396,16 +8547,16 @@
         <v>43749</v>
       </c>
       <c r="D72" t="s">
+        <v>314</v>
+      </c>
+      <c r="E72" t="s">
+        <v>404</v>
+      </c>
+      <c r="F72" t="s">
+        <v>316</v>
+      </c>
+      <c r="G72" t="s">
         <v>317</v>
-      </c>
-      <c r="E72" t="s">
-        <v>407</v>
-      </c>
-      <c r="F72" t="s">
-        <v>319</v>
-      </c>
-      <c r="G72" t="s">
-        <v>320</v>
       </c>
       <c r="H72" s="24">
         <f t="shared" si="1"/>
@@ -8423,16 +8574,16 @@
         <v>43750</v>
       </c>
       <c r="D73" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E73" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F73" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G73" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H73" s="24">
         <f t="shared" si="1"/>
@@ -8450,16 +8601,16 @@
         <v>43742</v>
       </c>
       <c r="D74" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E74" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F74" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G74" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H74" s="24">
         <f t="shared" si="1"/>
@@ -8477,16 +8628,16 @@
         <v>43742</v>
       </c>
       <c r="D75" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E75" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F75" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G75" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H75" s="24">
         <f t="shared" si="1"/>
@@ -8504,16 +8655,16 @@
         <v>43742</v>
       </c>
       <c r="D76" t="s">
+        <v>318</v>
+      </c>
+      <c r="E76" t="s">
+        <v>416</v>
+      </c>
+      <c r="F76" t="s">
+        <v>320</v>
+      </c>
+      <c r="G76" t="s">
         <v>321</v>
-      </c>
-      <c r="E76" t="s">
-        <v>419</v>
-      </c>
-      <c r="F76" t="s">
-        <v>323</v>
-      </c>
-      <c r="G76" t="s">
-        <v>324</v>
       </c>
       <c r="H76" s="24">
         <f t="shared" si="1"/>
@@ -8531,16 +8682,16 @@
         <v>43742</v>
       </c>
       <c r="D77" t="s">
+        <v>314</v>
+      </c>
+      <c r="E77" t="s">
+        <v>416</v>
+      </c>
+      <c r="F77" t="s">
+        <v>316</v>
+      </c>
+      <c r="G77" t="s">
         <v>317</v>
-      </c>
-      <c r="E77" t="s">
-        <v>419</v>
-      </c>
-      <c r="F77" t="s">
-        <v>319</v>
-      </c>
-      <c r="G77" t="s">
-        <v>320</v>
       </c>
       <c r="H77" s="24">
         <f t="shared" si="1"/>
@@ -8558,16 +8709,16 @@
         <v>43742</v>
       </c>
       <c r="D78" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E78" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F78" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G78" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H78" s="24">
         <f t="shared" si="1"/>
@@ -8585,16 +8736,16 @@
         <v>43742</v>
       </c>
       <c r="D79" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E79" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F79" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G79" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H79" s="24">
         <f t="shared" si="1"/>
@@ -8612,16 +8763,16 @@
         <v>43742</v>
       </c>
       <c r="D80" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E80" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F80" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G80" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H80" s="24">
         <f t="shared" si="1"/>
@@ -8639,16 +8790,16 @@
         <v>43742</v>
       </c>
       <c r="D81" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E81" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F81" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G81" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H81" s="24">
         <f t="shared" si="1"/>
@@ -8666,16 +8817,16 @@
         <v>43742</v>
       </c>
       <c r="D82" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E82" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F82" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G82" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H82" s="24">
         <f t="shared" si="1"/>
@@ -8693,16 +8844,16 @@
         <v>43742</v>
       </c>
       <c r="D83" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E83" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F83" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G83" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H83" s="24">
         <f t="shared" si="1"/>
@@ -8720,16 +8871,16 @@
         <v>43742</v>
       </c>
       <c r="D84" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E84" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F84" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G84" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H84" s="24">
         <f t="shared" si="1"/>
@@ -8747,16 +8898,16 @@
         <v>43742</v>
       </c>
       <c r="D85" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E85" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F85" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G85" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H85" s="24">
         <f t="shared" si="1"/>
@@ -8774,16 +8925,16 @@
         <v>43742</v>
       </c>
       <c r="D86" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E86" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F86" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G86" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H86" s="24">
         <f t="shared" si="1"/>
@@ -8801,16 +8952,16 @@
         <v>43742</v>
       </c>
       <c r="D87" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E87" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F87" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G87" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H87" s="24">
         <f t="shared" si="1"/>
@@ -8828,16 +8979,16 @@
         <v>43743</v>
       </c>
       <c r="D88" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E88" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F88" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G88" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H88" s="24">
         <f t="shared" si="1"/>
@@ -8855,16 +9006,16 @@
         <v>43743</v>
       </c>
       <c r="D89" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E89" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F89" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G89" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H89" s="24">
         <f t="shared" si="1"/>
@@ -8882,16 +9033,16 @@
         <v>43743</v>
       </c>
       <c r="D90" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E90" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F90" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G90" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H90" s="24">
         <f t="shared" si="1"/>
@@ -8909,16 +9060,16 @@
         <v>43743</v>
       </c>
       <c r="D91" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E91" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F91" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G91" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H91" s="24">
         <f t="shared" si="1"/>
@@ -8936,16 +9087,16 @@
         <v>43743</v>
       </c>
       <c r="D92" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E92" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F92" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G92" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H92" s="24">
         <f t="shared" si="1"/>
@@ -8963,16 +9114,16 @@
         <v>43743</v>
       </c>
       <c r="D93" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E93" t="s">
+        <v>431</v>
+      </c>
+      <c r="F93" t="s">
+        <v>362</v>
+      </c>
+      <c r="G93" t="s">
         <v>434</v>
-      </c>
-      <c r="F93" t="s">
-        <v>365</v>
-      </c>
-      <c r="G93" t="s">
-        <v>437</v>
       </c>
       <c r="H93" s="24">
         <f t="shared" si="1"/>
@@ -8990,16 +9141,16 @@
         <v>43738</v>
       </c>
       <c r="D94" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E94" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F94" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G94" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H94" s="24">
         <f t="shared" si="1"/>
@@ -9017,16 +9168,16 @@
         <v>43738</v>
       </c>
       <c r="D95" t="s">
+        <v>314</v>
+      </c>
+      <c r="E95" t="s">
+        <v>435</v>
+      </c>
+      <c r="F95" t="s">
+        <v>316</v>
+      </c>
+      <c r="G95" t="s">
         <v>317</v>
-      </c>
-      <c r="E95" t="s">
-        <v>438</v>
-      </c>
-      <c r="F95" t="s">
-        <v>319</v>
-      </c>
-      <c r="G95" t="s">
-        <v>320</v>
       </c>
       <c r="H95" s="24">
         <f t="shared" si="1"/>
@@ -9044,16 +9195,16 @@
         <v>43738</v>
       </c>
       <c r="D96" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E96" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F96" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G96" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H96" s="24">
         <f t="shared" si="1"/>
@@ -9071,16 +9222,16 @@
         <v>43738</v>
       </c>
       <c r="D97" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E97" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F97" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G97" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H97" s="24">
         <f t="shared" si="1"/>
@@ -9098,16 +9249,16 @@
         <v>43738</v>
       </c>
       <c r="D98" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E98" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F98" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G98" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H98" s="24">
         <f t="shared" si="1"/>
@@ -9125,16 +9276,16 @@
         <v>43738</v>
       </c>
       <c r="D99" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E99" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F99" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G99" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H99" s="24">
         <f t="shared" si="1"/>
@@ -9152,16 +9303,16 @@
         <v>43738</v>
       </c>
       <c r="D100" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E100" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F100" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G100" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H100" s="24">
         <f t="shared" si="1"/>
@@ -9179,16 +9330,16 @@
         <v>43738</v>
       </c>
       <c r="D101" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E101" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F101" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G101" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H101" s="24">
         <f t="shared" si="1"/>
@@ -9206,16 +9357,16 @@
         <v>43738</v>
       </c>
       <c r="D102" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E102" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F102" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G102" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H102" s="24">
         <f t="shared" si="1"/>
@@ -9233,16 +9384,16 @@
         <v>43738</v>
       </c>
       <c r="D103" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E103" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F103" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G103" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H103" s="24">
         <f t="shared" si="1"/>
@@ -9260,16 +9411,16 @@
         <v>43741</v>
       </c>
       <c r="D104" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E104" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F104" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G104" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H104" s="24">
         <f t="shared" si="1"/>
@@ -9287,16 +9438,16 @@
         <v>43741</v>
       </c>
       <c r="D105" t="s">
+        <v>314</v>
+      </c>
+      <c r="E105" t="s">
+        <v>390</v>
+      </c>
+      <c r="F105" t="s">
+        <v>316</v>
+      </c>
+      <c r="G105" t="s">
         <v>317</v>
-      </c>
-      <c r="E105" t="s">
-        <v>393</v>
-      </c>
-      <c r="F105" t="s">
-        <v>319</v>
-      </c>
-      <c r="G105" t="s">
-        <v>320</v>
       </c>
       <c r="H105" s="24">
         <f t="shared" si="1"/>
@@ -9314,16 +9465,16 @@
         <v>43741</v>
       </c>
       <c r="D106" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E106" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F106" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G106" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H106" s="24">
         <f t="shared" si="1"/>
@@ -9341,16 +9492,16 @@
         <v>43741</v>
       </c>
       <c r="D107" t="s">
+        <v>314</v>
+      </c>
+      <c r="E107" t="s">
+        <v>444</v>
+      </c>
+      <c r="F107" t="s">
+        <v>316</v>
+      </c>
+      <c r="G107" t="s">
         <v>317</v>
-      </c>
-      <c r="E107" t="s">
-        <v>447</v>
-      </c>
-      <c r="F107" t="s">
-        <v>319</v>
-      </c>
-      <c r="G107" t="s">
-        <v>320</v>
       </c>
       <c r="H107" s="24">
         <f t="shared" si="1"/>
@@ -9368,16 +9519,16 @@
         <v>43741</v>
       </c>
       <c r="D108" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E108" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F108" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G108" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H108" s="24">
         <f t="shared" si="1"/>
@@ -9395,16 +9546,16 @@
         <v>43741</v>
       </c>
       <c r="D109" t="s">
+        <v>314</v>
+      </c>
+      <c r="E109" t="s">
+        <v>445</v>
+      </c>
+      <c r="F109" t="s">
+        <v>316</v>
+      </c>
+      <c r="G109" t="s">
         <v>317</v>
-      </c>
-      <c r="E109" t="s">
-        <v>448</v>
-      </c>
-      <c r="F109" t="s">
-        <v>319</v>
-      </c>
-      <c r="G109" t="s">
-        <v>320</v>
       </c>
       <c r="H109" s="24">
         <f t="shared" si="1"/>
@@ -9422,16 +9573,16 @@
         <v>43741</v>
       </c>
       <c r="D110" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E110" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F110" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G110" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H110" s="24">
         <f t="shared" si="1"/>
@@ -9449,16 +9600,16 @@
         <v>43741</v>
       </c>
       <c r="D111" t="s">
+        <v>314</v>
+      </c>
+      <c r="E111" t="s">
+        <v>446</v>
+      </c>
+      <c r="F111" t="s">
+        <v>316</v>
+      </c>
+      <c r="G111" t="s">
         <v>317</v>
-      </c>
-      <c r="E111" t="s">
-        <v>449</v>
-      </c>
-      <c r="F111" t="s">
-        <v>319</v>
-      </c>
-      <c r="G111" t="s">
-        <v>320</v>
       </c>
       <c r="H111" s="24">
         <f t="shared" si="1"/>
@@ -9476,18 +9627,18 @@
         <v>43742</v>
       </c>
       <c r="D112" t="s">
-        <v>321</v>
-      </c>
-      <c r="E112" t="s">
-        <v>450</v>
-      </c>
-      <c r="F112" t="s">
-        <v>451</v>
-      </c>
-      <c r="G112" t="s">
-        <v>452</v>
-      </c>
-      <c r="H112" s="24">
+        <v>318</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H112" s="55">
         <f t="shared" si="1"/>
         <v>651</v>
       </c>
@@ -9503,18 +9654,18 @@
         <v>43742</v>
       </c>
       <c r="D113" t="s">
-        <v>317</v>
-      </c>
-      <c r="E113" t="s">
+        <v>314</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F113" t="s">
-        <v>453</v>
-      </c>
-      <c r="G113" t="s">
-        <v>454</v>
-      </c>
-      <c r="H113" s="24">
+      <c r="G113" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H113" s="55">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
@@ -9530,16 +9681,16 @@
         <v>43733</v>
       </c>
       <c r="D114" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E114" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F114" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G114" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H114" s="24">
         <f t="shared" si="1"/>
@@ -9557,16 +9708,16 @@
         <v>43733</v>
       </c>
       <c r="D115" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E115" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F115" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G115" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H115" s="24">
         <f t="shared" si="1"/>
@@ -9584,16 +9735,16 @@
         <v>43734</v>
       </c>
       <c r="D116" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E116" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F116" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G116" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H116" s="24">
         <f t="shared" si="1"/>
@@ -9611,16 +9762,16 @@
         <v>43734</v>
       </c>
       <c r="D117" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E117" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F117" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G117" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H117" s="24">
         <f t="shared" si="1"/>
@@ -9638,16 +9789,16 @@
         <v>43734</v>
       </c>
       <c r="D118" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E118" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F118" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G118" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H118" s="24">
         <f t="shared" si="1"/>
@@ -9665,16 +9816,16 @@
         <v>43734</v>
       </c>
       <c r="D119" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E119" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F119" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G119" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H119" s="24">
         <f t="shared" si="1"/>
@@ -9692,16 +9843,16 @@
         <v>43735</v>
       </c>
       <c r="D120" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E120" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F120" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G120" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H120" s="24">
         <f t="shared" si="1"/>
@@ -9719,16 +9870,16 @@
         <v>43735</v>
       </c>
       <c r="D121" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E121" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F121" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G121" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H121" s="24">
         <f t="shared" si="1"/>
@@ -9746,16 +9897,16 @@
         <v>43735</v>
       </c>
       <c r="D122" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E122" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F122" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G122" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H122" s="24">
         <f t="shared" si="1"/>
@@ -9773,16 +9924,16 @@
         <v>43735</v>
       </c>
       <c r="D123" t="s">
+        <v>314</v>
+      </c>
+      <c r="E123" t="s">
+        <v>456</v>
+      </c>
+      <c r="F123" t="s">
+        <v>316</v>
+      </c>
+      <c r="G123" t="s">
         <v>317</v>
-      </c>
-      <c r="E123" t="s">
-        <v>459</v>
-      </c>
-      <c r="F123" t="s">
-        <v>319</v>
-      </c>
-      <c r="G123" t="s">
-        <v>320</v>
       </c>
       <c r="H123" s="24">
         <f t="shared" si="1"/>
@@ -9800,16 +9951,16 @@
         <v>43735</v>
       </c>
       <c r="D124" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E124" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F124" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G124" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H124" s="24">
         <f t="shared" si="1"/>
@@ -9827,16 +9978,16 @@
         <v>43735</v>
       </c>
       <c r="D125" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E125" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F125" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G125" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H125" s="24">
         <f t="shared" si="1"/>
@@ -9854,16 +10005,16 @@
         <v>43736</v>
       </c>
       <c r="D126" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E126" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F126" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G126" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H126" s="24">
         <f t="shared" si="1"/>
@@ -9881,16 +10032,16 @@
         <v>43736</v>
       </c>
       <c r="D127" t="s">
+        <v>314</v>
+      </c>
+      <c r="E127" t="s">
+        <v>460</v>
+      </c>
+      <c r="F127" t="s">
+        <v>316</v>
+      </c>
+      <c r="G127" t="s">
         <v>317</v>
-      </c>
-      <c r="E127" t="s">
-        <v>463</v>
-      </c>
-      <c r="F127" t="s">
-        <v>319</v>
-      </c>
-      <c r="G127" t="s">
-        <v>320</v>
       </c>
       <c r="H127" s="24">
         <f t="shared" si="1"/>
@@ -9908,16 +10059,16 @@
         <v>43737</v>
       </c>
       <c r="D128" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E128" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F128" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G128" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H128" s="24">
         <f t="shared" si="1"/>
@@ -9935,16 +10086,16 @@
         <v>43737</v>
       </c>
       <c r="D129" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E129" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F129" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G129" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H129" s="24">
         <f t="shared" si="1"/>
@@ -9962,16 +10113,16 @@
         <v>43737</v>
       </c>
       <c r="D130" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E130" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F130" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G130" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H130" s="24">
         <f t="shared" ref="H130:H153" si="2">-LOOKUP(,-MIDB(G130,SEARCHB("?",G130),ROW($1:$15)))</f>
@@ -9989,16 +10140,16 @@
         <v>43737</v>
       </c>
       <c r="D131" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E131" t="s">
+        <v>464</v>
+      </c>
+      <c r="F131" t="s">
         <v>467</v>
       </c>
-      <c r="F131" t="s">
-        <v>470</v>
-      </c>
       <c r="G131" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H131" s="24">
         <f t="shared" si="2"/>
@@ -10016,16 +10167,16 @@
         <v>43738</v>
       </c>
       <c r="D132" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E132" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F132" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G132" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H132" s="24">
         <f t="shared" si="2"/>
@@ -10043,16 +10194,16 @@
         <v>43738</v>
       </c>
       <c r="D133" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E133" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F133" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G133" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H133" s="24">
         <f t="shared" si="2"/>
@@ -10070,16 +10221,16 @@
         <v>43725</v>
       </c>
       <c r="D134" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E134" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F134" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G134" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H134" s="24">
         <f t="shared" si="2"/>
@@ -10097,16 +10248,16 @@
         <v>43725</v>
       </c>
       <c r="D135" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E135" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F135" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G135" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H135" s="24">
         <f t="shared" si="2"/>
@@ -10124,16 +10275,16 @@
         <v>43726</v>
       </c>
       <c r="D136" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E136" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F136" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G136" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H136" s="24">
         <f t="shared" si="2"/>
@@ -10151,16 +10302,16 @@
         <v>43726</v>
       </c>
       <c r="D137" t="s">
+        <v>314</v>
+      </c>
+      <c r="E137" t="s">
+        <v>474</v>
+      </c>
+      <c r="F137" t="s">
+        <v>316</v>
+      </c>
+      <c r="G137" t="s">
         <v>317</v>
-      </c>
-      <c r="E137" t="s">
-        <v>477</v>
-      </c>
-      <c r="F137" t="s">
-        <v>319</v>
-      </c>
-      <c r="G137" t="s">
-        <v>320</v>
       </c>
       <c r="H137" s="24">
         <f t="shared" si="2"/>
@@ -10178,16 +10329,16 @@
         <v>43727</v>
       </c>
       <c r="D138" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E138" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F138" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G138" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H138" s="24">
         <f t="shared" si="2"/>
@@ -10205,16 +10356,16 @@
         <v>43727</v>
       </c>
       <c r="D139" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E139" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F139" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G139" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H139" s="24">
         <f t="shared" si="2"/>
@@ -10232,16 +10383,16 @@
         <v>43728</v>
       </c>
       <c r="D140" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E140" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F140" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G140" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H140" s="24">
         <f t="shared" si="2"/>
@@ -10259,16 +10410,16 @@
         <v>43728</v>
       </c>
       <c r="D141" t="s">
+        <v>314</v>
+      </c>
+      <c r="E141" t="s">
+        <v>478</v>
+      </c>
+      <c r="F141" t="s">
+        <v>316</v>
+      </c>
+      <c r="G141" t="s">
         <v>317</v>
-      </c>
-      <c r="E141" t="s">
-        <v>481</v>
-      </c>
-      <c r="F141" t="s">
-        <v>319</v>
-      </c>
-      <c r="G141" t="s">
-        <v>320</v>
       </c>
       <c r="H141" s="24">
         <f t="shared" si="2"/>
@@ -10286,16 +10437,16 @@
         <v>43730</v>
       </c>
       <c r="D142" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E142" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F142" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G142" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H142" s="24">
         <f t="shared" si="2"/>
@@ -10313,16 +10464,16 @@
         <v>43730</v>
       </c>
       <c r="D143" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E143" t="s">
+        <v>479</v>
+      </c>
+      <c r="F143" t="s">
         <v>482</v>
       </c>
-      <c r="F143" t="s">
-        <v>485</v>
-      </c>
       <c r="G143" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H143" s="24">
         <f t="shared" si="2"/>
@@ -10340,16 +10491,16 @@
         <v>43731</v>
       </c>
       <c r="D144" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E144" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F144" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G144" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H144" s="24">
         <f t="shared" si="2"/>
@@ -10367,16 +10518,16 @@
         <v>43731</v>
       </c>
       <c r="D145" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E145" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F145" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G145" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H145" s="24">
         <f t="shared" si="2"/>
@@ -10394,16 +10545,16 @@
         <v>43732</v>
       </c>
       <c r="D146" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E146" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F146" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G146" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H146" s="24">
         <f t="shared" si="2"/>
@@ -10421,16 +10572,16 @@
         <v>43732</v>
       </c>
       <c r="D147" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E147" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F147" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G147" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H147" s="24">
         <f t="shared" si="2"/>
@@ -10448,16 +10599,16 @@
         <v>43733</v>
       </c>
       <c r="D148" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E148" t="s">
+        <v>455</v>
+      </c>
+      <c r="F148" t="s">
         <v>458</v>
       </c>
-      <c r="F148" t="s">
-        <v>461</v>
-      </c>
       <c r="G148" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H148" s="24">
         <f t="shared" si="2"/>
@@ -10475,16 +10626,16 @@
         <v>43733</v>
       </c>
       <c r="D149" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E149" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F149" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G149" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H149" s="24">
         <f t="shared" si="2"/>
@@ -10502,16 +10653,16 @@
         <v>43733</v>
       </c>
       <c r="D150" t="s">
+        <v>318</v>
+      </c>
+      <c r="E150" t="s">
+        <v>455</v>
+      </c>
+      <c r="F150" t="s">
+        <v>320</v>
+      </c>
+      <c r="G150" t="s">
         <v>321</v>
-      </c>
-      <c r="E150" t="s">
-        <v>458</v>
-      </c>
-      <c r="F150" t="s">
-        <v>323</v>
-      </c>
-      <c r="G150" t="s">
-        <v>324</v>
       </c>
       <c r="H150" s="24">
         <f t="shared" si="2"/>
@@ -10529,16 +10680,16 @@
         <v>43733</v>
       </c>
       <c r="D151" t="s">
+        <v>314</v>
+      </c>
+      <c r="E151" t="s">
+        <v>455</v>
+      </c>
+      <c r="F151" t="s">
+        <v>316</v>
+      </c>
+      <c r="G151" t="s">
         <v>317</v>
-      </c>
-      <c r="E151" t="s">
-        <v>458</v>
-      </c>
-      <c r="F151" t="s">
-        <v>319</v>
-      </c>
-      <c r="G151" t="s">
-        <v>320</v>
       </c>
       <c r="H151" s="24">
         <f t="shared" si="2"/>
@@ -10556,16 +10707,16 @@
         <v>43733</v>
       </c>
       <c r="D152" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E152" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F152" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G152" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H152" s="24">
         <f t="shared" si="2"/>
@@ -10583,16 +10734,16 @@
         <v>43733</v>
       </c>
       <c r="D153" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E153" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F153" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G153" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H153" s="24">
         <f t="shared" si="2"/>
@@ -22010,7 +22161,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K2:K31">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>$A$6</formula>
     </cfRule>
   </conditionalFormatting>
